--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152ABDE-9986-6E4B-92EF-AEFB3893989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CF87D-E23B-0C4C-86BD-777ED2D67EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48280" yWindow="-2960" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="780">
   <si>
     <t>Last Name</t>
   </si>
@@ -2526,6 +2526,30 @@
   </si>
   <si>
     <t>DirtySquirrels</t>
+  </si>
+  <si>
+    <t>SpicyChalupas</t>
+  </si>
+  <si>
+    <t>TheCrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>DreamRaccons</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>ScramJets</t>
   </si>
 </sst>
 </file>
@@ -3144,7 +3168,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3196,6 +3220,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3562,7 +3587,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3655,7 +3680,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3712,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3778,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3844,7 +3869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3901,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3958,7 +3983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4024,7 +4049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4081,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4138,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4195,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4252,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4321,7 +4346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4378,7 +4403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4435,7 +4460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4492,7 +4517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4560,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4626,7 +4651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4683,7 +4708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4749,7 +4774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4815,7 +4840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4872,7 +4897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4929,7 +4954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4986,7 +5011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5052,7 +5077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5117,7 +5142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5174,7 +5199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5243,7 +5268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5308,7 +5333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5374,7 +5399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5439,7 +5464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -7091,9 +7116,18 @@
         <f t="shared" si="9"/>
         <v>David</v>
       </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H58" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>773</v>
       </c>
       <c r="K58" s="4">
         <v>3</v>
@@ -7148,9 +7182,21 @@
         <f t="shared" si="9"/>
         <v>Mia</v>
       </c>
+      <c r="F59" s="3">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="H59" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>774</v>
       </c>
       <c r="K59" s="4">
         <v>4</v>
@@ -7197,17 +7243,26 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D60" s="3" t="str">
+      <c r="D60" s="33" t="str">
         <f t="shared" si="8"/>
         <v>Julie Dosher</v>
       </c>
-      <c r="E60" s="3" t="str">
+      <c r="E60" s="33" t="str">
         <f t="shared" si="9"/>
         <v>Julie</v>
       </c>
+      <c r="F60" s="3">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H60" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K60" s="4">
         <v>5</v>
@@ -7262,9 +7317,15 @@
         <f t="shared" si="9"/>
         <v>Shane</v>
       </c>
+      <c r="F61" s="3">
+        <v>4</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>766</v>
+      </c>
       <c r="H61" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K61" s="4">
         <v>6</v>
@@ -7319,9 +7380,18 @@
         <f t="shared" si="9"/>
         <v>Grant</v>
       </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>766</v>
+      </c>
       <c r="H62" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>772</v>
       </c>
       <c r="K62" s="4">
         <v>1</v>
@@ -7376,9 +7446,15 @@
         <f t="shared" si="9"/>
         <v>Michael</v>
       </c>
+      <c r="F63" s="3">
+        <v>3</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H63" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63" s="4">
         <v>2</v>
@@ -7426,16 +7502,22 @@
         <v>7</v>
       </c>
       <c r="D64" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(E64," ",R64)</f>
         <v>Jose Montes De Oca Morfin</v>
       </c>
       <c r="E64" s="32" t="str">
         <f t="shared" si="9"/>
         <v>Jose</v>
       </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>763</v>
+      </c>
       <c r="H64" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" s="4">
         <v>3</v>
@@ -7494,6 +7576,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="I65" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="K65" s="4">
         <v>4</v>
       </c>
@@ -7547,9 +7632,18 @@
         <f t="shared" ref="E66:E91" si="15">S66</f>
         <v>Huzaifa</v>
       </c>
+      <c r="F66" s="3">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H66" s="30">
         <f t="shared" ref="H66:H91" si="16">F66</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K66" s="4">
         <v>5</v>
@@ -7604,9 +7698,18 @@
         <f t="shared" si="15"/>
         <v>Parker</v>
       </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="H67" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K67" s="4">
         <v>6</v>
@@ -7641,7 +7744,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7698,7 +7801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7712,15 +7815,20 @@
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Hamzeh Albaz</v>
-      </c>
-      <c r="E69" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Hamzeh</v>
+        <v>Z Albaz</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>777</v>
       </c>
       <c r="H69" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K69" s="4">
         <v>2</v>
@@ -7755,7 +7863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7778,6 +7886,9 @@
       <c r="H70" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K70" s="4">
         <v>3</v>
@@ -7812,7 +7923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7869,7 +7980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7889,9 +8000,15 @@
         <f t="shared" si="15"/>
         <v>Jefferson</v>
       </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="H72" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" s="4">
         <v>5</v>
@@ -7926,7 +8043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7940,15 +8057,20 @@
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Joseph Devito</v>
-      </c>
-      <c r="E73" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Joseph</v>
+        <v>Joey Devito</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>763</v>
       </c>
       <c r="H73" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" s="4">
         <v>6</v>
@@ -7983,7 +8105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8040,7 +8162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8060,9 +8182,15 @@
         <f t="shared" si="15"/>
         <v>Adam</v>
       </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H75" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="4">
         <v>2</v>
@@ -8097,7 +8225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8117,9 +8245,18 @@
         <f t="shared" si="15"/>
         <v>Jubin</v>
       </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H76" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K76" s="4">
         <v>3</v>
@@ -8154,7 +8291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8168,15 +8305,23 @@
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Christopher Jules</v>
-      </c>
-      <c r="E77" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Christopher</v>
+        <v>Chris Jules</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>765</v>
       </c>
       <c r="H77" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>776</v>
       </c>
       <c r="K77" s="4">
         <v>4</v>
@@ -8211,7 +8356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8231,9 +8376,15 @@
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>766</v>
+      </c>
       <c r="H78" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" s="4">
         <v>5</v>
@@ -8268,7 +8419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8288,9 +8439,15 @@
         <f t="shared" si="15"/>
         <v>James</v>
       </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H79" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" s="4">
         <v>6</v>
@@ -8325,7 +8482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8382,7 +8539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8402,9 +8559,15 @@
         <f t="shared" si="15"/>
         <v>Grover</v>
       </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="H81" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="4">
         <v>2</v>
@@ -9033,7 +9196,7 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CF87D-E23B-0C4C-86BD-777ED2D67EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA6D9B-F050-A241-8D9A-6A7A510EACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38880" yWindow="-4100" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="781">
   <si>
     <t>Last Name</t>
   </si>
@@ -2492,9 +2492,6 @@
     <t>b</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alanna</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -2550,6 +2547,12 @@
   </si>
   <si>
     <t>ScramJets</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Alanna</t>
   </si>
 </sst>
 </file>
@@ -3168,7 +3171,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3216,11 +3219,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3586,8 +3585,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3680,7 +3679,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3737,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3761,14 +3760,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H3" s="30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K3" s="4">
         <v>2</v>
@@ -3803,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3869,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3926,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3983,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4014,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K7" s="4">
         <v>6</v>
@@ -4049,7 +4048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4106,7 +4105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4163,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4220,7 +4219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4277,7 +4276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4301,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" si="4"/>
@@ -4346,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4403,7 +4402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4460,7 +4459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4517,7 +4516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4547,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>93</v>
@@ -4585,7 +4584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4651,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4708,7 +4707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4732,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="4"/>
@@ -4774,7 +4773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4798,7 +4797,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="4"/>
@@ -4840,7 +4839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4897,7 +4896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4954,7 +4953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5011,7 +5010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5035,14 +5034,14 @@
         <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H24" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K24" s="4">
         <v>5</v>
@@ -5077,7 +5076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5094,20 +5093,20 @@
         <v>Vinny Ringelsten</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H25" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K25" s="4">
         <v>6</v>
@@ -5142,7 +5141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5199,7 +5198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5223,14 +5222,14 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>93</v>
@@ -5268,7 +5267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5282,23 +5281,23 @@
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> Alanna San Luis</v>
+        <v>Alanna San Luis</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H28" s="30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K28" s="4">
         <v>3</v>
@@ -5333,7 +5332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5357,14 +5356,14 @@
         <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K29" s="4">
         <v>4</v>
@@ -5399,7 +5398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5422,14 +5421,14 @@
         <v>2</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H30" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K30" s="4">
         <v>5</v>
@@ -5464,7 +5463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5545,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H32" s="30">
         <f t="shared" si="4"/>
@@ -5775,7 +5774,7 @@
         <v>Joe Egan</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -5840,13 +5839,13 @@
         <v>Chuckie Gentile</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H37" s="30">
         <f t="shared" si="10"/>
@@ -6019,20 +6018,20 @@
         <v>Joe Janda</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H40" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K40" s="4">
         <v>3</v>
@@ -6205,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6328,14 +6327,14 @@
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H45" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K45" s="4">
         <v>2</v>
@@ -6565,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" si="10"/>
@@ -6691,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H51" s="30">
         <f t="shared" si="10"/>
@@ -6757,14 +6756,14 @@
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H52" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K52" s="4">
         <v>3</v>
@@ -7054,14 +7053,14 @@
         <v>2</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H57" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K57" s="4">
         <v>2</v>
@@ -7108,11 +7107,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D58" s="32" t="str">
+      <c r="D58" s="31" t="str">
         <f t="shared" si="8"/>
         <v>David Abrutis</v>
       </c>
-      <c r="E58" s="32" t="str">
+      <c r="E58" s="31" t="str">
         <f t="shared" si="9"/>
         <v>David</v>
       </c>
@@ -7120,14 +7119,14 @@
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H58" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K58" s="4">
         <v>3</v>
@@ -7186,7 +7185,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H59" s="30">
         <f t="shared" si="10"/>
@@ -7196,7 +7195,7 @@
         <v>314</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K59" s="4">
         <v>4</v>
@@ -7243,11 +7242,11 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D60" s="33" t="str">
+      <c r="D60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Julie Dosher</v>
       </c>
-      <c r="E60" s="33" t="str">
+      <c r="E60" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Julie</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H61" s="30">
         <f t="shared" si="10"/>
@@ -7384,14 +7383,14 @@
         <v>2</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H62" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K62" s="4">
         <v>1</v>
@@ -7450,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H63" s="30">
         <f t="shared" si="10"/>
@@ -7501,11 +7500,11 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="D64" s="32" t="str">
+      <c r="D64" s="31" t="str">
         <f>CONCATENATE(E64," ",R64)</f>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E64" s="32" t="str">
+      <c r="E64" s="31" t="str">
         <f t="shared" si="9"/>
         <v>Jose</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H64" s="30">
         <f t="shared" si="10"/>
@@ -7561,7 +7560,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65:C91" si="12">Q65</f>
+        <f t="shared" ref="C65:C92" si="12">Q65</f>
         <v>8</v>
       </c>
       <c r="D65" s="3" t="str">
@@ -7577,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K65" s="4">
         <v>4</v>
@@ -7614,7 +7613,7 @@
     </row>
     <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A91" si="13">RIGHT(P66,9)</f>
+        <f t="shared" ref="A66:A92" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7625,11 +7624,11 @@
         <v>9</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D91" si="14">CONCATENATE(E66," ",R66)</f>
+        <f t="shared" ref="D66:D92" si="14">CONCATENATE(E66," ",R66)</f>
         <v>Huzaifa Razzak</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E91" si="15">S66</f>
+        <f t="shared" ref="E66:E92" si="15">S66</f>
         <v>Huzaifa</v>
       </c>
       <c r="F66" s="3">
@@ -7651,7 +7650,7 @@
       <c r="L66" s="30"/>
       <c r="M66" s="9"/>
       <c r="N66" s="3" t="str">
-        <f t="shared" ref="N66:N91" si="17">CONCATENATE(R66,", ",S66)</f>
+        <f t="shared" ref="N66:N92" si="17">CONCATENATE(R66,", ",S66)</f>
         <v>Razzak, Huzaifa</v>
       </c>
       <c r="O66" s="9"/>
@@ -7702,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H67" s="30">
         <f t="shared" si="16"/>
@@ -7744,7 +7743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7756,11 +7755,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D68" s="32" t="str">
+      <c r="D68" s="31" t="str">
         <f t="shared" si="14"/>
         <v>David Abrutis</v>
       </c>
-      <c r="E68" s="32" t="str">
+      <c r="E68" s="31" t="str">
         <f t="shared" si="15"/>
         <v>David</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7818,14 +7817,14 @@
         <v>Z Albaz</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H69" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>93</v>
@@ -7863,7 +7862,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7923,7 +7922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -7980,7 +7979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8004,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H72" s="30">
         <f t="shared" si="16"/>
@@ -8043,7 +8042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8060,13 +8059,13 @@
         <v>Joey Devito</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H73" s="30">
         <f t="shared" si="16"/>
@@ -8105,7 +8104,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8162,7 +8161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8186,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H75" s="30">
         <f t="shared" si="16"/>
@@ -8225,7 +8224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8291,7 +8290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8308,20 +8307,20 @@
         <v>Chris Jules</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F77" s="3">
         <v>1</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H77" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K77" s="4">
         <v>4</v>
@@ -8356,7 +8355,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8380,7 +8379,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H78" s="30">
         <f t="shared" si="16"/>
@@ -8419,7 +8418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8482,7 +8481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8539,7 +8538,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8563,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H81" s="30">
         <f t="shared" si="16"/>
@@ -8626,6 +8625,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J82" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="K82" s="4">
         <v>3</v>
       </c>
@@ -8675,15 +8677,17 @@
       </c>
       <c r="D83" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Stephen Feddes</v>
-      </c>
-      <c r="E83" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Stephen</v>
+        <v>Steve Feddes</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="H83" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="K83" s="4">
         <v>4</v>
@@ -8909,11 +8913,11 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="D87" s="32" t="str">
+      <c r="D87" s="31" t="str">
         <f t="shared" si="14"/>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E87" s="32" t="str">
+      <c r="E87" s="31" t="str">
         <f t="shared" si="15"/>
         <v>Jose</v>
       </c>
@@ -8924,7 +8928,9 @@
       <c r="K87" s="4">
         <v>2</v>
       </c>
-      <c r="L87" s="31"/>
+      <c r="L87" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="M87" s="9"/>
       <c r="N87" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9037,10 +9043,13 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J89" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="K89" s="4">
         <v>4</v>
       </c>
-      <c r="L89" s="31" t="s">
+      <c r="L89" s="30" t="s">
         <v>451</v>
       </c>
       <c r="M89" s="9"/>
@@ -9099,7 +9108,9 @@
       <c r="K90" s="4">
         <v>5</v>
       </c>
-      <c r="L90" s="31"/>
+      <c r="L90" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="M90" s="9"/>
       <c r="N90" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9156,7 +9167,9 @@
       <c r="K91" s="4">
         <v>6</v>
       </c>
-      <c r="L91" s="31"/>
+      <c r="L91" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="M91" s="9"/>
       <c r="N91" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9186,7 +9199,46 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>49200-001</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Julie Dosher</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Julie</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="N92" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Dosher, Julie</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>11</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="93" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9196,7 +9248,7 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA6D9B-F050-A241-8D9A-6A7A510EACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AD9A2-B385-604F-94DB-E22BDB057A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38880" yWindow="-4100" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="793">
   <si>
     <t>Last Name</t>
   </si>
@@ -2553,6 +2553,42 @@
   </si>
   <si>
     <t>Alanna</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Seb</t>
+  </si>
+  <si>
+    <t>DoorCorps</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Towmaters</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Rashid</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>LightnighMcQueen</t>
+  </si>
+  <si>
+    <t>GorillaGang</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3010,6 +3046,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3171,7 +3213,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3220,6 +3262,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3586,7 +3629,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3679,7 +3722,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3693,15 +3736,23 @@
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" ref="D2:D33" si="2">CONCATENATE(E2," ",R2)</f>
-        <v>Elizabeth Adelman</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E33" si="3">S2</f>
-        <v>Elizabeth</v>
+        <v>Beth Adelman</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="H2" s="30">
-        <f t="shared" ref="H2:H33" si="4">F2</f>
-        <v>0</v>
+        <f t="shared" ref="H2:H33" si="3">F2</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
@@ -3709,7 +3760,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3" t="str">
-        <f t="shared" ref="N2:N33" si="5">CONCATENATE(R2,", ",S2)</f>
+        <f t="shared" ref="N2:N33" si="4">CONCATENATE(R2,", ",S2)</f>
         <v>Adelman, Elizabeth</v>
       </c>
       <c r="O2" s="9"/>
@@ -3736,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3753,7 +3804,7 @@
         <v>Alan Bota</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E2:E33" si="5">S3</f>
         <v>Alan</v>
       </c>
       <c r="F3" s="3">
@@ -3763,7 +3814,7 @@
         <v>762</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3775,7 +3826,7 @@
       <c r="L3" s="30"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Bota, Alan</v>
       </c>
       <c r="O3" s="9"/>
@@ -3802,7 +3853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3819,7 +3870,7 @@
         <v>Amelia Bresnahan</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Amelia</v>
       </c>
       <c r="F4" s="3">
@@ -3829,7 +3880,7 @@
         <v>759</v>
       </c>
       <c r="H4" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -3841,7 +3892,7 @@
       <c r="L4" s="30"/>
       <c r="M4" s="9"/>
       <c r="N4" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Bresnahan, Amelia</v>
       </c>
       <c r="O4" s="9"/>
@@ -3868,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3880,16 +3931,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Robert Didomenico</v>
       </c>
       <c r="E5" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Robert</v>
+      </c>
+      <c r="H5" s="30">
         <f t="shared" si="3"/>
-        <v>Robert</v>
-      </c>
-      <c r="H5" s="30">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
@@ -3898,7 +3949,7 @@
       <c r="L5" s="30"/>
       <c r="M5" s="9"/>
       <c r="N5" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Didomenico, Robert</v>
       </c>
       <c r="O5" s="9"/>
@@ -3925,7 +3976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3939,15 +3990,20 @@
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Joshua Faulstroh</v>
-      </c>
-      <c r="E6" s="3" t="str">
+        <v>Josh Faulstroh</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H6" s="30">
         <f t="shared" si="3"/>
-        <v>Joshua</v>
-      </c>
-      <c r="H6" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4">
         <v>5</v>
@@ -3955,7 +4011,7 @@
       <c r="L6" s="30"/>
       <c r="M6" s="9"/>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Faulstroh, Joshua</v>
       </c>
       <c r="O6" s="9"/>
@@ -3982,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3999,7 +4055,7 @@
         <v>Angelo Fornero</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Angelo</v>
       </c>
       <c r="F7" s="3">
@@ -4009,7 +4065,7 @@
         <v>759</v>
       </c>
       <c r="H7" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -4021,7 +4077,7 @@
       <c r="L7" s="30"/>
       <c r="M7" s="9"/>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Fornero, Angelo</v>
       </c>
       <c r="O7" s="9"/>
@@ -4048,7 +4104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4065,12 +4121,18 @@
         <v>Johan Gonzalez</v>
       </c>
       <c r="E8" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Johan</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H8" s="30">
         <f t="shared" si="3"/>
-        <v>Johan</v>
-      </c>
-      <c r="H8" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
@@ -4078,7 +4140,7 @@
       <c r="L8" s="30"/>
       <c r="M8" s="9"/>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Gonzalez, Johan</v>
       </c>
       <c r="O8" s="9"/>
@@ -4105,7 +4167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4117,16 +4179,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Eric Guzman</v>
       </c>
       <c r="E9" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Eric</v>
+      </c>
+      <c r="H9" s="30">
         <f t="shared" si="3"/>
-        <v>Eric</v>
-      </c>
-      <c r="H9" s="30">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
@@ -4135,7 +4197,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="9"/>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Guzman, Eric</v>
       </c>
       <c r="O9" s="9"/>
@@ -4162,7 +4224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4174,17 +4236,21 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Cherokee Hammonds</v>
       </c>
       <c r="E10" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Cherokee</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="30">
         <f t="shared" si="3"/>
-        <v>Cherokee</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" s="4">
         <v>3</v>
@@ -4192,7 +4258,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="9"/>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hammonds, Cherokee</v>
       </c>
       <c r="O10" s="9"/>
@@ -4219,7 +4285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4236,12 +4302,18 @@
         <v>Erick Hernandez</v>
       </c>
       <c r="E11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Erick</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="H11" s="30">
         <f t="shared" si="3"/>
-        <v>Erick</v>
-      </c>
-      <c r="H11" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="4">
         <v>4</v>
@@ -4249,7 +4321,7 @@
       <c r="L11" s="30"/>
       <c r="M11" s="9"/>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hernandez, Erick</v>
       </c>
       <c r="O11" s="9"/>
@@ -4276,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4293,7 +4365,7 @@
         <v>Cael Hiser</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Cael</v>
       </c>
       <c r="F12" s="3">
@@ -4303,7 +4375,7 @@
         <v>761</v>
       </c>
       <c r="H12" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -4318,7 +4390,7 @@
       <c r="L12" s="30"/>
       <c r="M12" s="9"/>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hiser, Cael</v>
       </c>
       <c r="O12" s="9"/>
@@ -4345,7 +4417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4362,12 +4434,18 @@
         <v>Cameron Hoying</v>
       </c>
       <c r="E13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Cameron</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H13" s="30">
         <f t="shared" si="3"/>
-        <v>Cameron</v>
-      </c>
-      <c r="H13" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4">
         <v>6</v>
@@ -4375,7 +4453,7 @@
       <c r="L13" s="30"/>
       <c r="M13" s="9"/>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Hoying, Cameron</v>
       </c>
       <c r="O13" s="9"/>
@@ -4402,7 +4480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4416,15 +4494,20 @@
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Sebastian Jaculbe</v>
-      </c>
-      <c r="E14" s="3" t="str">
+        <v>Seb Jaculbe</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="H14" s="30">
         <f t="shared" si="3"/>
-        <v>Sebastian</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -4432,7 +4515,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="9"/>
       <c r="N14" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Jaculbe, Sebastian</v>
       </c>
       <c r="O14" s="9"/>
@@ -4459,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4476,12 +4559,21 @@
         <v>Ryan Kelty</v>
       </c>
       <c r="E15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Ryan</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H15" s="30">
         <f t="shared" si="3"/>
-        <v>Ryan</v>
-      </c>
-      <c r="H15" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -4489,7 +4581,7 @@
       <c r="L15" s="30"/>
       <c r="M15" s="9"/>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Kelty, Ryan</v>
       </c>
       <c r="O15" s="9"/>
@@ -4516,7 +4608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4542,7 +4634,7 @@
         <v>759</v>
       </c>
       <c r="H16" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -4557,7 +4649,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="9"/>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Krzysiak, Nicholas</v>
       </c>
       <c r="O16" s="9"/>
@@ -4584,7 +4676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4601,7 +4693,7 @@
         <v>Roman Lewis</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Roman</v>
       </c>
       <c r="F17" s="3">
@@ -4611,8 +4703,11 @@
         <v>759</v>
       </c>
       <c r="H17" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>93</v>
@@ -4623,7 +4718,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="9"/>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Lewis, Roman</v>
       </c>
       <c r="O17" s="9"/>
@@ -4650,7 +4745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4667,12 +4762,21 @@
         <v>Justin Meyer</v>
       </c>
       <c r="E18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Justin</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H18" s="30">
         <f t="shared" si="3"/>
-        <v>Justin</v>
-      </c>
-      <c r="H18" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="K18" s="4">
         <v>5</v>
@@ -4680,7 +4784,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="9"/>
       <c r="N18" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Meyer, Justin</v>
       </c>
       <c r="O18" s="9"/>
@@ -4707,7 +4811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4724,7 +4828,7 @@
         <v>Hassaan Mian</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Hassaan</v>
       </c>
       <c r="F19" s="3">
@@ -4734,7 +4838,7 @@
         <v>764</v>
       </c>
       <c r="H19" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -4746,7 +4850,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="9"/>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Mian, Hassaan</v>
       </c>
       <c r="O19" s="9"/>
@@ -4773,7 +4877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4790,7 +4894,7 @@
         <v>John Mola</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>John</v>
       </c>
       <c r="F20" s="3">
@@ -4800,8 +4904,11 @@
         <v>765</v>
       </c>
       <c r="H20" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>93</v>
@@ -4812,7 +4919,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="9"/>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Mola, John</v>
       </c>
       <c r="O20" s="9"/>
@@ -4839,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4853,15 +4960,23 @@
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Anthony Morelli</v>
-      </c>
-      <c r="E21" s="3" t="str">
+        <v>Tony Morelli</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H21" s="30">
         <f t="shared" si="3"/>
-        <v>Anthony</v>
-      </c>
-      <c r="H21" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="K21" s="4">
         <v>2</v>
@@ -4869,7 +4984,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="9"/>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Morelli, Anthony</v>
       </c>
       <c r="O21" s="9"/>
@@ -4896,7 +5011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4913,12 +5028,21 @@
         <v>Sadri Ozgul</v>
       </c>
       <c r="E22" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Sadri</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="H22" s="30">
         <f t="shared" si="3"/>
-        <v>Sadri</v>
-      </c>
-      <c r="H22" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="K22" s="4">
         <v>3</v>
@@ -4926,7 +5050,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="9"/>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Ozgul, Sadri</v>
       </c>
       <c r="O22" s="9"/>
@@ -4953,7 +5077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4970,12 +5094,18 @@
         <v>Jordan Pohancek</v>
       </c>
       <c r="E23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Jordan</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H23" s="30">
         <f t="shared" si="3"/>
-        <v>Jordan</v>
-      </c>
-      <c r="H23" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="4">
         <v>4</v>
@@ -4983,7 +5113,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="9"/>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Pohancek, Jordan</v>
       </c>
       <c r="O23" s="9"/>
@@ -5010,7 +5140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5027,7 +5157,7 @@
         <v>Adam Rehus</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Adam</v>
       </c>
       <c r="F24" s="3">
@@ -5037,7 +5167,7 @@
         <v>760</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -5049,7 +5179,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="9"/>
       <c r="N24" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Rehus, Adam</v>
       </c>
       <c r="O24" s="9"/>
@@ -5076,7 +5206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5102,7 +5232,7 @@
         <v>762</v>
       </c>
       <c r="H25" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -5114,7 +5244,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="9"/>
       <c r="N25" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Ringelsten, Vincent</v>
       </c>
       <c r="O25" s="9"/>
@@ -5141,7 +5271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5155,15 +5285,20 @@
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Edward Rodriguez</v>
-      </c>
-      <c r="E26" s="3" t="str">
+        <v>Eddy Rodriguez</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H26" s="30">
         <f t="shared" si="3"/>
-        <v>Edward</v>
-      </c>
-      <c r="H26" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5171,7 +5306,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="9"/>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Rodriguez, Edward</v>
       </c>
       <c r="O26" s="9"/>
@@ -5198,7 +5333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5215,7 +5350,7 @@
         <v>Juan Rodriguez</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Juan</v>
       </c>
       <c r="F27" s="3">
@@ -5225,7 +5360,7 @@
         <v>761</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -5240,7 +5375,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="9"/>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Rodriguez, Juan</v>
       </c>
       <c r="O27" s="9"/>
@@ -5267,7 +5402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5293,7 +5428,7 @@
         <v>760</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -5305,7 +5440,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="9"/>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>San Luis, Alanna Marie</v>
       </c>
       <c r="O28" s="9"/>
@@ -5332,7 +5467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5349,7 +5484,7 @@
         <v>Matthew Santiago</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Matthew</v>
       </c>
       <c r="F29" s="3">
@@ -5359,7 +5494,7 @@
         <v>765</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -5371,7 +5506,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="9"/>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Santiago, Matthew</v>
       </c>
       <c r="O29" s="9"/>
@@ -5398,7 +5533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5424,7 +5559,7 @@
         <v>764</v>
       </c>
       <c r="H30" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -5436,7 +5571,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="9"/>
       <c r="N30" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Sittler, Matthew</v>
       </c>
       <c r="O30" s="9"/>
@@ -5463,7 +5598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5480,12 +5615,21 @@
         <v>Dominic Varchetto</v>
       </c>
       <c r="E31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Dominic</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="H31" s="30">
         <f t="shared" si="3"/>
-        <v>Dominic</v>
-      </c>
-      <c r="H31" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="K31" s="4">
         <v>6</v>
@@ -5493,7 +5637,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="9"/>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Varchetto, Dominic</v>
       </c>
       <c r="O31" s="9"/>
@@ -5537,7 +5681,7 @@
         <v>Sarah Abuisneineh</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Sarah</v>
       </c>
       <c r="F32" s="3">
@@ -5547,7 +5691,7 @@
         <v>765</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -5559,7 +5703,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="9"/>
       <c r="N32" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Abuisneineh, Sarah</v>
       </c>
       <c r="O32" s="9"/>
@@ -5600,15 +5744,20 @@
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Narzulla Gafforovich Alimatov</v>
-      </c>
-      <c r="E33" s="3" t="str">
+        <v>Ali Alimatov</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H33" s="30">
         <f t="shared" si="3"/>
-        <v>Narzulla Gafforovich</v>
-      </c>
-      <c r="H33" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="4">
         <v>2</v>
@@ -5616,7 +5765,7 @@
       <c r="L33" s="30"/>
       <c r="M33" s="9"/>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Alimatov, Narzulla Gafforovich</v>
       </c>
       <c r="O33" s="9"/>
@@ -5663,9 +5812,15 @@
         <f t="shared" ref="E34:E65" si="9">S34</f>
         <v>Gene</v>
       </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="H34" s="30">
         <f t="shared" ref="H34:H65" si="10">F34</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" s="4">
         <v>3</v>
@@ -5720,9 +5875,18 @@
         <f t="shared" si="9"/>
         <v>Luis</v>
       </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="H35" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="K35" s="4">
         <v>4</v>
@@ -5907,9 +6071,15 @@
         <f t="shared" si="9"/>
         <v>Brandon</v>
       </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="H38" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="4">
         <v>1</v>
@@ -5958,15 +6128,23 @@
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Ahmed Ismail Mohamed Ismail Ibrahim</v>
-      </c>
-      <c r="E39" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Ahmed Ismail Mohamed Ismail</v>
+        <v>Ahmed Ibrahim</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>765</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="K39" s="4">
         <v>2</v>
@@ -6001,7 +6179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6017,7 +6195,7 @@
         <f t="shared" si="8"/>
         <v>Joe Janda</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="32" t="s">
         <v>768</v>
       </c>
       <c r="F40" s="3">
@@ -6086,9 +6264,15 @@
         <f t="shared" si="9"/>
         <v>Alexa Grace</v>
       </c>
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="H41" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="4">
         <v>4</v>
@@ -6137,15 +6321,23 @@
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Zachary Mucha</v>
-      </c>
-      <c r="E42" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Zachary</v>
+        <v>Zach Mucha</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="K42" s="4">
         <v>5</v>
@@ -6260,15 +6452,20 @@
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Rashid Khusniddinovich Nazmiddinov</v>
-      </c>
-      <c r="E44" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Rashid Khusniddinovich</v>
+        <v>Rashid Nazmiddinov</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="H44" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="4">
         <v>1</v>
@@ -6303,7 +6500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6389,9 +6586,18 @@
         <f t="shared" si="9"/>
         <v>Natalia</v>
       </c>
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H46" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="K46" s="4">
         <v>3</v>
@@ -6446,9 +6652,15 @@
         <f t="shared" si="9"/>
         <v>Karen</v>
       </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="H47" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K47" s="4">
         <v>4</v>
@@ -6497,15 +6709,23 @@
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Nicholas Paugys</v>
-      </c>
-      <c r="E48" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Nicholas</v>
+        <v>Nick Paugys</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="K48" s="4">
         <v>5</v>
@@ -6629,9 +6849,15 @@
         <f t="shared" si="9"/>
         <v>Mario</v>
       </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H50" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K50" s="4">
         <v>1</v>
@@ -6732,7 +6958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6818,9 +7044,21 @@
         <f t="shared" si="9"/>
         <v>Gavin</v>
       </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H53" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K53" s="4">
         <v>4</v>
@@ -6875,9 +7113,18 @@
         <f t="shared" si="9"/>
         <v>Caroline</v>
       </c>
+      <c r="F54" s="3">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="H54" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="K54" s="4">
         <v>5</v>
@@ -6932,9 +7179,15 @@
         <f t="shared" si="9"/>
         <v>Andrew</v>
       </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="H55" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K55" s="4">
         <v>6</v>
@@ -6989,12 +7242,18 @@
         <f t="shared" si="9"/>
         <v>David</v>
       </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="H56" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="K56" s="4">
         <v>1</v>
@@ -7029,7 +7288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9248,7 +9507,12 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="20000-003"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AD9A2-B385-604F-94DB-E22BDB057A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF516978-C0F7-6F43-94F8-541A93D07434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="794">
   <si>
     <t>Last Name</t>
   </si>
@@ -2589,6 +2589,9 @@
   </si>
   <si>
     <t>Ahmed</t>
+  </si>
+  <si>
+    <t>AllPassers</t>
   </si>
 </sst>
 </file>
@@ -3629,7 +3632,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3804,7 +3807,7 @@
         <v>Alan Bota</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E2:E33" si="5">S3</f>
+        <f t="shared" ref="E3:E32" si="5">S3</f>
         <v>Alan</v>
       </c>
       <c r="F3" s="3">
@@ -6179,7 +6182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6958,7 +6961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7288,7 +7291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7519,6 +7522,9 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="I60" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="J60" s="3" t="s">
         <v>93</v>
       </c>
@@ -7585,6 +7591,9 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="I61" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="K61" s="4">
         <v>6</v>
       </c>
@@ -7714,6 +7723,9 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="I63" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="K63" s="4">
         <v>2</v>
       </c>
@@ -7777,6 +7789,9 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="I64" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="K64" s="4">
         <v>3</v>
       </c>
@@ -7830,9 +7845,15 @@
         <f t="shared" si="9"/>
         <v>Rahul</v>
       </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="H65" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>771</v>
@@ -7900,6 +7921,9 @@
         <f t="shared" ref="H66:H91" si="16">F66</f>
         <v>3</v>
       </c>
+      <c r="I66" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="J66" s="3" t="s">
         <v>93</v>
       </c>
@@ -7966,6 +7990,9 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
+      <c r="I67" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="J67" s="3" t="s">
         <v>93</v>
       </c>
@@ -8002,7 +8029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8022,9 +8049,18 @@
         <f t="shared" si="15"/>
         <v>David</v>
       </c>
+      <c r="F68" s="3">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="H68" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="K68" s="4">
         <v>1</v>
@@ -8078,9 +8114,15 @@
       <c r="E69" s="3" t="s">
         <v>776</v>
       </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="H69" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>778</v>
@@ -8121,7 +8163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8141,9 +8183,18 @@
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
+      <c r="F70" s="3">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="H70" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>93</v>
@@ -8181,7 +8232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8201,9 +8252,18 @@
         <f t="shared" si="15"/>
         <v>Ryan</v>
       </c>
+      <c r="F71" s="3">
+        <v>3</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H71" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="K71" s="4">
         <v>4</v>
@@ -8268,6 +8328,9 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
+      <c r="I72" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="K72" s="4">
         <v>5</v>
       </c>
@@ -8330,6 +8393,9 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
+      <c r="I73" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="K73" s="4">
         <v>6</v>
       </c>
@@ -8363,7 +8429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8383,9 +8449,18 @@
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
+      <c r="F74" s="3">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H74" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="K74" s="4">
         <v>1</v>
@@ -8450,6 +8525,9 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
+      <c r="I75" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="K75" s="4">
         <v>2</v>
       </c>
@@ -8513,6 +8591,9 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
+      <c r="I76" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="J76" s="3" t="s">
         <v>93</v>
       </c>
@@ -8644,6 +8725,9 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
+      <c r="I78" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="K78" s="4">
         <v>5</v>
       </c>
@@ -8707,6 +8791,9 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
+      <c r="I79" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="K79" s="4">
         <v>6</v>
       </c>
@@ -8740,7 +8827,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8826,6 +8913,9 @@
       <c r="H81" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>775</v>
       </c>
       <c r="K81" s="4">
         <v>2</v>
@@ -9507,13 +9597,11 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters>
-        <filter val="2"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO98">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF516978-C0F7-6F43-94F8-541A93D07434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB56B1-6DD9-B647-9941-07C45D6B2DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34400" yWindow="34660" windowWidth="27980" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="794">
   <si>
     <t>Last Name</t>
   </si>
@@ -2797,7 +2797,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3055,6 +3055,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3216,7 +3222,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3266,6 +3272,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3632,7 +3639,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4008,6 +4015,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -4137,6 +4147,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K8" s="4">
         <v>1</v>
       </c>
@@ -4255,6 +4268,9 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>785</v>
+      </c>
       <c r="K10" s="4">
         <v>3</v>
       </c>
@@ -4318,6 +4334,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K11" s="4">
         <v>4</v>
       </c>
@@ -4450,6 +4469,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K13" s="4">
         <v>6</v>
       </c>
@@ -4512,6 +4534,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K14" s="4">
         <v>1</v>
       </c>
@@ -5110,6 +5135,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="I23" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="K23" s="4">
         <v>4</v>
       </c>
@@ -5221,7 +5249,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Vinny Ringelsten</v>
       </c>
@@ -5303,6 +5331,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I26" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K26" s="4">
         <v>1</v>
       </c>
@@ -5697,6 +5728,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="I32" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="J32" s="3" t="s">
         <v>93</v>
       </c>
@@ -5762,6 +5796,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="I33" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="K33" s="4">
         <v>2</v>
       </c>
@@ -5825,6 +5862,9 @@
         <f t="shared" ref="H34:H65" si="10">F34</f>
         <v>4</v>
       </c>
+      <c r="I34" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="K34" s="4">
         <v>3</v>
       </c>
@@ -6018,6 +6058,9 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="I37" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="J37" s="3" t="s">
         <v>93</v>
       </c>
@@ -6084,6 +6127,9 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="I38" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="K38" s="4">
         <v>1</v>
       </c>
@@ -6182,7 +6228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6277,6 +6323,9 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="I41" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="K41" s="4">
         <v>4</v>
       </c>
@@ -6470,6 +6519,9 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="I44" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="K44" s="4">
         <v>1</v>
       </c>
@@ -6503,7 +6555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6665,6 +6717,9 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="I47" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="K47" s="4">
         <v>4</v>
       </c>
@@ -6862,6 +6917,9 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="I50" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="K50" s="4">
         <v>1</v>
       </c>
@@ -6961,7 +7019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7192,6 +7250,9 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="I55" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="K55" s="4">
         <v>6</v>
       </c>
@@ -7291,7 +7352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8029,7 +8090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8163,7 +8224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8232,7 +8293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8429,7 +8490,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8827,7 +8888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9597,11 +9658,13 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters blank="1"/>
+      <filters>
+        <filter val="2"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO98">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB56B1-6DD9-B647-9941-07C45D6B2DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810072F4-46C0-5747-8130-1843E455F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34400" yWindow="34660" windowWidth="27980" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-42900" yWindow="22900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="795">
   <si>
     <t>Last Name</t>
   </si>
@@ -2592,6 +2592,9 @@
   </si>
   <si>
     <t>AllPassers</t>
+  </si>
+  <si>
+    <t>Ben</t>
   </si>
 </sst>
 </file>
@@ -3639,7 +3642,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6228,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6555,7 +6558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7019,7 +7022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7352,7 +7355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8902,15 +8905,23 @@
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Benjamin Smith</v>
-      </c>
-      <c r="E80" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Benjamin</v>
+        <v>Ben Smith</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F80" s="3">
+        <v>3</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>764</v>
       </c>
       <c r="H80" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="K80" s="4">
         <v>1</v>
@@ -9011,7 +9022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9073,7 +9084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9134,7 +9145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9193,7 +9204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9252,7 +9263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9311,7 +9322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9370,7 +9381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9429,7 +9440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9491,7 +9502,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9550,7 +9561,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9609,7 +9620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9658,12 +9669,7 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810072F4-46C0-5747-8130-1843E455F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A73C2B-0EC7-5941-AB3C-E24276090F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-42900" yWindow="22900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="796">
   <si>
     <t>Last Name</t>
   </si>
@@ -2595,6 +2595,9 @@
   </si>
   <si>
     <t>Ben</t>
+  </si>
+  <si>
+    <t>Dropped</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3228,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3276,6 +3279,7 @@
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3641,22 +3645,22 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="30" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="3" customWidth="1"/>
@@ -3735,7 +3739,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3800,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3866,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3938,7 +3942,7 @@
         <v>20000-002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>426</v>
+        <v>795</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
@@ -3989,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4054,7 +4058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4120,7 +4124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4186,7 +4190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4243,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4255,18 +4259,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Cherokee Hammonds</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="34" t="str">
         <f t="shared" si="5"/>
         <v>Cherokee</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="34">
         <v>5</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4307,7 +4311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4373,7 +4377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4442,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4508,7 +4512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4573,7 +4577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4585,7 +4589,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Kelty</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4707,7 +4711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4776,7 +4780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4842,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4908,7 +4912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4977,7 +4981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5042,7 +5046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5108,7 +5112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5174,7 +5178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5240,7 +5244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5252,7 +5256,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="33" t="str">
+      <c r="D25" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Vinny Ringelsten</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5370,7 +5374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5439,7 +5443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5504,7 +5508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5570,7 +5574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5635,7 +5639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -9022,7 +9026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9084,7 +9088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9145,7 +9149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9204,7 +9208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9263,7 +9267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9322,7 +9326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9381,7 +9385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9440,7 +9444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9502,7 +9506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9561,7 +9565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9620,7 +9624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9669,7 +9673,12 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-001"/>
+        <filter val="20000-002"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Active"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A73C2B-0EC7-5941-AB3C-E24276090F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70684C77-9C65-174D-8DA6-9D26E838DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42900" yWindow="22900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="3060" windowWidth="30840" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3228,7 +3228,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3279,7 +3279,6 @@
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3645,15 +3644,15 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -3739,7 +3738,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3804,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3870,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3993,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4058,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4124,7 +4123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4190,7 +4189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4247,7 +4246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4259,18 +4258,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cherokee Hammonds</v>
       </c>
-      <c r="E10" s="34" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Cherokee</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="34"/>
       <c r="H10" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4311,7 +4309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4377,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4446,7 +4444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4512,7 +4510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4577,7 +4575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4643,7 +4641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4711,7 +4709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4780,7 +4778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4846,7 +4844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4912,7 +4910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4981,7 +4979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5046,7 +5044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5112,7 +5110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5178,7 +5176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5244,7 +5242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5256,7 +5254,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="34" t="str">
+      <c r="D25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Vinny Ringelsten</v>
       </c>
@@ -5309,7 +5307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5374,7 +5372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5443,7 +5441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5508,7 +5506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5574,7 +5572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5639,7 +5637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -8163,7 +8161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8366,7 +8364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8432,7 +8430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8763,7 +8761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8829,7 +8827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9673,12 +9671,17 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70684C77-9C65-174D-8DA6-9D26E838DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B64D526-8B7D-254A-B125-4B7B130FEF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="3060" windowWidth="30840" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3644,15 +3644,15 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -8095,7 +8095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8161,7 +8161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8229,7 +8229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8298,7 +8298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8364,7 +8364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8430,7 +8430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8495,7 +8495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8761,7 +8761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8827,7 +8827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8893,7 +8893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9679,9 +9679,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="8">
       <filters>
-        <filter val="2"/>
+        <filter val="AllPassers"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B64D526-8B7D-254A-B125-4B7B130FEF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09201A0-54D7-3D40-94E2-D999CEBA1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3644,15 +3644,15 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3869,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4057,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4123,7 +4123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4189,7 +4189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4246,7 +4246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4309,7 +4309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4375,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4444,7 +4444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4510,7 +4510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4575,7 +4575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4641,7 +4641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4709,7 +4709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4778,7 +4778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4844,7 +4844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4910,7 +4910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4979,7 +4979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5044,7 +5044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5110,7 +5110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5176,7 +5176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5242,7 +5242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5307,7 +5307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5372,7 +5372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5441,7 +5441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5506,7 +5506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5572,7 +5572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5637,7 +5637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5703,7 +5703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5772,7 +5772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5837,7 +5837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5903,7 +5903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5969,7 +5969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6034,7 +6034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6102,7 +6102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6168,7 +6168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6233,7 +6233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6298,7 +6298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6364,7 +6364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6429,7 +6429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6495,7 +6495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6560,7 +6560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6626,7 +6626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6692,7 +6692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6758,7 +6758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6823,7 +6823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6892,7 +6892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6958,7 +6958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7024,7 +7024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7090,7 +7090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7159,7 +7159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7225,7 +7225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7291,7 +7291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7357,7 +7357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7423,7 +7423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7489,7 +7489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7558,7 +7558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7627,7 +7627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7693,7 +7693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7759,7 +7759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7825,7 +7825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7891,7 +7891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7957,7 +7957,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A92" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8026,7 +8026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8161,7 +8161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8364,7 +8364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8430,7 +8430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8561,7 +8561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8627,7 +8627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8696,7 +8696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8761,7 +8761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8827,7 +8827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8958,7 +8958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9024,7 +9024,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9086,7 +9086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9147,7 +9147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9206,7 +9206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9265,7 +9265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9324,7 +9324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9383,7 +9383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9442,7 +9442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9504,7 +9504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9563,7 +9563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9669,19 +9669,9 @@
     <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="44000-001"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="AllPassers"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09201A0-54D7-3D40-94E2-D999CEBA1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C884BA8-0983-6A44-8998-002C2E92DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3228,7 +3228,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3279,6 +3279,7 @@
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3645,7 +3646,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4201,7 +4202,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Eric Guzman</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5772,7 +5773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5837,7 +5838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5903,7 +5904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5969,7 +5970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6034,7 +6035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6102,7 +6103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6168,7 +6169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6233,7 +6234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6298,7 +6299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6364,7 +6365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6429,7 +6430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6495,7 +6496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6560,7 +6561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6626,7 +6627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6692,7 +6693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6758,7 +6759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6823,7 +6824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6892,7 +6893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6958,7 +6959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7024,7 +7025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7090,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7159,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7225,7 +7226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7291,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7357,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7423,7 +7424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7489,7 +7490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7558,7 +7559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7627,7 +7628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7693,7 +7694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7759,7 +7760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7825,7 +7826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7891,7 +7892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7957,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A92" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8026,7 +8027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8095,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8161,7 +8162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8229,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8298,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8364,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8430,7 +8431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8495,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8561,7 +8562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8627,7 +8628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8696,7 +8697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8761,7 +8762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8827,7 +8828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8893,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8958,7 +8959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9024,7 +9025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9086,7 +9087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9147,7 +9148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9206,7 +9207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9265,7 +9266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9324,7 +9325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9383,7 +9384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9442,7 +9443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9504,7 +9505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9563,7 +9564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9669,6 +9670,11 @@
     <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="20000-002"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C884BA8-0983-6A44-8998-002C2E92DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49009EAB-BEA5-F748-A91F-228A95A9130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1280" windowWidth="24300" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="796">
   <si>
     <t>Last Name</t>
   </si>
@@ -3228,7 +3228,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3279,7 +3279,6 @@
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3646,7 +3645,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3739,7 +3738,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3804,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3870,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3993,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4058,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4124,7 +4123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4190,7 +4189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4202,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Eric Guzman</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4269,6 +4268,9 @@
       </c>
       <c r="F10" s="3">
         <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="H10" s="30">
         <f t="shared" si="3"/>
@@ -4310,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4376,7 +4378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4445,7 +4447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4511,7 +4513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4576,7 +4578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4642,7 +4644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4710,7 +4712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4734,7 +4736,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="3"/>
@@ -4779,7 +4781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4845,7 +4847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4911,7 +4913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4980,7 +4982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5045,7 +5047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5111,7 +5113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5177,7 +5179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5243,7 +5245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5308,7 +5310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5373,7 +5375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5442,7 +5444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5507,7 +5509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5573,7 +5575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5638,7 +5640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5704,7 +5706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5773,7 +5775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5838,7 +5840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5904,7 +5906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5913,7 +5915,6 @@
         <v>426</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D35" s="3" t="str">
@@ -5970,7 +5971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6035,7 +6036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6103,7 +6104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6169,7 +6170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6234,7 +6235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6299,7 +6300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6365,7 +6366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6430,7 +6431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6496,7 +6497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6561,7 +6562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6627,7 +6628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6693,7 +6694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6759,7 +6760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6824,7 +6825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6893,7 +6894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6959,7 +6960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7025,7 +7026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7091,7 +7092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7226,7 +7227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9672,7 +9673,7 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49009EAB-BEA5-F748-A91F-228A95A9130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B5AD74-DB32-6C45-B427-5B82D39BD2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1280" windowWidth="24300" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23860" yWindow="1760" windowWidth="22980" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="797">
   <si>
     <t>Last Name</t>
   </si>
@@ -2598,6 +2598,9 @@
   </si>
   <si>
     <t>Dropped</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +3648,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3803,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3869,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3992,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4057,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4123,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4189,13 +4192,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>426</v>
+        <v>796</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -4246,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4312,7 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4378,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4447,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4513,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4578,7 +4581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4644,7 +4647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4712,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4781,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4847,7 +4850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4913,7 +4916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4982,7 +4985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5047,7 +5050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5113,7 +5116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5179,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5245,7 +5248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5310,7 +5313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5375,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5444,7 +5447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5509,7 +5512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5575,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5640,7 +5643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5706,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5775,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5840,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5906,7 +5909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5971,7 +5974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6036,7 +6039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6104,7 +6107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6170,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6235,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6300,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6366,7 +6369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6431,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6497,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6562,7 +6565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6628,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6694,7 +6697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6760,7 +6763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6825,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6894,7 +6897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6960,7 +6963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7026,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7092,7 +7095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7161,7 +7164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7227,7 +7230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7293,7 +7296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7359,7 +7362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9673,7 +9676,7 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B5AD74-DB32-6C45-B427-5B82D39BD2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBEC647-986E-5E4C-8873-DB7E5C9894B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23860" yWindow="1760" windowWidth="22980" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8500" yWindow="-20200" windowWidth="27280" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D33" sqref="D33:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3872,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4249,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4381,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4450,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4516,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4581,7 +4581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4647,7 +4647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4784,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4916,7 +4916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4985,7 +4985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5050,7 +5050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5116,7 +5116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5182,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5248,7 +5248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5313,7 +5313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5378,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5447,7 +5447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5512,7 +5512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5578,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5643,7 +5643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5778,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6565,7 +6565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6963,7 +6963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7362,7 +7362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9676,12 +9676,17 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBEC647-986E-5E4C-8873-DB7E5C9894B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38EF6E8-4CE8-364E-BC81-D62D4324D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8500" yWindow="-20200" windowWidth="27280" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D57"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5709,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5843,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5909,7 +5909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5974,7 +5974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6039,12 +6039,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="32" t="s">
         <v>426</v>
       </c>
       <c r="C37" s="3">
@@ -6107,7 +6107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,12 +6238,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="32" t="s">
         <v>426</v>
       </c>
       <c r="C40" s="3">
@@ -6303,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6369,7 +6369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6434,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6697,7 +6697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6763,12 +6763,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="32" t="s">
         <v>426</v>
       </c>
       <c r="C48" s="3">
@@ -6828,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6897,7 +6897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,12 +7029,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="32" t="s">
         <v>426</v>
       </c>
       <c r="C52" s="3">
@@ -7095,12 +7095,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="32" t="s">
         <v>426</v>
       </c>
       <c r="C53" s="3">
@@ -7164,7 +7164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7230,7 +7230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7296,7 +7296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9682,11 +9682,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38EF6E8-4CE8-364E-BC81-D62D4324D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA969C-82FF-FB43-9FA8-BFD60159EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="5180" windowWidth="24500" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5346,7 +5346,7 @@
         <v>783</v>
       </c>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="9"/>
@@ -5709,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5778,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5843,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5974,7 +5974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6039,7 +6039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6107,7 +6107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6303,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6369,7 +6369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6434,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6533,7 +6533,7 @@
         <v>343</v>
       </c>
       <c r="K44" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" s="30"/>
       <c r="M44" s="9"/>
@@ -6565,7 +6565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6697,7 +6697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6828,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6897,7 +6897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6931,7 +6931,7 @@
         <v>790</v>
       </c>
       <c r="K50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="9"/>
@@ -6963,7 +6963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7063,7 +7063,7 @@
         <v>770</v>
       </c>
       <c r="K52" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="30"/>
       <c r="M52" s="9"/>
@@ -7230,7 +7230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7330,7 +7330,7 @@
         <v>791</v>
       </c>
       <c r="K56" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="30"/>
       <c r="M56" s="9"/>
@@ -7362,7 +7362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9682,6 +9682,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA969C-82FF-FB43-9FA8-BFD60159EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF1285-FA17-074E-91A4-E058891240F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="5180" windowWidth="24500" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="8300" windowWidth="21220" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5909,7 +5909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6763,7 +6763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7095,7 +7095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7164,7 +7164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7296,7 +7296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8100,7 +8100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8234,7 +8234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8303,7 +8303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8500,7 +8500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8898,7 +8898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9676,7 +9676,7 @@
   <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9686,7 +9686,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="5"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF1285-FA17-074E-91A4-E058891240F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8BDB5-8B7C-1D4B-A82D-F9C6D1639C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="8300" windowWidth="21220" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44080" yWindow="-4040" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="sp-21-dropped" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AD$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AD$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sp-21-main'!$A$1:$AT$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!#REF!</definedName>
   </definedNames>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="797">
   <si>
     <t>Last Name</t>
   </si>
@@ -3645,10 +3645,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="M71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3872,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4249,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4381,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4450,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4516,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4581,7 +4581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4647,7 +4647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4784,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4916,7 +4916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4985,7 +4985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5050,7 +5050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5116,7 +5116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5182,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5248,7 +5248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5313,7 +5313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5378,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5447,7 +5447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5512,7 +5512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5578,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5643,7 +5643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5709,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5778,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5843,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5909,7 +5909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5974,7 +5974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6039,7 +6039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6107,7 +6107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6303,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6369,7 +6369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6434,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6565,7 +6565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6697,7 +6697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6763,7 +6763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6828,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6897,7 +6897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6963,7 +6963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7095,7 +7095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7164,7 +7164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7230,7 +7230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7296,7 +7296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7362,7 +7362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7428,7 +7428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7494,7 +7494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7563,7 +7563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7632,7 +7632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7698,7 +7698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7764,7 +7764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7830,7 +7830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7896,7 +7896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7905,7 +7905,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65:C92" si="12">Q65</f>
+        <f t="shared" ref="C65:C93" si="12">Q65</f>
         <v>8</v>
       </c>
       <c r="D65" s="3" t="str">
@@ -7962,9 +7962,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A92" si="13">RIGHT(P66,9)</f>
+        <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7975,11 +7975,11 @@
         <v>9</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D92" si="14">CONCATENATE(E66," ",R66)</f>
+        <f t="shared" ref="D66:D93" si="14">CONCATENATE(E66," ",R66)</f>
         <v>Huzaifa Razzak</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E92" si="15">S66</f>
+        <f t="shared" ref="E66:E93" si="15">S66</f>
         <v>Huzaifa</v>
       </c>
       <c r="F66" s="3">
@@ -7989,7 +7989,7 @@
         <v>759</v>
       </c>
       <c r="H66" s="30">
-        <f t="shared" ref="H66:H91" si="16">F66</f>
+        <f t="shared" ref="H66:H92" si="16">F66</f>
         <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -8004,7 +8004,7 @@
       <c r="L66" s="30"/>
       <c r="M66" s="9"/>
       <c r="N66" s="3" t="str">
-        <f t="shared" ref="N66:N92" si="17">CONCATENATE(R66,", ",S66)</f>
+        <f t="shared" ref="N66:N93" si="17">CONCATENATE(R66,", ",S66)</f>
         <v>Razzak, Huzaifa</v>
       </c>
       <c r="O66" s="9"/>
@@ -8031,7 +8031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8166,7 +8166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8369,7 +8369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8435,7 +8435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8566,7 +8566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8632,7 +8632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8701,7 +8701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8766,7 +8766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8832,7 +8832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8963,7 +8963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9029,7 +9029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9091,7 +9091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9152,7 +9152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9211,7 +9211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9270,7 +9270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9329,7 +9329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9388,7 +9388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9447,7 +9447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9509,7 +9509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9568,32 +9568,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" ref="C91" si="19">Q91</f>
+        <v>0</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Tyler Zenisek</v>
+        <f t="shared" ref="D91" si="20">CONCATENATE(E91," ",R91)</f>
+        <v>Julie Dosher</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Tyler</v>
-      </c>
-      <c r="H91" s="30">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="E91" si="21">S91</f>
+        <v>Julie</v>
       </c>
       <c r="K91" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L91" s="30" t="s">
         <v>451</v>
@@ -9601,98 +9597,141 @@
       <c r="M91" s="9"/>
       <c r="N91" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>Zenisek, Tyler</v>
+        <v>Dosher, Julie</v>
       </c>
       <c r="O91" s="9"/>
       <c r="P91" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q91" s="3">
-        <v>10</v>
-      </c>
       <c r="R91" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="S91" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="T91" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="U91" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="V91" s="9"/>
-      <c r="W91" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
       </c>
+      <c r="B92" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="C92" s="3">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Julie Dosher</v>
+        <v>Tyler Zenisek</v>
       </c>
       <c r="E92" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>Julie</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>397</v>
+        <v>Tyler</v>
+      </c>
+      <c r="H92" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>6</v>
       </c>
       <c r="L92" s="30" t="s">
         <v>451</v>
       </c>
+      <c r="M92" s="9"/>
       <c r="N92" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>Dosher, Julie</v>
-      </c>
+        <v>Zenisek, Tyler</v>
+      </c>
+      <c r="O92" s="9"/>
       <c r="P92" s="3" t="s">
         <v>452</v>
       </c>
       <c r="Q92" s="3">
+        <v>10</v>
+      </c>
+      <c r="R92" t="s">
+        <v>469</v>
+      </c>
+      <c r="S92" t="s">
+        <v>470</v>
+      </c>
+      <c r="T92" t="s">
+        <v>471</v>
+      </c>
+      <c r="U92" t="s">
+        <v>472</v>
+      </c>
+      <c r="V92" s="9"/>
+      <c r="W92" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>49200-001</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="R92" s="3" t="s">
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Julie Dosher</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Julie</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L93" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="N93" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Dosher, Julie</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>11</v>
+      </c>
+      <c r="R93" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="S92" s="3" t="s">
+      <c r="S93" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD97" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="44000-001"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO98">
-    <sortCondition ref="A2:A98"/>
-    <sortCondition ref="N2:N98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO99">
+    <sortCondition ref="A2:A99"/>
+    <sortCondition ref="N2:N99"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8BDB5-8B7C-1D4B-A82D-F9C6D1639C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E2EE1-704A-D444-8F04-49AF9094BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44080" yWindow="-4040" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="8220" windowWidth="19760" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3647,8 +3647,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3872,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4249,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4381,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4450,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4516,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4581,7 +4581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4647,7 +4647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4784,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4916,7 +4916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4985,7 +4985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5050,7 +5050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5116,7 +5116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5182,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5248,7 +5248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5313,7 +5313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5378,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5447,7 +5447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5512,7 +5512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5578,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5643,7 +5643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5709,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5778,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5843,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5974,7 +5974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6039,7 +6039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6107,7 +6107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6303,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6369,7 +6369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6434,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6565,7 +6565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6697,7 +6697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6828,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6897,7 +6897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6963,7 +6963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7230,7 +7230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7362,7 +7362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7428,7 +7428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7494,7 +7494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7563,7 +7563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7632,7 +7632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7698,7 +7698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7764,7 +7764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7830,7 +7830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7896,7 +7896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7962,7 +7962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8031,7 +8031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8100,7 +8100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8166,7 +8166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8234,7 +8234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8303,7 +8303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8369,7 +8369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8435,7 +8435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8500,7 +8500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8566,7 +8566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8632,7 +8632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8701,7 +8701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8766,7 +8766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8832,7 +8832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8898,7 +8898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8963,7 +8963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9029,7 +9029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9091,7 +9091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9152,7 +9152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9211,7 +9211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9270,7 +9270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9329,7 +9329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9388,7 +9388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9447,7 +9447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9509,7 +9509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9568,7 +9568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9723,9 +9723,19 @@
     <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="20000-003"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E2EE1-704A-D444-8F04-49AF9094BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DB84A-6EED-2B46-9C18-D2ECCBF75951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="8220" windowWidth="19760" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="9480" windowWidth="24560" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="797">
   <si>
     <t>Last Name</t>
   </si>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5411,9 +5411,6 @@
       <c r="I27" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="K27" s="4">
         <v>2</v>
       </c>
@@ -5479,6 +5476,9 @@
       <c r="I28" s="3" t="s">
         <v>763</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="K28" s="4">
         <v>3</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6565,7 +6565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6763,7 +6763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7061,6 +7061,9 @@
       </c>
       <c r="I52" s="3" t="s">
         <v>770</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K52" s="4">
         <v>1</v>
@@ -7095,7 +7098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7164,7 +7167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7296,7 +7299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7362,7 +7365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9735,7 +9738,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="5"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DB84A-6EED-2B46-9C18-D2ECCBF75951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88359AE0-292A-7C4B-A4E8-BCBCA69F3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="9480" windowWidth="24560" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="-19640" windowWidth="32360" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3647,8 +3647,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5778,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6897,7 +6897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6963,7 +6963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9736,7 +9736,7 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="10">
       <filters>
         <filter val="2"/>
       </filters>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88359AE0-292A-7C4B-A4E8-BCBCA69F3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB65E5-C69D-594E-A314-D6D84276F252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="-19640" windowWidth="32360" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35680" yWindow="-3480" windowWidth="33320" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3642,13 +3642,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3872,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4249,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4381,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4450,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4516,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4581,7 +4581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4647,7 +4647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4784,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4916,7 +4916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4985,7 +4985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5050,7 +5050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5116,7 +5116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5182,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5248,7 +5248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5313,7 +5313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5378,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5444,7 +5444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5512,7 +5512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5578,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5643,7 +5643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5709,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5843,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5909,7 +5909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5974,7 +5974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6039,7 +6039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6107,7 +6107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6303,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6369,7 +6369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6434,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6697,7 +6697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6763,7 +6763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6828,7 +6828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7029,7 +7029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7098,7 +7098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7167,7 +7167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7233,7 +7233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7299,7 +7299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7431,7 +7431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7497,7 +7497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7566,7 +7566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7635,7 +7635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7701,7 +7701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7767,7 +7767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7833,7 +7833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7899,7 +7899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7965,7 +7965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8034,7 +8034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8103,7 +8103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8169,7 +8169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8237,7 +8237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8306,7 +8306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8372,7 +8372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8438,7 +8438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8503,7 +8503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8569,7 +8569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8635,7 +8635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8704,7 +8704,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8769,7 +8769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8835,7 +8835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8901,7 +8901,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8966,7 +8966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9032,7 +9032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9094,7 +9094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9155,7 +9155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9214,7 +9214,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9273,7 +9273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9332,7 +9332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9391,7 +9391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9450,7 +9450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9512,7 +9512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9571,7 +9571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9679,7 +9679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9719,29 +9719,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="20000-003"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO99">
     <sortCondition ref="A2:A99"/>
     <sortCondition ref="N2:N99"/>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB65E5-C69D-594E-A314-D6D84276F252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D545E601-DE38-D841-81E2-88571944D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35680" yWindow="-3480" windowWidth="33320" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="7860" windowWidth="25520" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -2806,7 +2806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3064,12 +3064,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3281,7 +3275,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3642,13 +3636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3735,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3806,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3872,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3938,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3995,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4060,7 +4054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4126,7 +4120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4192,7 +4186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4249,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4315,7 +4309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4381,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4450,7 +4444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4516,7 +4510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4581,7 +4575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4647,7 +4641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4715,7 +4709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4784,7 +4778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4850,7 +4844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4916,7 +4910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4985,7 +4979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5050,7 +5044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5116,7 +5110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5182,7 +5176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5248,7 +5242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5313,7 +5307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5346,7 +5340,7 @@
         <v>783</v>
       </c>
       <c r="K26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="9"/>
@@ -5378,7 +5372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5444,7 +5438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5512,7 +5506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5578,7 +5572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5643,7 +5637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5709,7 +5703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5778,7 +5772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5811,7 +5805,7 @@
         <v>343</v>
       </c>
       <c r="K33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" s="30"/>
       <c r="M33" s="9"/>
@@ -5843,7 +5837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5909,7 +5903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6039,7 +6033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6075,7 +6069,7 @@
         <v>93</v>
       </c>
       <c r="K37" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L37" s="30"/>
       <c r="M37" s="9"/>
@@ -6107,7 +6101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6173,7 +6167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6238,7 +6232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6303,7 +6297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6369,7 +6363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6500,7 +6494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6565,7 +6559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6631,7 +6625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6697,7 +6691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6763,7 +6757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6897,7 +6891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6931,7 +6925,7 @@
         <v>790</v>
       </c>
       <c r="K50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="9"/>
@@ -7029,7 +7023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7098,7 +7092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7135,7 +7129,7 @@
         <v>93</v>
       </c>
       <c r="K53" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L53" s="30"/>
       <c r="M53" s="9"/>
@@ -7167,7 +7161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7233,7 +7227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7299,7 +7293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7365,7 +7359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7399,7 +7393,7 @@
         <v>770</v>
       </c>
       <c r="K57" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="9"/>
@@ -7431,7 +7425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7497,7 +7491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7566,7 +7560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7635,7 +7629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7701,7 +7695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7767,7 +7761,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7833,7 +7827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7899,7 +7893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7965,7 +7959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8034,7 +8028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8103,7 +8097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8169,7 +8163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8237,7 +8231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8306,7 +8300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8372,7 +8366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8438,7 +8432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8503,7 +8497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8569,7 +8563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8635,7 +8629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8704,7 +8698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8769,7 +8763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8835,7 +8829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8901,7 +8895,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8966,7 +8960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9032,7 +9026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9094,7 +9088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9155,7 +9149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9214,7 +9208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9273,7 +9267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9332,7 +9326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9391,7 +9385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9450,7 +9444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9512,7 +9506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9571,7 +9565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9620,7 +9614,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9679,7 +9673,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9719,8 +9713,29 @@
         <v>434</v>
       </c>
     </row>
+    <row r="94" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}"/>
+  <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="20000-003"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO99">
     <sortCondition ref="A2:A99"/>
     <sortCondition ref="N2:N99"/>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D545E601-DE38-D841-81E2-88571944D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89D5C5-A5F2-B247-88BB-8B7DFB22A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="7860" windowWidth="25520" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37500" yWindow="30980" windowWidth="30500" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3275,7 +3275,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3642,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4587,7 +4586,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Kelty</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6428,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6822,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6957,7 +6956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8097,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8199,7 +8198,7 @@
         <v>93</v>
       </c>
       <c r="K69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="30"/>
       <c r="M69" s="9"/>
@@ -8231,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8300,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8497,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8863,7 +8862,7 @@
         <v>778</v>
       </c>
       <c r="K79" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L79" s="30"/>
       <c r="M79" s="9"/>
@@ -8895,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9722,7 +9721,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9732,7 +9731,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="1"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89D5C5-A5F2-B247-88BB-8B7DFB22A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164AB188-9D3A-F64F-80CC-9FAA389573F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37500" yWindow="30980" windowWidth="30500" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="33660" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6231,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6558,7 +6558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7022,7 +7022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8299,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8496,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8894,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9721,7 +9721,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9731,7 +9731,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="3"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164AB188-9D3A-F64F-80CC-9FAA389573F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB463D0A-738D-824F-886C-AFC6CDA7A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="33660" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="-1420" windowWidth="21480" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5967,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6231,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6427,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6558,7 +6558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6821,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6956,7 +6956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7022,7 +7022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9731,7 +9731,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB463D0A-738D-824F-886C-AFC6CDA7A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD018A9-F47C-7A4E-A275-1993B19B34FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-1420" windowWidth="21480" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="1440" windowWidth="31360" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -5967,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6427,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6821,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6956,7 +6956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9325,7 +9325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9443,7 +9443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9505,7 +9505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9564,7 +9564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9721,7 +9721,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9729,9 +9729,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="11">
       <filters>
-        <filter val="1"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD018A9-F47C-7A4E-A275-1993B19B34FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31EEE1-866F-2C4C-B9C0-075D7CFFD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1440" windowWidth="31360" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="1440" windowWidth="34600" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3640,8 +3640,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4053,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4119,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4242,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4308,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4374,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4443,7 +4443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4640,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4708,7 +4708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4777,7 +4777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4843,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4909,7 +4909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5043,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5109,7 +5109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5241,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5306,7 +5306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5371,7 +5371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5437,7 +5437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5505,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5636,7 +5636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5702,7 +5702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5771,7 +5771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5836,7 +5836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5967,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6032,7 +6032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6100,7 +6100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6166,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6231,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6296,7 +6296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6362,7 +6362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6427,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6493,7 +6493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6558,7 +6558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6624,7 +6624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6690,7 +6690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6821,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6956,7 +6956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7022,7 +7022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7226,7 +7226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7424,7 +7424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7490,7 +7490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7559,7 +7559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7628,7 +7628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7694,7 +7694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7760,7 +7760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7826,7 +7826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7892,7 +7892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7958,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8027,7 +8027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8162,7 +8162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8299,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8365,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8431,7 +8431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8496,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8562,7 +8562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8628,7 +8628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8697,7 +8697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8762,7 +8762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8828,7 +8828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8894,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8959,7 +8959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9025,7 +9025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9087,7 +9087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9148,7 +9148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9207,7 +9207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9266,7 +9266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9384,7 +9384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9719,19 +9719,9 @@
     <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="49200-001"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31EEE1-866F-2C4C-B9C0-075D7CFFD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8052D0D8-21A1-4840-B2F9-A9FD4633BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1440" windowWidth="34600" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="5100" windowWidth="30960" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3640,8 +3640,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4053,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4119,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4242,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4308,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4374,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4443,7 +4443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4640,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4708,7 +4708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4777,7 +4777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4843,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4909,7 +4909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5043,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5109,7 +5109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5241,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5306,7 +5306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5371,7 +5371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5437,7 +5437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5505,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5636,7 +5636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5702,7 +5702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5771,7 +5771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5836,7 +5836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5967,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6032,7 +6032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6100,7 +6100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6166,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6231,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6296,7 +6296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6362,7 +6362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6427,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6493,7 +6493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6558,7 +6558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6624,7 +6624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6690,7 +6690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6821,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6956,7 +6956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7022,7 +7022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7226,7 +7226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7424,7 +7424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7490,7 +7490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7559,7 +7559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7628,7 +7628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7694,7 +7694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7760,7 +7760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7826,7 +7826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7892,7 +7892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7958,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8027,7 +8027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8299,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8365,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8431,7 +8431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8496,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8562,7 +8562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8697,7 +8697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8762,7 +8762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8828,7 +8828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8894,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8959,7 +8959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9025,7 +9025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9087,7 +9087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9148,7 +9148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9207,7 +9207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9266,7 +9266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9325,7 +9325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9384,7 +9384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9443,7 +9443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9505,7 +9505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9564,7 +9564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9719,9 +9719,19 @@
     <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="44000-001"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8052D0D8-21A1-4840-B2F9-A9FD4633BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7EF729-4FDF-0D4E-93CE-860A17753BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="5100" windowWidth="30960" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1220" windowWidth="27100" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F22"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4276,7 +4276,7 @@
         <v>785</v>
       </c>
       <c r="K10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="9"/>
@@ -5339,7 +5339,7 @@
         <v>783</v>
       </c>
       <c r="K26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="9"/>
@@ -5804,7 +5804,7 @@
         <v>343</v>
       </c>
       <c r="K33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" s="30"/>
       <c r="M33" s="9"/>
@@ -5870,7 +5870,7 @@
         <v>790</v>
       </c>
       <c r="K34" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" s="30"/>
       <c r="M34" s="9"/>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6166,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6264,7 +6264,7 @@
         <v>770</v>
       </c>
       <c r="K40" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" s="30"/>
       <c r="M40" s="9"/>
@@ -6526,7 +6526,7 @@
         <v>343</v>
       </c>
       <c r="K44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" s="30"/>
       <c r="M44" s="9"/>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6924,7 +6924,7 @@
         <v>790</v>
       </c>
       <c r="K50" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="9"/>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7326,7 +7326,7 @@
         <v>791</v>
       </c>
       <c r="K56" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" s="30"/>
       <c r="M56" s="9"/>
@@ -7392,7 +7392,7 @@
         <v>770</v>
       </c>
       <c r="K57" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="9"/>
@@ -8162,7 +8162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8628,7 +8628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9721,7 +9721,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9729,9 +9729,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="5">
       <filters>
-        <filter val="3"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7EF729-4FDF-0D4E-93CE-860A17753BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7314111-E7D8-CE43-8B32-212F4DB1F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1220" windowWidth="27100" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36360" yWindow="27700" windowWidth="21740" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6166,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7458,7 +7458,7 @@
         <v>772</v>
       </c>
       <c r="K58" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L58" s="30"/>
       <c r="M58" s="9"/>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8299,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8333,7 +8333,7 @@
         <v>793</v>
       </c>
       <c r="K71" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71" s="30"/>
       <c r="M71" s="9"/>
@@ -8399,7 +8399,7 @@
         <v>778</v>
       </c>
       <c r="K72" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L72" s="30"/>
       <c r="M72" s="9"/>
@@ -8464,7 +8464,7 @@
         <v>778</v>
       </c>
       <c r="K73" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L73" s="30"/>
       <c r="M73" s="9"/>
@@ -8496,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8796,7 +8796,7 @@
         <v>778</v>
       </c>
       <c r="K78" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L78" s="30"/>
       <c r="M78" s="9"/>
@@ -8894,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9721,7 +9721,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9731,7 +9731,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="5"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7314111-E7D8-CE43-8B32-212F4DB1F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1404C0D-8AC3-654B-8A71-B3E537119F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36360" yWindow="27700" windowWidth="21740" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8299,7 +8299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8496,7 +8496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8894,7 +8894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9325,7 +9325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9443,7 +9443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9505,7 +9505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9564,7 +9564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9721,7 +9721,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9729,9 +9729,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="11">
       <filters>
-        <filter val="3"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1404C0D-8AC3-654B-8A71-B3E537119F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FAB873-CB95-9043-8B99-25D45579C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1700" windowWidth="26760" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="797">
   <si>
     <t>Last Name</t>
   </si>
@@ -3225,7 +3225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3275,6 +3275,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3640,8 +3641,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8108,11 +8109,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D68" s="31" t="str">
+      <c r="D68" s="33" t="str">
         <f t="shared" si="14"/>
         <v>David Abrutis</v>
       </c>
-      <c r="E68" s="31" t="str">
+      <c r="E68" s="33" t="str">
         <f t="shared" si="15"/>
         <v>David</v>
       </c>
@@ -8128,6 +8129,9 @@
       </c>
       <c r="I68" s="3" t="s">
         <v>793</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K68" s="4">
         <v>1</v>
@@ -8194,9 +8198,6 @@
       <c r="I69" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="K69" s="4">
         <v>3</v>
       </c>
@@ -8263,9 +8264,6 @@
       <c r="I70" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="K70" s="4">
         <v>3</v>
       </c>
@@ -8332,6 +8330,9 @@
       <c r="I71" s="3" t="s">
         <v>793</v>
       </c>
+      <c r="J71" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="K71" s="4">
         <v>3</v>
       </c>
@@ -8398,6 +8399,9 @@
       <c r="I72" s="3" t="s">
         <v>778</v>
       </c>
+      <c r="J72" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="K72" s="4">
         <v>4</v>
       </c>
@@ -8562,7 +8566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8628,7 +8632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8662,7 +8666,7 @@
         <v>775</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="K76" s="4">
         <v>3</v>
@@ -8697,7 +8701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8795,6 +8799,9 @@
       <c r="I78" s="3" t="s">
         <v>778</v>
       </c>
+      <c r="J78" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="K78" s="4">
         <v>4</v>
       </c>
@@ -8959,7 +8966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8991,6 +8998,9 @@
       </c>
       <c r="I81" s="3" t="s">
         <v>775</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K81" s="4">
         <v>2</v>
@@ -9325,7 +9335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9443,7 +9453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9505,7 +9515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9564,7 +9574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9613,7 +9623,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9721,7 +9731,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-001"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9729,9 +9739,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="5">
       <filters>
-        <filter val="QuizMaster"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FAB873-CB95-9043-8B99-25D45579C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25482BED-F359-D84B-9034-0D164380B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1700" windowWidth="26760" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1700" windowWidth="33620" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3275,7 +3275,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3641,8 +3640,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4641,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5176,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5242,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5506,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5572,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -8109,11 +8108,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D68" s="33" t="str">
+      <c r="D68" s="3" t="str">
         <f t="shared" si="14"/>
         <v>David Abrutis</v>
       </c>
-      <c r="E68" s="33" t="str">
+      <c r="E68" s="3" t="str">
         <f t="shared" si="15"/>
         <v>David</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8632,7 +8631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8701,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8966,7 +8965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9731,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9741,7 +9740,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25482BED-F359-D84B-9034-0D164380B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B668B7-5C3A-5649-BDDF-16DC86605579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1700" windowWidth="33620" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="-21100" windowWidth="33620" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -4640,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5241,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5505,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5771,7 +5771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5836,7 +5836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6231,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6296,7 +6296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6493,7 +6493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6690,7 +6690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="10">
       <filters>
-        <filter val="2"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B668B7-5C3A-5649-BDDF-16DC86605579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB819D8-734C-6646-BA2C-FD60092B5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="-21100" windowWidth="33620" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="-17780" windowWidth="33620" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E65" sqref="E58:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5771,7 +5771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5836,7 +5836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
         <v>20000-003</v>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6231,7 +6231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6296,7 +6296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6493,7 +6493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6690,7 +6690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7358,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7838,11 +7838,11 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="D64" s="31" t="str">
+      <c r="D64" s="3" t="str">
         <f>CONCATENATE(E64," ",R64)</f>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E64" s="31" t="str">
+      <c r="E64" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Jose</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8434,7 +8434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8700,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8765,7 +8765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB819D8-734C-6646-BA2C-FD60092B5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C8C91-DF4E-B448-A34A-A667EDAD65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="-17780" windowWidth="33620" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="-11340" windowWidth="27800" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E65" sqref="E58:E65"/>
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4276,7 +4276,7 @@
         <v>785</v>
       </c>
       <c r="K10" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="9"/>
@@ -5143,7 +5143,7 @@
         <v>342</v>
       </c>
       <c r="K23" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="9"/>
@@ -5274,7 +5274,7 @@
         <v>766</v>
       </c>
       <c r="K25" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L25" s="30"/>
       <c r="M25" s="9"/>
@@ -5339,7 +5339,7 @@
         <v>783</v>
       </c>
       <c r="K26" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="9"/>
@@ -5604,7 +5604,7 @@
         <v>766</v>
       </c>
       <c r="K30" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="30"/>
       <c r="M30" s="9"/>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6000,7 +6000,7 @@
         <v>350</v>
       </c>
       <c r="K36" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" s="30"/>
       <c r="M36" s="9"/>
@@ -6166,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6924,7 +6924,7 @@
         <v>790</v>
       </c>
       <c r="K50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="9"/>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8365,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8434,7 +8434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8700,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8765,7 +8765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="5">
       <filters>
-        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C8C91-DF4E-B448-A34A-A667EDAD65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5786BE5-43AF-2042-9BDF-0DC5F65EE8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="-11340" windowWidth="27800" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30260" yWindow="32140" windowWidth="23980" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5902,7 +5902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6166,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7527,7 +7527,7 @@
         <v>773</v>
       </c>
       <c r="K59" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="9"/>
@@ -7926,7 +7926,7 @@
         <v>771</v>
       </c>
       <c r="K65" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L65" s="30"/>
       <c r="M65" s="9"/>
@@ -8365,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8434,7 +8434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8700,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8765,7 +8765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="10">
       <filters>
-        <filter val="5"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5786BE5-43AF-2042-9BDF-0DC5F65EE8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066AF436-F4A8-3E42-A947-F0E4E90C67C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30260" yWindow="32140" windowWidth="23980" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41180" yWindow="11500" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8365,7 +8365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8434,7 +8434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8700,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8765,7 +8765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9157,7 +9157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9216,7 +9216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9275,7 +9275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9393,7 +9393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="11">
       <filters>
-        <filter val="4"/>
+        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066AF436-F4A8-3E42-A947-F0E4E90C67C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D2014-4931-E548-A978-9F4CE1785F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41180" yWindow="11500" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="6100" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7424,7 +7424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7490,7 +7490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7559,7 +7559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7628,7 +7628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7694,7 +7694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7760,7 +7760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7826,7 +7826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7892,7 +7892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7958,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8027,7 +8027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -9157,7 +9157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9216,7 +9216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9275,7 +9275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9393,7 +9393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9730,17 +9730,12 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-001"/>
+        <filter val="24700-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D2014-4931-E548-A978-9F4CE1785F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53D5BA9-0EF7-994B-81EE-A8B8D8953022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="6100" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-42180" yWindow="29460" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3640,8 +3640,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7424,7 +7424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7490,7 +7490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7559,7 +7559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7628,7 +7628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7694,7 +7694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7760,7 +7760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7826,7 +7826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7892,7 +7892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7958,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
         <v>24700-001</v>
@@ -8027,7 +8027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8296,7 +8296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8499,7 +8499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8900,7 +8900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,12 +9730,17 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="24700-001"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53D5BA9-0EF7-994B-81EE-A8B8D8953022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45FE2E9-83D1-294B-B251-AE79DBF2048D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42180" yWindow="29460" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="2600" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3640,7 +3640,7 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
       <selection activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
@@ -6362,7 +6362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6427,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6821,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7226,7 +7226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8096,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8230,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8296,7 +8296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8499,7 +8499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8900,7 +8900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,10 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="10">
       <filters>
-        <filter val="3"/>
+        <filter val="5"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45FE2E9-83D1-294B-B251-AE79DBF2048D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48329CD8-A77D-C64D-88F2-6B8E39BF7895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2600" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4053,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4119,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4242,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4308,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4374,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4443,7 +4443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4640,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4708,7 +4708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4777,7 +4777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4843,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4909,7 +4909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5043,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5109,7 +5109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5241,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5306,7 +5306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5371,7 +5371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5437,7 +5437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5505,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5636,7 +5636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -6362,7 +6362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6427,7 +6427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6821,7 +6821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7226,7 +7226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9730,18 +9730,12 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="5"/>
-        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48329CD8-A77D-C64D-88F2-6B8E39BF7895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420EACD-FDC5-8A40-90BF-D8875CEB26E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="7240" windowWidth="29520" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="R121" sqref="R121"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
         <v>20000-002</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4053,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4119,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4276,7 +4276,7 @@
         <v>785</v>
       </c>
       <c r="K10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="9"/>
@@ -4308,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4443,7 +4443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4640,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4708,7 +4708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4843,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4909,7 +4909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5043,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5143,7 +5143,7 @@
         <v>342</v>
       </c>
       <c r="K23" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="9"/>
@@ -5209,7 +5209,7 @@
         <v>766</v>
       </c>
       <c r="K24" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" s="30"/>
       <c r="M24" s="9"/>
@@ -5241,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5371,7 +5371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5437,7 +5437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5505,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5636,7 +5636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -9736,6 +9736,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420EACD-FDC5-8A40-90BF-D8875CEB26E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5751391B-869A-F74A-996D-D0B5A5A11539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="7240" windowWidth="29520" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31480" yWindow="36460" windowWidth="24840" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4242,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4374,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4777,7 +4777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5109,7 +5109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5306,7 +5306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -7527,7 +7527,7 @@
         <v>773</v>
       </c>
       <c r="K59" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="9"/>
@@ -7926,7 +7926,7 @@
         <v>771</v>
       </c>
       <c r="K65" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L65" s="30"/>
       <c r="M65" s="9"/>
@@ -7995,7 +7995,7 @@
         <v>93</v>
       </c>
       <c r="K66" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L66" s="30"/>
       <c r="M66" s="9"/>
@@ -8565,7 +8565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8631,7 +8631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8700,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8965,7 +8965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="5">
       <filters>
-        <filter val="5"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5751391B-869A-F74A-996D-D0B5A5A11539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254C344-8A0B-9245-873B-9B0E8F7027F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31480" yWindow="36460" windowWidth="24840" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="-12980" windowWidth="29360" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6362,7 +6362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6395,7 +6395,7 @@
         <v>343</v>
       </c>
       <c r="K42" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L42" s="30"/>
       <c r="M42" s="9"/>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8565,7 +8565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8631,7 +8631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8700,7 +8700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8965,7 +8965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="10">
       <filters>
-        <filter val="1"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254C344-8A0B-9245-873B-9B0E8F7027F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D3584B-544E-EB4C-A465-75E393AB2D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="-12980" windowWidth="29360" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3275,6 +3275,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3641,7 +3642,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6362,7 +6363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6756,7 +6757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6890,7 +6891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7160,7 +7161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -9334,7 +9335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9346,11 +9347,11 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="D87" s="31" t="str">
+      <c r="D87" s="33" t="str">
         <f t="shared" si="14"/>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E87" s="31" t="str">
+      <c r="E87" s="33" t="str">
         <f t="shared" si="15"/>
         <v>Jose</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9514,7 +9515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9573,7 +9574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9622,7 +9623,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9730,7 +9731,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9738,9 +9739,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="11">
       <filters>
-        <filter val="5"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D3584B-544E-EB4C-A465-75E393AB2D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037BC46-9B2D-6C48-82FA-73299D5FC169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="-21100" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AD$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sp-21-main'!$A$1:$AT$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!$A$1:$K$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -3225,7 +3225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3275,7 +3275,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3642,7 +3641,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection sqref="A1:K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8097,7 +8096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8231,7 +8230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8297,7 +8296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8500,7 +8499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8901,7 +8900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9335,7 +9334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9347,11 +9346,11 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="D87" s="33" t="str">
+      <c r="D87" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E87" s="33" t="str">
+      <c r="E87" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Jose</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9515,7 +9514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9574,7 +9573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
         <v>49200-001</v>
@@ -9623,7 +9622,7 @@
       </c>
       <c r="V91" s="9"/>
     </row>
-    <row r="92" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9731,7 +9730,7 @@
   <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-001"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9739,9 +9738,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="8">
       <filters>
-        <filter val="QuizMaster"/>
+        <filter val="AllPassers"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9751,7 +9750,7 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037BC46-9B2D-6C48-82FA-73299D5FC169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A7C5C-1DE4-694B-9556-A0320A9AA02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="-21100" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43560" yWindow="29140" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="sp-21-dropped" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AD$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AE$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sp-21-main'!$A$1:$AT$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!$A$1:$K$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="800">
   <si>
     <t>Last Name</t>
   </si>
@@ -2601,6 +2601,15 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>Billboard</t>
+  </si>
+  <si>
+    <t>QuizMaker</t>
   </si>
 </sst>
 </file>
@@ -3638,168 +3647,172 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection sqref="A1:K81"/>
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="30" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" style="3" customWidth="1"/>
-    <col min="14" max="14" width="31.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="4" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="4" style="3" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="4" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="7" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10" style="3" customWidth="1"/>
+    <col min="23" max="23" width="4" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="1" t="str">
-        <f t="shared" ref="C1:C32" si="0">Q1</f>
+      <c r="C1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f t="shared" ref="D1:D32" si="0">R1</f>
         <v>Row</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A33" si="1">RIGHT(P2,9)</f>
+        <f t="shared" ref="A2:A33" si="1">RIGHT(Q2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D33" si="2">CONCATENATE(E2," ",R2)</f>
+      <c r="E2" s="3" t="str">
+        <f t="shared" ref="E2:E33" si="2">CONCATENATE(F2," ",S2)</f>
         <v>Beth Adelman</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H2" s="30">
-        <f t="shared" ref="H2:H33" si="3">F2</f>
+      <c r="I2" s="30">
+        <f t="shared" ref="I2:I33" si="3">G2</f>
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="3" t="str">
-        <f t="shared" ref="N2:N33" si="4">CONCATENATE(R2,", ",S2)</f>
+      <c r="M2" s="30"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="3" t="str">
+        <f t="shared" ref="O2:O33" si="4">CONCATENATE(S2,", ",T2)</f>
         <v>Adelman, Elizabeth</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="3">
+      <c r="W2" s="9"/>
+      <c r="X2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3807,65 +3820,65 @@
       <c r="B3" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="E3" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Alan Bota</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E32" si="5">S3</f>
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F32" si="5">T3</f>
         <v>Alan</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H3" s="30">
+      <c r="I3" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="3" t="str">
+      <c r="M3" s="30"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Bota, Alan</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="3">
+      <c r="W3" s="9"/>
+      <c r="X3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3873,65 +3886,65 @@
       <c r="B4" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Amelia Bresnahan</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="F4" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Amelia</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H4" s="30">
+      <c r="I4" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>3</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="3" t="str">
+      <c r="M4" s="30"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Bresnahan, Amelia</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>3</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="3">
+      <c r="W4" s="9"/>
+      <c r="X4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3939,56 +3952,56 @@
       <c r="B5" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="E5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Robert Didomenico</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="F5" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Robert</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I5" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="3" t="str">
+      <c r="M5" s="30"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Didomenico, Robert</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="3">
+      <c r="W5" s="9"/>
+      <c r="X5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3996,64 +4009,64 @@
       <c r="B6" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Josh Faulstroh</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H6" s="30">
+      <c r="I6" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="3" t="str">
+      <c r="M6" s="30"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Faulstroh, Joshua</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="3">
+      <c r="W6" s="9"/>
+      <c r="X6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4061,65 +4074,65 @@
       <c r="B7" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Angelo Fornero</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="F7" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Angelo</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H7" s="30">
+      <c r="I7" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>6</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="3" t="str">
+      <c r="M7" s="30"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Fornero, Angelo</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>6</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="3">
+      <c r="W7" s="9"/>
+      <c r="X7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4127,65 +4140,65 @@
       <c r="B8" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Johan Gonzalez</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="F8" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Johan</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H8" s="30">
+      <c r="I8" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="3" t="str">
+      <c r="M8" s="30"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Gonzalez, Johan</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="3">
+      <c r="W8" s="9"/>
+      <c r="X8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4193,56 +4206,56 @@
       <c r="B9" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Eric Guzman</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="F9" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Eric</v>
       </c>
-      <c r="H9" s="30">
+      <c r="I9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="3" t="str">
+      <c r="M9" s="30"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Guzman, Eric</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="3">
+      <c r="W9" s="9"/>
+      <c r="X9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4250,65 +4263,65 @@
       <c r="B10" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cherokee Hammonds</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="F10" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Cherokee</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H10" s="30">
+      <c r="I10" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>6</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="3" t="str">
+      <c r="M10" s="30"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hammonds, Cherokee</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="3">
+      <c r="W10" s="9"/>
+      <c r="X10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4316,65 +4329,65 @@
       <c r="B11" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Erick Hernandez</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Erick</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="H11" s="30">
+      <c r="I11" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>4</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="3" t="str">
+      <c r="M11" s="30"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hernandez, Erick</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>10</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="3">
+      <c r="W11" s="9"/>
+      <c r="X11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4382,68 +4395,68 @@
       <c r="B12" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cael Hiser</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="F12" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Cael</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H12" s="30">
+      <c r="I12" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="3" t="str">
+      <c r="M12" s="30"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hiser, Cael</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="3">
+      <c r="W12" s="9"/>
+      <c r="X12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4451,65 +4464,65 @@
       <c r="B13" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cameron Hoying</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="F13" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Cameron</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H13" s="30">
+      <c r="I13" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>6</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="3" t="str">
+      <c r="M13" s="30"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hoying, Cameron</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>12</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="3">
+      <c r="W13" s="9"/>
+      <c r="X13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4517,64 +4530,64 @@
       <c r="B14" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Seb Jaculbe</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H14" s="30">
+      <c r="I14" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="3" t="str">
+      <c r="M14" s="30"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Jaculbe, Sebastian</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="W14" s="3">
+      <c r="W14" s="9"/>
+      <c r="X14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4582,65 +4595,65 @@
       <c r="B15" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Kelty</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="F15" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Ryan</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H15" s="30">
+      <c r="I15" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>2</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="3" t="str">
+      <c r="M15" s="30"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Kelty, Ryan</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="3">
+      <c r="W15" s="9"/>
+      <c r="X15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4648,67 +4661,67 @@
       <c r="B16" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Nick Krzysiak</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H16" s="30">
+      <c r="I16" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>3</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="3" t="str">
+      <c r="M16" s="30"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Krzysiak, Nicholas</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>15</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="3">
+      <c r="W16" s="9"/>
+      <c r="X16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4716,68 +4729,68 @@
       <c r="B17" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Roman Lewis</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="F17" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Roman</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H17" s="30">
+      <c r="I17" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>4</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="3" t="str">
+      <c r="M17" s="30"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Lewis, Roman</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="3">
+      <c r="W17" s="9"/>
+      <c r="X17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4785,65 +4798,65 @@
       <c r="B18" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Justin Meyer</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="F18" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Justin</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H18" s="30">
+      <c r="I18" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>5</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="3" t="str">
+      <c r="M18" s="30"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Meyer, Justin</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="3">
+      <c r="W18" s="9"/>
+      <c r="X18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4851,65 +4864,65 @@
       <c r="B19" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Hassaan Mian</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="F19" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Hassaan</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H19" s="30">
+      <c r="I19" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>6</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="3" t="str">
+      <c r="M19" s="30"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Mian, Hassaan</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <v>18</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="3">
+      <c r="W19" s="9"/>
+      <c r="X19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4917,68 +4930,68 @@
       <c r="B20" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>John Mola</v>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="F20" s="3" t="str">
         <f t="shared" si="5"/>
         <v>John</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H20" s="30">
+      <c r="I20" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="3" t="str">
+      <c r="M20" s="30"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Mola, John</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="3">
+      <c r="W20" s="9"/>
+      <c r="X20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4986,64 +4999,64 @@
       <c r="B21" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Tony Morelli</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H21" s="30">
+      <c r="I21" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>2</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="3" t="str">
+      <c r="M21" s="30"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Morelli, Anthony</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="3">
+      <c r="W21" s="9"/>
+      <c r="X21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5051,65 +5064,65 @@
       <c r="B22" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sadri Ozgul</v>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="F22" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Sadri</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H22" s="30">
+      <c r="I22" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>3</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="3" t="str">
+      <c r="M22" s="30"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Ozgul, Sadri</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="3">
+      <c r="W22" s="9"/>
+      <c r="X22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5117,65 +5130,65 @@
       <c r="B23" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Jordan Pohancek</v>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="F23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Jordan</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H23" s="30">
+      <c r="I23" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>6</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="3" t="str">
+      <c r="M23" s="30"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Pohancek, Jordan</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="3">
+      <c r="W23" s="9"/>
+      <c r="X23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5183,65 +5196,65 @@
       <c r="B24" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="E24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Adam Rehus</v>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="F24" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Adam</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H24" s="30">
+      <c r="I24" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>6</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="3" t="str">
+      <c r="M24" s="30"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rehus, Adam</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="3">
+      <c r="W24" s="9"/>
+      <c r="X24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5249,64 +5262,64 @@
       <c r="B25" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="E25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Vinny Ringelsten</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H25" s="30">
+      <c r="I25" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="3" t="str">
+      <c r="M25" s="30"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Ringelsten, Vincent</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>24</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="3">
+      <c r="W25" s="9"/>
+      <c r="X25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5314,64 +5327,64 @@
       <c r="B26" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="E26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Eddy Rodriguez</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H26" s="30">
+      <c r="I26" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>5</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="3" t="str">
+      <c r="M26" s="30"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rodriguez, Edward</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="V26" s="9"/>
-      <c r="W26" s="3">
+      <c r="W26" s="9"/>
+      <c r="X26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5379,65 +5392,65 @@
       <c r="B27" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="E27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Juan Rodriguez</v>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="F27" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Juan</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H27" s="30">
+      <c r="I27" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>2</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="3" t="str">
+      <c r="M27" s="30"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rodriguez, Juan</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="3">
+      <c r="W27" s="9"/>
+      <c r="X27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5445,67 +5458,67 @@
       <c r="B28" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="E28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Alanna San Luis</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H28" s="30">
+      <c r="I28" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="3" t="str">
+      <c r="M28" s="30"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>San Luis, Alanna Marie</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
         <v>27</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="V28" s="9"/>
-      <c r="W28" s="3">
+      <c r="W28" s="9"/>
+      <c r="X28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5513,65 +5526,65 @@
       <c r="B29" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="E29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Matthew Santiago</v>
       </c>
-      <c r="E29" s="3" t="str">
+      <c r="F29" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Matthew</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H29" s="30">
+      <c r="I29" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>4</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="3" t="str">
+      <c r="M29" s="30"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Santiago, Matthew</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>28</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="3">
+      <c r="W29" s="9"/>
+      <c r="X29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5579,64 +5592,64 @@
       <c r="B30" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="E30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Matt Sittler</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H30" s="30">
+      <c r="I30" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>4</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="3" t="str">
+      <c r="M30" s="30"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Sittler, Matthew</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
         <v>29</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="V30" s="9"/>
-      <c r="W30" s="3">
+      <c r="W30" s="9"/>
+      <c r="X30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5644,65 +5657,65 @@
       <c r="B31" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="E31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dominic Varchetto</v>
       </c>
-      <c r="E31" s="3" t="str">
+      <c r="F31" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Dominic</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>5</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H31" s="30">
+      <c r="I31" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>6</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="3" t="str">
+      <c r="M31" s="30"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Varchetto, Dominic</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>30</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="3">
+      <c r="W31" s="9"/>
+      <c r="X31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5710,68 +5723,68 @@
       <c r="B32" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="E32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sarah Abuisneineh</v>
       </c>
-      <c r="E32" s="3" t="str">
+      <c r="F32" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Sarah</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H32" s="30">
+      <c r="I32" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>1</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="3" t="str">
+      <c r="M32" s="30"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Abuisneineh, Sarah</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>553</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>278</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>554</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>555</v>
       </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="3">
+      <c r="W32" s="9"/>
+      <c r="X32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5779,130 +5792,130 @@
       <c r="B33" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C33" s="3">
-        <f t="shared" ref="C33:C64" si="6">Q33</f>
+      <c r="D33" s="3">
+        <f t="shared" ref="D33:D64" si="6">R33</f>
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="E33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Ali Alimatov</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H33" s="30">
+      <c r="I33" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>4</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="3" t="str">
+      <c r="M33" s="30"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Alimatov, Narzulla Gafforovich</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="9"/>
+      <c r="Q33" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>556</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>557</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>558</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>559</v>
       </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="3">
+      <c r="W33" s="9"/>
+      <c r="X33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
-        <f t="shared" ref="A34:A65" si="7">RIGHT(P34,9)</f>
+        <f t="shared" ref="A34:A65" si="7">RIGHT(Q34,9)</f>
         <v>20000-003</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" ref="D34:D65" si="8">CONCATENATE(E34," ",R34)</f>
+      <c r="E34" s="3" t="str">
+        <f t="shared" ref="E34:E65" si="8">CONCATENATE(F34," ",S34)</f>
         <v>Gene Anderson</v>
       </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" ref="E34:E65" si="9">S34</f>
+      <c r="F34" s="3" t="str">
+        <f t="shared" ref="F34:F65" si="9">T34</f>
         <v>Gene</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>4</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H34" s="30">
-        <f t="shared" ref="H34:H65" si="10">F34</f>
+      <c r="I34" s="30">
+        <f t="shared" ref="I34:I65" si="10">G34</f>
         <v>4</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>4</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="3" t="str">
-        <f t="shared" ref="N34:N65" si="11">CONCATENATE(R34,", ",S34)</f>
+      <c r="M34" s="30"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="3" t="str">
+        <f t="shared" ref="O34:O65" si="11">CONCATENATE(S34,", ",T34)</f>
         <v>Anderson, Gene</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>3</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>487</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>560</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>561</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>562</v>
       </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="3">
+      <c r="W34" s="9"/>
+      <c r="X34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5910,64 +5923,64 @@
       <c r="B35" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="str">
+      <c r="E35" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Luis Arenas</v>
       </c>
-      <c r="E35" s="3" t="str">
+      <c r="F35" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Luis</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H35" s="30">
+      <c r="I35" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>4</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="3" t="str">
+      <c r="M35" s="30"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Arenas, Luis</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>563</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>564</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>565</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>566</v>
       </c>
-      <c r="V35" s="9"/>
-      <c r="W35" s="3">
+      <c r="W35" s="9"/>
+      <c r="X35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5975,64 +5988,64 @@
       <c r="B36" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="D36" s="3" t="str">
+      <c r="E36" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Joe Egan</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H36" s="30">
+      <c r="I36" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>4</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="3" t="str">
+      <c r="M36" s="30"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Egan, Joseph</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="R36" s="3">
         <v>5</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>567</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>495</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>568</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>569</v>
       </c>
-      <c r="V36" s="9"/>
-      <c r="W36" s="3">
+      <c r="W36" s="9"/>
+      <c r="X36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6040,67 +6053,68 @@
       <c r="B37" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="32"/>
+      <c r="D37" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="D37" s="3" t="str">
+      <c r="E37" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Chuckie Gentile</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H37" s="30">
+      <c r="I37" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>2</v>
       </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="3" t="str">
+      <c r="M37" s="30"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gentile, Charles</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="9"/>
+      <c r="Q37" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="R37" s="3">
         <v>6</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>570</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>571</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>572</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>573</v>
       </c>
-      <c r="V37" s="9"/>
-      <c r="W37" s="3">
+      <c r="W37" s="9"/>
+      <c r="X37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6108,65 +6122,65 @@
       <c r="B38" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="E38" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Brandon Gutierrez</v>
       </c>
-      <c r="E38" s="3" t="str">
+      <c r="F38" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Brandon</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H38" s="30">
+      <c r="I38" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="3" t="str">
+      <c r="M38" s="30"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gutierrez, Brandon</v>
       </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="R38" s="3">
         <v>7</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>574</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>129</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>575</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>576</v>
       </c>
-      <c r="V38" s="9"/>
-      <c r="W38" s="3">
+      <c r="W38" s="9"/>
+      <c r="X38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6174,64 +6188,64 @@
       <c r="B39" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="D39" s="3" t="str">
+      <c r="E39" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Ahmed Ibrahim</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>5</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H39" s="30">
+      <c r="I39" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>2</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="3" t="str">
+      <c r="M39" s="30"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Ibrahim, Ahmed Ismail Mohamed Ismail</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="9"/>
+      <c r="Q39" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
         <v>8</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>577</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>578</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>579</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>580</v>
       </c>
-      <c r="V39" s="9"/>
-      <c r="W39" s="3">
+      <c r="W39" s="9"/>
+      <c r="X39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6239,64 +6253,65 @@
       <c r="B40" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="32"/>
+      <c r="D40" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="D40" s="3" t="str">
+      <c r="E40" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Joe Janda</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="F40" s="32" t="s">
         <v>768</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>2</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H40" s="30">
+      <c r="I40" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="3" t="str">
+      <c r="M40" s="30"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Janda, Joseph</v>
       </c>
-      <c r="O40" s="9"/>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="R40" s="3">
         <v>9</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>581</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>495</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>582</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>583</v>
       </c>
-      <c r="V40" s="9"/>
-      <c r="W40" s="3">
+      <c r="W40" s="9"/>
+      <c r="X40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6304,65 +6319,65 @@
       <c r="B41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="D41" s="3" t="str">
+      <c r="E41" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Alexa Grace LaFontaine-Larson</v>
       </c>
-      <c r="E41" s="3" t="str">
+      <c r="F41" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Alexa Grace</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="H41" s="30">
+      <c r="I41" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>4</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="3" t="str">
+      <c r="M41" s="30"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="3" t="str">
         <f t="shared" si="11"/>
         <v>LaFontaine-Larson, Alexa Grace</v>
       </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>584</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>585</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>586</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>587</v>
       </c>
-      <c r="V41" s="9"/>
-      <c r="W41" s="3">
+      <c r="W41" s="9"/>
+      <c r="X41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6370,64 +6385,64 @@
       <c r="B42" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="D42" s="3" t="str">
+      <c r="E42" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Zach Mucha</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H42" s="30">
+      <c r="I42" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>6</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="3" t="str">
+      <c r="M42" s="30"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Mucha, Zachary</v>
       </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>588</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>589</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>590</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>591</v>
       </c>
-      <c r="V42" s="9"/>
-      <c r="W42" s="3">
+      <c r="W42" s="9"/>
+      <c r="X42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6435,65 +6450,65 @@
       <c r="B43" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="D43" s="3" t="str">
+      <c r="E43" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Eric Murgas</v>
       </c>
-      <c r="E43" s="3" t="str">
+      <c r="F43" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Eric</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H43" s="30">
+      <c r="I43" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>6</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="3" t="str">
+      <c r="M43" s="30"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Murgas, Eric</v>
       </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="9"/>
+      <c r="Q43" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>592</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>125</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>593</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>594</v>
       </c>
-      <c r="V43" s="9"/>
-      <c r="W43" s="3">
+      <c r="W43" s="9"/>
+      <c r="X43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6501,64 +6516,64 @@
       <c r="B44" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="D44" s="3" t="str">
+      <c r="E44" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Rashid Nazmiddinov</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H44" s="30">
+      <c r="I44" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>4</v>
       </c>
-      <c r="L44" s="30"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="3" t="str">
+      <c r="M44" s="30"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nazmiddinov, Rashid Khusniddinovich</v>
       </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="9"/>
+      <c r="Q44" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>595</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>596</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>597</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>598</v>
       </c>
-      <c r="V44" s="9"/>
-      <c r="W44" s="3">
+      <c r="W44" s="9"/>
+      <c r="X44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6566,65 +6581,65 @@
       <c r="B45" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D45" s="3" t="str">
+      <c r="E45" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Long Nguyen</v>
       </c>
-      <c r="E45" s="3" t="str">
+      <c r="F45" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Long</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H45" s="30">
+      <c r="I45" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>2</v>
       </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="3" t="str">
+      <c r="M45" s="30"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nguyen, Long</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="9"/>
+      <c r="Q45" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>599</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>600</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>601</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>602</v>
       </c>
-      <c r="V45" s="9"/>
-      <c r="W45" s="3">
+      <c r="W45" s="9"/>
+      <c r="X45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6632,65 +6647,65 @@
       <c r="B46" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="D46" s="3" t="str">
+      <c r="E46" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Natalia Nykaza</v>
       </c>
-      <c r="E46" s="3" t="str">
+      <c r="F46" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Natalia</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H46" s="30">
+      <c r="I46" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>3</v>
       </c>
-      <c r="L46" s="30"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="3" t="str">
+      <c r="M46" s="30"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nykaza, Natalia</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="3" t="s">
+      <c r="P46" s="9"/>
+      <c r="Q46" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>603</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>604</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>605</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>606</v>
       </c>
-      <c r="V46" s="9"/>
-      <c r="W46" s="3">
+      <c r="W46" s="9"/>
+      <c r="X46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6698,65 +6713,65 @@
       <c r="B47" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="D47" s="3" t="str">
+      <c r="E47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Karen Ojeda</v>
       </c>
-      <c r="E47" s="3" t="str">
+      <c r="F47" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Karen</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H47" s="30">
+      <c r="I47" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>4</v>
       </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="3" t="str">
+      <c r="M47" s="30"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Ojeda, Karen</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="9"/>
+      <c r="Q47" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>607</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>608</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>609</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>610</v>
       </c>
-      <c r="V47" s="9"/>
-      <c r="W47" s="3">
+      <c r="W47" s="9"/>
+      <c r="X47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6764,64 +6779,65 @@
       <c r="B48" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="32"/>
+      <c r="D48" s="3">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="D48" s="3" t="str">
+      <c r="E48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Nick Paugys</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H48" s="30">
+      <c r="I48" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>5</v>
       </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="3" t="str">
+      <c r="M48" s="30"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Paugys, Nicholas</v>
       </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="9"/>
+      <c r="Q48" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>611</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>288</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>612</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>613</v>
       </c>
-      <c r="V48" s="9"/>
-      <c r="W48" s="3">
+      <c r="W48" s="9"/>
+      <c r="X48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6829,68 +6845,68 @@
       <c r="B49" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="D49" s="3" t="str">
+      <c r="E49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Lonnie Phillips</v>
       </c>
-      <c r="E49" s="3" t="str">
+      <c r="F49" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Lonnie</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H49" s="30">
+      <c r="I49" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>6</v>
       </c>
-      <c r="L49" s="30"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="3" t="str">
+      <c r="M49" s="30"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Phillips, Lonnie</v>
       </c>
-      <c r="O49" s="9"/>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="9"/>
+      <c r="Q49" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>614</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>615</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>616</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>617</v>
       </c>
-      <c r="V49" s="9"/>
-      <c r="W49" s="3">
+      <c r="W49" s="9"/>
+      <c r="X49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6898,65 +6914,65 @@
       <c r="B50" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="D50" s="3" t="str">
+      <c r="E50" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Mario Prieto</v>
       </c>
-      <c r="E50" s="3" t="str">
+      <c r="F50" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Mario</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>4</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H50" s="30">
+      <c r="I50" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>5</v>
       </c>
-      <c r="L50" s="30"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="3" t="str">
+      <c r="M50" s="30"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Prieto, Mario</v>
       </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="9"/>
+      <c r="Q50" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="3">
         <v>19</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>618</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>619</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>620</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>621</v>
       </c>
-      <c r="V50" s="9"/>
-      <c r="W50" s="3">
+      <c r="W50" s="9"/>
+      <c r="X50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6964,65 +6980,65 @@
       <c r="B51" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="D51" s="3" t="str">
+      <c r="E51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Kaleb Richardson</v>
       </c>
-      <c r="E51" s="3" t="str">
+      <c r="F51" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Kaleb</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H51" s="30">
+      <c r="I51" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>2</v>
       </c>
-      <c r="L51" s="30"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="3" t="str">
+      <c r="M51" s="30"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Richardson, Kaleb</v>
       </c>
-      <c r="O51" s="9"/>
-      <c r="P51" s="3" t="s">
+      <c r="P51" s="9"/>
+      <c r="Q51" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <v>20</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>622</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>623</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>624</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>625</v>
       </c>
-      <c r="V51" s="9"/>
-      <c r="W51" s="3">
+      <c r="W51" s="9"/>
+      <c r="X51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7030,68 +7046,69 @@
       <c r="B52" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="32"/>
+      <c r="D52" s="3">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="D52" s="3" t="str">
+      <c r="E52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Eric Rodriguez</v>
       </c>
-      <c r="E52" s="3" t="str">
+      <c r="F52" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Eric</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H52" s="30">
+      <c r="I52" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="3" t="str">
+      <c r="M52" s="30"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Rodriguez, Eric</v>
       </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="9"/>
+      <c r="Q52" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>626</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>125</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>627</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>628</v>
       </c>
-      <c r="V52" s="9"/>
-      <c r="W52" s="3">
+      <c r="W52" s="9"/>
+      <c r="X52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7099,68 +7116,69 @@
       <c r="B53" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="32"/>
+      <c r="D53" s="3">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="D53" s="3" t="str">
+      <c r="E53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Gavin Schnowske</v>
       </c>
-      <c r="E53" s="3" t="str">
+      <c r="F53" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Gavin</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>5</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H53" s="30">
+      <c r="I53" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>2</v>
       </c>
-      <c r="L53" s="30"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="3" t="str">
+      <c r="M53" s="30"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Schnowske, Gavin</v>
       </c>
-      <c r="O53" s="9"/>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="9"/>
+      <c r="Q53" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="R53" s="3">
         <v>22</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>629</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>630</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>631</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>632</v>
       </c>
-      <c r="V53" s="9"/>
-      <c r="W53" s="3">
+      <c r="W53" s="9"/>
+      <c r="X53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7168,65 +7186,65 @@
       <c r="B54" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="D54" s="3" t="str">
+      <c r="E54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Caroline Siedlarczyk</v>
       </c>
-      <c r="E54" s="3" t="str">
+      <c r="F54" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Caroline</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H54" s="30">
+      <c r="I54" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <v>5</v>
       </c>
-      <c r="L54" s="30"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="3" t="str">
+      <c r="M54" s="30"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Siedlarczyk, Caroline</v>
       </c>
-      <c r="O54" s="9"/>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="9"/>
+      <c r="Q54" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>633</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>634</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>635</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>636</v>
       </c>
-      <c r="V54" s="9"/>
-      <c r="W54" s="3">
+      <c r="W54" s="9"/>
+      <c r="X54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7234,65 +7252,65 @@
       <c r="B55" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="D55" s="3" t="str">
+      <c r="E55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Andrew Tolentino</v>
       </c>
-      <c r="E55" s="3" t="str">
+      <c r="F55" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Andrew</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>4</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H55" s="30">
+      <c r="I55" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>6</v>
       </c>
-      <c r="L55" s="30"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="3" t="str">
+      <c r="M55" s="30"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Tolentino, Andrew</v>
       </c>
-      <c r="O55" s="9"/>
-      <c r="P55" s="3" t="s">
+      <c r="P55" s="9"/>
+      <c r="Q55" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="R55" s="3">
         <v>24</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>637</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>638</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>639</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>640</v>
       </c>
-      <c r="V55" s="9"/>
-      <c r="W55" s="3">
+      <c r="W55" s="9"/>
+      <c r="X55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7300,65 +7318,65 @@
       <c r="B56" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D56" s="3" t="str">
+      <c r="E56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>David Woloszczuk-Mrugala</v>
       </c>
-      <c r="E56" s="3" t="str">
+      <c r="F56" s="3" t="str">
         <f t="shared" si="9"/>
         <v>David</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>5</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H56" s="30">
+      <c r="I56" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L56" s="4">
         <v>4</v>
       </c>
-      <c r="L56" s="30"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="3" t="str">
+      <c r="M56" s="30"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Woloszczuk-Mrugala, David</v>
       </c>
-      <c r="O56" s="9"/>
-      <c r="P56" s="3" t="s">
+      <c r="P56" s="9"/>
+      <c r="Q56" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="R56" s="3">
         <v>25</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>641</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>476</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>642</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>643</v>
       </c>
-      <c r="V56" s="9"/>
-      <c r="W56" s="3">
+      <c r="W56" s="9"/>
+      <c r="X56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7366,65 +7384,65 @@
       <c r="B57" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="D57" s="3" t="str">
+      <c r="E57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Wyatt Zajac</v>
       </c>
-      <c r="E57" s="3" t="str">
+      <c r="F57" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Wyatt</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H57" s="30">
+      <c r="I57" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="K57" s="4">
+      <c r="L57" s="4">
         <v>4</v>
       </c>
-      <c r="L57" s="30"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="3" t="str">
+      <c r="M57" s="30"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Zajac, Wyatt</v>
       </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="9"/>
+      <c r="Q57" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>644</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>645</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>646</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>647</v>
       </c>
-      <c r="V57" s="9"/>
-      <c r="W57" s="3">
+      <c r="W57" s="9"/>
+      <c r="X57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7432,65 +7450,65 @@
       <c r="B58" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D58" s="31" t="str">
+      <c r="E58" s="31" t="str">
         <f t="shared" si="8"/>
         <v>David Abrutis</v>
       </c>
-      <c r="E58" s="31" t="str">
+      <c r="F58" s="31" t="str">
         <f t="shared" si="9"/>
         <v>David</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H58" s="30">
+      <c r="I58" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="K58" s="4">
+      <c r="L58" s="4">
         <v>4</v>
       </c>
-      <c r="L58" s="30"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="3" t="str">
+      <c r="M58" s="30"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Abrutis, David</v>
       </c>
-      <c r="O58" s="9"/>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="9"/>
+      <c r="Q58" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>475</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>476</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>477</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>478</v>
       </c>
-      <c r="V58" s="9"/>
-      <c r="W58" s="3">
+      <c r="W58" s="9"/>
+      <c r="X58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7498,68 +7516,68 @@
       <c r="B59" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D59" s="3" t="str">
+      <c r="E59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Mia Contreras</v>
       </c>
-      <c r="E59" s="3" t="str">
+      <c r="F59" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Mia</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H59" s="30">
+      <c r="I59" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L59" s="4">
         <v>6</v>
       </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="3" t="str">
+      <c r="M59" s="30"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Contreras, Mia</v>
       </c>
-      <c r="O59" s="9"/>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="9"/>
+      <c r="Q59" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>526</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>527</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>528</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>529</v>
       </c>
-      <c r="V59" s="9"/>
-      <c r="W59" s="3">
+      <c r="W59" s="9"/>
+      <c r="X59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7567,68 +7585,68 @@
       <c r="B60" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D60" s="3" t="str">
+      <c r="E60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Julie Dosher</v>
       </c>
-      <c r="E60" s="3" t="str">
+      <c r="F60" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Julie</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H60" s="30">
+      <c r="I60" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="4">
+      <c r="L60" s="4">
         <v>5</v>
       </c>
-      <c r="L60" s="30"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="3" t="str">
+      <c r="M60" s="30"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="O60" s="9"/>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="9"/>
+      <c r="Q60" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>433</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>434</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>435</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>436</v>
       </c>
-      <c r="V60" s="9"/>
-      <c r="W60" s="3">
+      <c r="W60" s="9"/>
+      <c r="X60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7636,65 +7654,65 @@
       <c r="B61" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D61" s="3" t="str">
+      <c r="E61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Shane Frantz</v>
       </c>
-      <c r="E61" s="3" t="str">
+      <c r="F61" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Shane</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H61" s="30">
+      <c r="I61" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="4">
         <v>6</v>
       </c>
-      <c r="L61" s="30"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="3" t="str">
+      <c r="M61" s="30"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Frantz, Shane</v>
       </c>
-      <c r="O61" s="9"/>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="9"/>
+      <c r="Q61" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>530</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>531</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>532</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>533</v>
       </c>
-      <c r="V61" s="9"/>
-      <c r="W61" s="3">
+      <c r="W61" s="9"/>
+      <c r="X61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7702,65 +7720,65 @@
       <c r="B62" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="str">
+      <c r="E62" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Grant Gallagher</v>
       </c>
-      <c r="E62" s="3" t="str">
+      <c r="F62" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Grant</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H62" s="30">
+      <c r="I62" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="L62" s="30"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="3" t="str">
+      <c r="M62" s="30"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gallagher, Grant</v>
       </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="9"/>
+      <c r="Q62" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>534</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>535</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>536</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>537</v>
       </c>
-      <c r="V62" s="9"/>
-      <c r="W62" s="3">
+      <c r="W62" s="9"/>
+      <c r="X62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7768,65 +7786,65 @@
       <c r="B63" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="D63" s="3" t="str">
+      <c r="E63" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Michael Jaime</v>
       </c>
-      <c r="E63" s="3" t="str">
+      <c r="F63" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Michael</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>3</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H63" s="30">
+      <c r="I63" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="K63" s="4">
+      <c r="L63" s="4">
         <v>2</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="3" t="str">
+      <c r="M63" s="30"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Jaime, Michael</v>
       </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="9"/>
+      <c r="Q63" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="R63" s="3">
         <v>6</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>538</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>4</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>539</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>540</v>
       </c>
-      <c r="V63" s="9"/>
-      <c r="W63" s="3">
+      <c r="W63" s="9"/>
+      <c r="X63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7834,65 +7852,65 @@
       <c r="B64" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="str">
-        <f>CONCATENATE(E64," ",R64)</f>
+      <c r="E64" s="3" t="str">
+        <f>CONCATENATE(F64," ",S64)</f>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E64" s="3" t="str">
+      <c r="F64" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Jose</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>2</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H64" s="30">
+      <c r="I64" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L64" s="4">
         <v>3</v>
       </c>
-      <c r="L64" s="30"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="3" t="str">
+      <c r="M64" s="30"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
-      <c r="O64" s="9"/>
-      <c r="P64" s="3" t="s">
+      <c r="P64" s="9"/>
+      <c r="Q64" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="R64" s="3">
         <v>7</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>453</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>450</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>454</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>455</v>
       </c>
-      <c r="V64" s="9"/>
-      <c r="W64" s="3">
+      <c r="W64" s="9"/>
+      <c r="X64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7900,134 +7918,134 @@
       <c r="B65" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="3">
-        <f t="shared" ref="C65:C93" si="12">Q65</f>
+      <c r="D65" s="3">
+        <f t="shared" ref="D65:D93" si="12">R65</f>
         <v>8</v>
       </c>
-      <c r="D65" s="3" t="str">
+      <c r="E65" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Rahul Patel</v>
       </c>
-      <c r="E65" s="3" t="str">
+      <c r="F65" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Rahul</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>2</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H65" s="30">
+      <c r="I65" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K65" s="4">
+      <c r="L65" s="4">
         <v>6</v>
       </c>
-      <c r="L65" s="30"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="3" t="str">
+      <c r="M65" s="30"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Patel, Rahul</v>
       </c>
-      <c r="O65" s="9"/>
-      <c r="P65" s="3" t="s">
+      <c r="P65" s="9"/>
+      <c r="Q65" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="R65" s="3">
         <v>8</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>158</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>541</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>542</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>543</v>
       </c>
-      <c r="V65" s="9"/>
-      <c r="W65" s="3">
+      <c r="W65" s="9"/>
+      <c r="X65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A93" si="13">RIGHT(P66,9)</f>
+        <f t="shared" ref="A66:A93" si="13">RIGHT(Q66,9)</f>
         <v>24700-001</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D93" si="14">CONCATENATE(E66," ",R66)</f>
+      <c r="E66" s="3" t="str">
+        <f t="shared" ref="E66:E93" si="14">CONCATENATE(F66," ",S66)</f>
         <v>Huzaifa Razzak</v>
       </c>
-      <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E93" si="15">S66</f>
+      <c r="F66" s="3" t="str">
+        <f t="shared" ref="F66:F93" si="15">T66</f>
         <v>Huzaifa</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H66" s="30">
-        <f t="shared" ref="H66:H92" si="16">F66</f>
+      <c r="I66" s="30">
+        <f t="shared" ref="I66:I92" si="16">G66</f>
         <v>3</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K66" s="4">
+      <c r="L66" s="4">
         <v>6</v>
       </c>
-      <c r="L66" s="30"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="3" t="str">
-        <f t="shared" ref="N66:N93" si="17">CONCATENATE(R66,", ",S66)</f>
+      <c r="M66" s="30"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="3" t="str">
+        <f t="shared" ref="O66:O93" si="17">CONCATENATE(S66,", ",T66)</f>
         <v>Razzak, Huzaifa</v>
       </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="9"/>
+      <c r="Q66" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>544</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>545</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>546</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>547</v>
       </c>
-      <c r="V66" s="9"/>
-      <c r="W66" s="3">
+      <c r="W66" s="9"/>
+      <c r="X66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8035,68 +8053,68 @@
       <c r="B67" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="E67" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Parker Woods</v>
       </c>
-      <c r="E67" s="3" t="str">
+      <c r="F67" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Parker</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>2</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H67" s="30">
+      <c r="I67" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K67" s="4">
+      <c r="L67" s="4">
         <v>6</v>
       </c>
-      <c r="L67" s="30"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="3" t="str">
+      <c r="M67" s="30"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Woods, Parker</v>
       </c>
-      <c r="O67" s="9"/>
-      <c r="P67" s="3" t="s">
+      <c r="P67" s="9"/>
+      <c r="Q67" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="R67" s="3">
         <v>10</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>548</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>549</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>550</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>551</v>
       </c>
-      <c r="V67" s="9"/>
-      <c r="W67" s="3">
+      <c r="W67" s="9"/>
+      <c r="X67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8104,68 +8122,68 @@
       <c r="B68" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D68" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D68" s="3" t="str">
+      <c r="E68" s="3" t="str">
         <f t="shared" si="14"/>
         <v>David Abrutis</v>
       </c>
-      <c r="E68" s="3" t="str">
+      <c r="F68" s="3" t="str">
         <f t="shared" si="15"/>
         <v>David</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>3</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H68" s="30">
+      <c r="I68" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K68" s="4">
+      <c r="L68" s="4">
         <v>1</v>
       </c>
-      <c r="L68" s="30"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="3" t="str">
+      <c r="M68" s="30"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Abrutis, David</v>
       </c>
-      <c r="O68" s="9"/>
-      <c r="P68" s="3" t="s">
+      <c r="P68" s="9"/>
+      <c r="Q68" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="R68" s="3">
         <v>1</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>475</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>476</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>477</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>478</v>
       </c>
-      <c r="V68" s="9"/>
-      <c r="W68" s="3">
+      <c r="W68" s="9"/>
+      <c r="X68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8173,64 +8191,67 @@
       <c r="B69" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D69" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="D69" s="3" t="str">
+      <c r="E69" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Z Albaz</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H69" s="30">
+      <c r="I69" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="K69" s="4">
+      <c r="L69" s="4">
         <v>3</v>
       </c>
-      <c r="L69" s="30"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="3" t="str">
+      <c r="M69" s="30"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Albaz, Hamzeh</v>
       </c>
-      <c r="O69" s="9"/>
-      <c r="P69" s="3" t="s">
+      <c r="P69" s="9"/>
+      <c r="Q69" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="R69" s="3">
         <v>2</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>479</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>480</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>481</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>482</v>
       </c>
-      <c r="V69" s="9"/>
-      <c r="W69" s="3">
+      <c r="W69" s="9"/>
+      <c r="X69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8238,65 +8259,68 @@
       <c r="B70" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="D70" s="3" t="str">
+      <c r="E70" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Fernando Alfaro</v>
       </c>
-      <c r="E70" s="3" t="str">
+      <c r="F70" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Fernando</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H70" s="30">
+      <c r="I70" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L70" s="4">
         <v>3</v>
       </c>
-      <c r="L70" s="30"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="3" t="str">
+      <c r="M70" s="30"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Alfaro, Fernando</v>
       </c>
-      <c r="O70" s="9"/>
-      <c r="P70" s="3" t="s">
+      <c r="P70" s="9"/>
+      <c r="Q70" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>483</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>484</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>485</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>486</v>
       </c>
-      <c r="V70" s="9"/>
-      <c r="W70" s="3">
+      <c r="W70" s="9"/>
+      <c r="X70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8304,68 +8328,65 @@
       <c r="B71" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D71" s="3" t="str">
+      <c r="E71" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Ryan Anderson</v>
       </c>
-      <c r="E71" s="3" t="str">
+      <c r="F71" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Ryan</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>3</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H71" s="30">
+      <c r="I71" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K71" s="4">
+      <c r="L71" s="4">
         <v>3</v>
       </c>
-      <c r="L71" s="30"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="3" t="str">
+      <c r="M71" s="30"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Anderson, Ryan</v>
       </c>
-      <c r="O71" s="9"/>
-      <c r="P71" s="3" t="s">
+      <c r="P71" s="9"/>
+      <c r="Q71" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="R71" s="3">
         <v>4</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>487</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>175</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>488</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>489</v>
       </c>
-      <c r="V71" s="9"/>
-      <c r="W71" s="3">
+      <c r="W71" s="9"/>
+      <c r="X71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8373,68 +8394,65 @@
       <c r="B72" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="3">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D72" s="3" t="str">
+      <c r="E72" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Jefferson Cherrington</v>
       </c>
-      <c r="E72" s="3" t="str">
+      <c r="F72" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Jefferson</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H72" s="30">
+      <c r="I72" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K72" s="4">
+      <c r="L72" s="4">
         <v>4</v>
       </c>
-      <c r="L72" s="30"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="3" t="str">
+      <c r="M72" s="30"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Cherrington, Jefferson</v>
       </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="3" t="s">
+      <c r="P72" s="9"/>
+      <c r="Q72" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>490</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>491</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>492</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>493</v>
       </c>
-      <c r="V72" s="9"/>
-      <c r="W72" s="3">
+      <c r="W72" s="9"/>
+      <c r="X72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8442,64 +8460,67 @@
       <c r="B73" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="D73" s="3" t="str">
+      <c r="E73" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Joey Devito</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="3">
         <v>2</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H73" s="30">
+      <c r="I73" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="L73" s="30"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="3" t="str">
+      <c r="M73" s="30"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Devito, Joseph</v>
       </c>
-      <c r="O73" s="9"/>
-      <c r="P73" s="3" t="s">
+      <c r="P73" s="9"/>
+      <c r="Q73" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="R73" s="3">
         <v>6</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>494</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>495</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>496</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>497</v>
       </c>
-      <c r="V73" s="9"/>
-      <c r="W73" s="3">
+      <c r="W73" s="9"/>
+      <c r="X73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8507,65 +8528,71 @@
       <c r="B74" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D74" s="3">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="D74" s="3" t="str">
+      <c r="E74" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Pablo Enriquez</v>
       </c>
-      <c r="E74" s="3" t="str">
+      <c r="F74" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>3</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H74" s="30">
+      <c r="I74" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L74" s="4">
         <v>1</v>
       </c>
-      <c r="L74" s="30"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="3" t="str">
+      <c r="M74" s="30"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Enriquez, Pablo</v>
       </c>
-      <c r="O74" s="9"/>
-      <c r="P74" s="3" t="s">
+      <c r="P74" s="9"/>
+      <c r="Q74" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="R74" s="3">
         <v>7</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>498</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>499</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>500</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>501</v>
       </c>
-      <c r="V74" s="9"/>
-      <c r="W74" s="3">
+      <c r="W74" s="9"/>
+      <c r="X74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8573,65 +8600,68 @@
       <c r="B75" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D75" s="3" t="str">
+      <c r="E75" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Adam Jaber</v>
       </c>
-      <c r="E75" s="3" t="str">
+      <c r="F75" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Adam</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="30">
+      <c r="I75" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L75" s="4">
         <v>2</v>
       </c>
-      <c r="L75" s="30"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="3" t="str">
+      <c r="M75" s="30"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jaber, Adam</v>
       </c>
-      <c r="O75" s="9"/>
-      <c r="P75" s="3" t="s">
+      <c r="P75" s="9"/>
+      <c r="Q75" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="R75" s="3">
         <v>8</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>502</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>109</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>503</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>504</v>
       </c>
-      <c r="V75" s="9"/>
-      <c r="W75" s="3">
+      <c r="W75" s="9"/>
+      <c r="X75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8639,68 +8669,65 @@
       <c r="B76" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="D76" s="3" t="str">
+      <c r="E76" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Jubin Joseph</v>
       </c>
-      <c r="E76" s="3" t="str">
+      <c r="F76" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Jubin</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H76" s="30">
+      <c r="I76" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K76" s="4">
+      <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="L76" s="30"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="3" t="str">
+      <c r="M76" s="30"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Joseph, Jubin</v>
       </c>
-      <c r="O76" s="9"/>
-      <c r="P76" s="3" t="s">
+      <c r="P76" s="9"/>
+      <c r="Q76" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>495</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>505</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>506</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>507</v>
       </c>
-      <c r="V76" s="9"/>
-      <c r="W76" s="3">
+      <c r="W76" s="9"/>
+      <c r="X76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8708,64 +8735,67 @@
       <c r="B77" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="D77" s="3" t="str">
+      <c r="E77" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Chris Jules</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H77" s="30">
+      <c r="I77" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L77" s="4">
         <v>4</v>
       </c>
-      <c r="L77" s="30"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="3" t="str">
+      <c r="M77" s="30"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jules, Christopher</v>
       </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="3" t="s">
+      <c r="P77" s="9"/>
+      <c r="Q77" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="R77" s="3">
         <v>10</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>508</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>509</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>510</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>511</v>
       </c>
-      <c r="V77" s="9"/>
-      <c r="W77" s="3">
+      <c r="W77" s="9"/>
+      <c r="X77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8773,68 +8803,68 @@
       <c r="B78" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D78" s="3">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="D78" s="3" t="str">
+      <c r="E78" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Alex Kaminski</v>
       </c>
-      <c r="E78" s="3" t="str">
+      <c r="F78" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>2</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H78" s="30">
+      <c r="I78" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K78" s="4">
+      <c r="L78" s="4">
         <v>4</v>
       </c>
-      <c r="L78" s="30"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="3" t="str">
+      <c r="M78" s="30"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Kaminski, Alex</v>
       </c>
-      <c r="O78" s="9"/>
-      <c r="P78" s="3" t="s">
+      <c r="P78" s="9"/>
+      <c r="Q78" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="R78" s="3">
         <v>11</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>512</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>311</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>513</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>514</v>
       </c>
-      <c r="V78" s="9"/>
-      <c r="W78" s="3">
+      <c r="W78" s="9"/>
+      <c r="X78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8842,65 +8872,71 @@
       <c r="B79" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D79" s="3">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="D79" s="3" t="str">
+      <c r="E79" s="3" t="str">
         <f t="shared" si="14"/>
         <v>James Mackowiak</v>
       </c>
-      <c r="E79" s="3" t="str">
+      <c r="F79" s="3" t="str">
         <f t="shared" si="15"/>
         <v>James</v>
       </c>
-      <c r="F79" s="3">
+      <c r="G79" s="3">
         <v>2</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H79" s="30">
+      <c r="I79" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="L79" s="30"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="3" t="str">
+      <c r="M79" s="30"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Mackowiak, James</v>
       </c>
-      <c r="O79" s="9"/>
-      <c r="P79" s="3" t="s">
+      <c r="P79" s="9"/>
+      <c r="Q79" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="R79" s="3">
         <v>12</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>515</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>427</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>516</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>517</v>
       </c>
-      <c r="V79" s="9"/>
-      <c r="W79" s="3">
+      <c r="W79" s="9"/>
+      <c r="X79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8908,64 +8944,64 @@
       <c r="B80" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="D80" s="3" t="str">
+      <c r="E80" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Ben Smith</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>3</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H80" s="30">
+      <c r="I80" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="L80" s="30"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="3" t="str">
+      <c r="M80" s="30"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Smith, Benjamin</v>
       </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="3" t="s">
+      <c r="P80" s="9"/>
+      <c r="Q80" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="R80" s="3">
         <v>13</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>10</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>518</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>519</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>520</v>
       </c>
-      <c r="V80" s="9"/>
-      <c r="W80" s="3">
+      <c r="W80" s="9"/>
+      <c r="X80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8973,68 +9009,65 @@
       <c r="B81" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="3">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="D81" s="3" t="str">
+      <c r="E81" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Grover Soans</v>
       </c>
-      <c r="E81" s="3" t="str">
+      <c r="F81" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Grover</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H81" s="30">
+      <c r="I81" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K81" s="4">
+      <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="L81" s="30"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="3" t="str">
+      <c r="M81" s="30"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Soans, Grover</v>
       </c>
-      <c r="O81" s="9"/>
-      <c r="P81" s="3" t="s">
+      <c r="P81" s="9"/>
+      <c r="Q81" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>521</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>522</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>523</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>524</v>
       </c>
-      <c r="V81" s="9"/>
-      <c r="W81" s="3">
+      <c r="W81" s="9"/>
+      <c r="X81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9042,61 +9075,61 @@
       <c r="B82" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D82" s="3" t="str">
+      <c r="E82" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Brian Feddes</v>
       </c>
-      <c r="E82" s="3" t="str">
+      <c r="F82" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Brian</v>
       </c>
-      <c r="H82" s="30">
+      <c r="I82" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K82" s="4">
+      <c r="L82" s="4">
         <v>3</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="M82" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="M82" s="9"/>
-      <c r="N82" s="3" t="str">
+      <c r="N82" s="9"/>
+      <c r="O82" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Brian</v>
       </c>
-      <c r="O82" s="9"/>
-      <c r="P82" s="3" t="s">
+      <c r="P82" s="9"/>
+      <c r="Q82" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="R82" s="3">
         <v>1</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>429</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>428</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>437</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>438</v>
       </c>
-      <c r="V82" s="9"/>
-      <c r="W82" s="3">
+      <c r="W82" s="9"/>
+      <c r="X82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9104,60 +9137,60 @@
       <c r="B83" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C83" s="3">
+      <c r="D83" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="D83" s="3" t="str">
+      <c r="E83" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Steve Feddes</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="H83" s="30">
+      <c r="I83" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="K83" s="4">
+      <c r="L83" s="4">
         <v>4</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="M83" s="9"/>
-      <c r="N83" s="3" t="str">
+      <c r="N83" s="9"/>
+      <c r="O83" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Stephen</v>
       </c>
-      <c r="O83" s="9"/>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="9"/>
+      <c r="Q83" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>429</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>430</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>431</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>432</v>
       </c>
-      <c r="V83" s="9"/>
-      <c r="W83" s="3">
+      <c r="W83" s="9"/>
+      <c r="X83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9165,58 +9198,58 @@
       <c r="B84" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C84" s="3">
+      <c r="D84" s="3">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="D84" s="3" t="str">
+      <c r="E84" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Katherine Groppe</v>
       </c>
-      <c r="E84" s="3" t="str">
+      <c r="F84" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Katherine</v>
       </c>
-      <c r="H84" s="30">
+      <c r="I84" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K84" s="4">
+      <c r="L84" s="4">
         <v>5</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="M84" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M84" s="9"/>
-      <c r="N84" s="3" t="str">
+      <c r="N84" s="9"/>
+      <c r="O84" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Groppe, Katherine</v>
       </c>
-      <c r="O84" s="9"/>
-      <c r="P84" s="3" t="s">
+      <c r="P84" s="9"/>
+      <c r="Q84" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="R84" s="3">
         <v>3</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>439</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>440</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>441</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>442</v>
       </c>
-      <c r="V84" s="9"/>
-      <c r="W84" s="3">
+      <c r="W84" s="9"/>
+      <c r="X84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9224,58 +9257,58 @@
       <c r="B85" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C85" s="3">
+      <c r="D85" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D85" s="3" t="str">
+      <c r="E85" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Collin Koldoff</v>
       </c>
-      <c r="E85" s="3" t="str">
+      <c r="F85" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Collin</v>
       </c>
-      <c r="H85" s="30">
+      <c r="I85" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K85" s="4">
+      <c r="L85" s="4">
         <v>6</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="M85" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M85" s="9"/>
-      <c r="N85" s="3" t="str">
+      <c r="N85" s="9"/>
+      <c r="O85" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Koldoff, Collin</v>
       </c>
-      <c r="O85" s="9"/>
-      <c r="P85" s="3" t="s">
+      <c r="P85" s="9"/>
+      <c r="Q85" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="R85" s="3">
         <v>4</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>443</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>352</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>444</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>445</v>
       </c>
-      <c r="V85" s="9"/>
-      <c r="W85" s="3">
+      <c r="W85" s="9"/>
+      <c r="X85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9283,58 +9316,58 @@
       <c r="B86" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C86" s="3">
+      <c r="D86" s="3">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="E86" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Ryan Leiteritz</v>
       </c>
-      <c r="E86" s="3" t="str">
+      <c r="F86" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Ryan</v>
       </c>
-      <c r="H86" s="30">
+      <c r="I86" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K86" s="4">
+      <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M86" s="9"/>
-      <c r="N86" s="3" t="str">
+      <c r="N86" s="9"/>
+      <c r="O86" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Leiteritz, Ryan</v>
       </c>
-      <c r="O86" s="9"/>
-      <c r="P86" s="3" t="s">
+      <c r="P86" s="9"/>
+      <c r="Q86" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="R86" s="3">
         <v>5</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>462</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>175</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>463</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>464</v>
       </c>
-      <c r="V86" s="9"/>
-      <c r="W86" s="3">
+      <c r="W86" s="9"/>
+      <c r="X86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9342,58 +9375,58 @@
       <c r="B87" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C87" s="3">
+      <c r="D87" s="3">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="D87" s="3" t="str">
+      <c r="E87" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Jose Montes De Oca Morfin</v>
       </c>
-      <c r="E87" s="3" t="str">
+      <c r="F87" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Jose</v>
       </c>
-      <c r="H87" s="30">
+      <c r="I87" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K87" s="4">
+      <c r="L87" s="4">
         <v>2</v>
       </c>
-      <c r="L87" s="30" t="s">
+      <c r="M87" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="M87" s="9"/>
-      <c r="N87" s="3" t="str">
+      <c r="N87" s="9"/>
+      <c r="O87" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
-      <c r="O87" s="9"/>
-      <c r="P87" s="3" t="s">
+      <c r="P87" s="9"/>
+      <c r="Q87" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="R87" s="3">
         <v>6</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>453</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>450</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>454</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>455</v>
       </c>
-      <c r="V87" s="9"/>
-      <c r="W87" s="3">
+      <c r="W87" s="9"/>
+      <c r="X87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9401,58 +9434,58 @@
       <c r="B88" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C88" s="3">
+      <c r="D88" s="3">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="D88" s="3" t="str">
+      <c r="E88" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Justina Piwoni</v>
       </c>
-      <c r="E88" s="3" t="str">
+      <c r="F88" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Justina</v>
       </c>
-      <c r="H88" s="30">
+      <c r="I88" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K88" s="4">
+      <c r="L88" s="4">
         <v>3</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M88" s="9"/>
-      <c r="N88" s="3" t="str">
+      <c r="N88" s="9"/>
+      <c r="O88" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Piwoni, Justina</v>
       </c>
-      <c r="O88" s="9"/>
-      <c r="P88" s="3" t="s">
+      <c r="P88" s="9"/>
+      <c r="Q88" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="R88" s="3">
         <v>7</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>446</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>447</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>448</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>449</v>
       </c>
-      <c r="V88" s="9"/>
-      <c r="W88" s="3">
+      <c r="W88" s="9"/>
+      <c r="X88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9460,61 +9493,61 @@
       <c r="B89" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C89" s="3">
+      <c r="D89" s="3">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D89" s="3" t="str">
+      <c r="E89" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Matthew Senese</v>
       </c>
-      <c r="E89" s="3" t="str">
+      <c r="F89" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Matthew</v>
       </c>
-      <c r="H89" s="30">
+      <c r="I89" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K89" s="4">
+      <c r="L89" s="4">
         <v>4</v>
       </c>
-      <c r="L89" s="30" t="s">
+      <c r="M89" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="M89" s="9"/>
-      <c r="N89" s="3" t="str">
+      <c r="N89" s="9"/>
+      <c r="O89" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Senese, Matthew</v>
       </c>
-      <c r="O89" s="9"/>
-      <c r="P89" s="3" t="s">
+      <c r="P89" s="9"/>
+      <c r="Q89" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>456</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>152</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>457</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>458</v>
       </c>
-      <c r="V89" s="9"/>
-      <c r="W89" s="3">
+      <c r="W89" s="9"/>
+      <c r="X89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9522,107 +9555,107 @@
       <c r="B90" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C90" s="3">
+      <c r="D90" s="3">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="D90" s="3" t="str">
+      <c r="E90" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Jahi Stewart</v>
       </c>
-      <c r="E90" s="3" t="str">
+      <c r="F90" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Jahi</v>
       </c>
-      <c r="H90" s="30">
+      <c r="I90" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K90" s="4">
+      <c r="L90" s="4">
         <v>5</v>
       </c>
-      <c r="L90" s="30" t="s">
+      <c r="M90" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="M90" s="9"/>
-      <c r="N90" s="3" t="str">
+      <c r="N90" s="9"/>
+      <c r="O90" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Stewart, Jahi</v>
       </c>
-      <c r="O90" s="9"/>
-      <c r="P90" s="3" t="s">
+      <c r="P90" s="9"/>
+      <c r="Q90" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="R90" s="3">
         <v>9</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>465</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>466</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>467</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>468</v>
       </c>
-      <c r="V90" s="9"/>
-      <c r="W90" s="3">
+      <c r="W90" s="9"/>
+      <c r="X90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f t="shared" ref="A91" si="18">RIGHT(P91,9)</f>
+        <f t="shared" ref="A91" si="18">RIGHT(Q91,9)</f>
         <v>49200-001</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C91" s="3">
-        <f t="shared" ref="C91" si="19">Q91</f>
+      <c r="D91" s="3">
+        <f t="shared" ref="D91" si="19">R91</f>
         <v>0</v>
       </c>
-      <c r="D91" s="3" t="str">
-        <f t="shared" ref="D91" si="20">CONCATENATE(E91," ",R91)</f>
+      <c r="E91" s="3" t="str">
+        <f t="shared" ref="E91" si="20">CONCATENATE(F91," ",S91)</f>
         <v>Julie Dosher</v>
       </c>
-      <c r="E91" s="3" t="str">
-        <f t="shared" ref="E91" si="21">S91</f>
+      <c r="F91" s="3" t="str">
+        <f t="shared" ref="F91" si="21">T91</f>
         <v>Julie</v>
       </c>
-      <c r="K91" s="4">
+      <c r="L91" s="4">
         <v>3</v>
       </c>
-      <c r="L91" s="30" t="s">
+      <c r="M91" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="M91" s="9"/>
-      <c r="N91" s="3" t="str">
+      <c r="N91" s="9"/>
+      <c r="O91" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="O91" s="9"/>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="9"/>
+      <c r="Q91" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>433</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>434</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>435</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>436</v>
       </c>
-      <c r="V91" s="9"/>
-    </row>
-    <row r="92" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W91" s="9"/>
+    </row>
+    <row r="92" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9630,104 +9663,104 @@
       <c r="B92" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C92" s="3">
+      <c r="D92" s="3">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="D92" s="3" t="str">
+      <c r="E92" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Tyler Zenisek</v>
       </c>
-      <c r="E92" s="3" t="str">
+      <c r="F92" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Tyler</v>
       </c>
-      <c r="H92" s="30">
+      <c r="I92" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K92" s="4">
+      <c r="L92" s="4">
         <v>6</v>
       </c>
-      <c r="L92" s="30" t="s">
+      <c r="M92" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="M92" s="9"/>
-      <c r="N92" s="3" t="str">
+      <c r="N92" s="9"/>
+      <c r="O92" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Zenisek, Tyler</v>
       </c>
-      <c r="O92" s="9"/>
-      <c r="P92" s="3" t="s">
+      <c r="P92" s="9"/>
+      <c r="Q92" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="R92" s="3">
         <v>10</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>469</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>470</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>471</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>472</v>
       </c>
-      <c r="V92" s="9"/>
-      <c r="W92" s="3">
+      <c r="W92" s="9"/>
+      <c r="X92" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
       </c>
-      <c r="C93" s="3">
+      <c r="D93" s="3">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="D93" s="3" t="str">
+      <c r="E93" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Julie Dosher</v>
       </c>
-      <c r="E93" s="3" t="str">
+      <c r="F93" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Julie</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="L93" s="30" t="s">
+      <c r="M93" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="N93" s="3" t="str">
+      <c r="O93" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="P93" s="3" t="s">
+      <c r="Q93" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="R93" s="3">
         <v>11</v>
       </c>
-      <c r="R93" s="3" t="s">
+      <c r="S93" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="S93" s="3" t="s">
+      <c r="T93" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:23" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+  <autoFilter ref="A1:AE98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
         <filter val="44000-001"/>
@@ -9738,15 +9771,15 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
+    <filterColumn colId="9">
       <filters>
         <filter val="AllPassers"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO99">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP99">
     <sortCondition ref="A2:A99"/>
-    <sortCondition ref="N2:N99"/>
+    <sortCondition ref="O2:O99"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A7C5C-1DE4-694B-9556-A0320A9AA02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C392E01-C2A3-4943-8374-B9AA15D20989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43560" yWindow="29140" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6377,7 +6377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6442,7 +6442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6837,7 +6837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7244,7 +7244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8114,7 +8114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8251,7 +8251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8320,7 +8320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8520,7 +8520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8936,7 +8936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9763,7 +9763,7 @@
   <autoFilter ref="A1:AE98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9771,9 +9771,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="9">
+    <filterColumn colId="11">
       <filters>
-        <filter val="AllPassers"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C392E01-C2A3-4943-8374-B9AA15D20989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13589CF8-B242-134B-891E-C34E26050567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="35840" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6377,7 +6377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6442,7 +6442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6837,7 +6837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7244,7 +7244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8592,7 +8592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8661,7 +8661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8727,7 +8727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9001,7 +9001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9763,7 +9763,7 @@
   <autoFilter ref="A1:AE98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9771,9 +9771,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="9">
       <filters>
-        <filter val="6"/>
+        <filter val="DreamRaccons"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13589CF8-B242-134B-891E-C34E26050567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C11C3-658A-024B-B932-2213ED8B39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="35840" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="0" windowWidth="33740" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4078,7 +4078,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Angelo Fornero</v>
       </c>
@@ -4468,7 +4468,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cameron Hoying</v>
       </c>
@@ -5661,7 +5661,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E31" s="3" t="str">
+      <c r="E31" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Dominic Varchetto</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6442,7 +6442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6837,7 +6837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7244,7 +7244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7256,7 +7256,7 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E55" s="3" t="str">
+      <c r="E55" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Andrew Tolentino</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8661,7 +8661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8727,7 +8727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9001,7 +9001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9763,7 +9763,7 @@
   <autoFilter ref="A1:AE98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9771,9 +9771,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="9">
+    <filterColumn colId="11">
       <filters>
-        <filter val="DreamRaccons"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C11C3-658A-024B-B932-2213ED8B39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFFB0BA-38D1-C741-AB10-87CE14734A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="0" windowWidth="33740" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1960" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6377,7 +6377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6442,7 +6442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6837,7 +6837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7244,7 +7244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7508,7 +7508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7646,7 +7646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7910,7 +7910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7976,7 +7976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(Q66,9)</f>
         <v>24700-001</v>
@@ -8045,7 +8045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -9763,7 +9763,7 @@
   <autoFilter ref="A1:AE98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="24700-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFFB0BA-38D1-C741-AB10-87CE14734A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12034ADC-93EE-BE4D-963D-BCCC671B3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1960" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="340" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="sp-21-dropped" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AE$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AF$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sp-21-main'!$A$1:$AT$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!$A$1:$L$81</definedName>
   </definedNames>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="805">
   <si>
     <t>Last Name</t>
   </si>
@@ -2610,6 +2610,21 @@
   </si>
   <si>
     <t>QuizMaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday, December 11 from 4-6 pm </t>
+  </si>
+  <si>
+    <t>Class Project Presentation</t>
+  </si>
+  <si>
+    <t>Final Exam Time</t>
+  </si>
+  <si>
+    <t>TaDa</t>
+  </si>
+  <si>
+    <t>ToDo</t>
   </si>
 </sst>
 </file>
@@ -3234,7 +3249,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3284,6 +3299,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3647,10 +3663,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3669,19 +3685,20 @@
     <col min="12" max="12" width="7" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="4" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="7" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.83203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10" style="3" customWidth="1"/>
-    <col min="23" max="23" width="4" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="35.6640625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="31.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="4" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="7" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10" style="3" customWidth="1"/>
+    <col min="24" max="24" width="4" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3692,7 +3709,7 @@
         <v>797</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f t="shared" ref="D1:D32" si="0">R1</f>
+        <f t="shared" ref="D1:D32" si="0">S1</f>
         <v>Row</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3723,33 +3740,36 @@
         <v>459</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="33" t="s">
+        <v>801</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="10"/>
-    </row>
-    <row r="2" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A33" si="1">RIGHT(Q2,9)</f>
+        <f t="shared" ref="A2:A33" si="1">RIGHT(R2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3760,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E33" si="2">CONCATENATE(F2," ",S2)</f>
+        <f t="shared" ref="E2:E33" si="2">CONCATENATE(F2," ",T2)</f>
         <v>Beth Adelman</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3784,35 +3804,38 @@
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="3" t="str">
-        <f t="shared" ref="O2:O33" si="4">CONCATENATE(S2,", ",T2)</f>
+      <c r="O2" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P2" s="3" t="str">
+        <f t="shared" ref="P2:P33" si="4">CONCATENATE(T2,", ",U2)</f>
         <v>Adelman, Elizabeth</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="3">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3829,7 +3852,7 @@
         <v>Alan Bota</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F32" si="5">T3</f>
+        <f t="shared" ref="F3:F32" si="5">U3</f>
         <v>Alan</v>
       </c>
       <c r="G3" s="3">
@@ -3850,35 +3873,38 @@
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="3" t="str">
+      <c r="O3" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P3" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Bota, Alan</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="3">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3916,35 +3942,38 @@
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="3" t="str">
+      <c r="O4" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Bresnahan, Amelia</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="3">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3973,35 +4002,36 @@
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="9"/>
+      <c r="P5" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Didomenico, Robert</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>4</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="3">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4038,35 +4068,38 @@
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="3" t="str">
+      <c r="O6" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P6" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Faulstroh, Joshua</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>5</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="3">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4078,7 +4111,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Angelo Fornero</v>
       </c>
@@ -4104,35 +4137,38 @@
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="3" t="str">
+      <c r="O7" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P7" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Fornero, Angelo</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>6</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="3">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4144,7 +4180,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Johan Gonzalez</v>
       </c>
@@ -4170,35 +4206,38 @@
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="3" t="str">
+      <c r="O8" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P8" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Gonzalez, Johan</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="3">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4227,35 +4266,36 @@
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="3" t="str">
+      <c r="O9" s="9"/>
+      <c r="P9" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Guzman, Eric</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="3">
+      <c r="X9" s="9"/>
+      <c r="Y9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4267,7 +4307,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Cherokee Hammonds</v>
       </c>
@@ -4293,35 +4333,38 @@
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="3" t="str">
+      <c r="O10" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="P10" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hammonds, Cherokee</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="9"/>
+      <c r="R10" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="3">
+      <c r="X10" s="9"/>
+      <c r="Y10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4333,7 +4376,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Erick Hernandez</v>
       </c>
@@ -4359,35 +4402,38 @@
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="3" t="str">
+      <c r="O11" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P11" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hernandez, Erick</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="9"/>
+      <c r="R11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="3">
+      <c r="X11" s="9"/>
+      <c r="Y11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4399,7 +4445,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Cael Hiser</v>
       </c>
@@ -4428,35 +4474,38 @@
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="3" t="str">
+      <c r="O12" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P12" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hiser, Cael</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="3">
+      <c r="X12" s="9"/>
+      <c r="Y12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4468,7 +4517,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Cameron Hoying</v>
       </c>
@@ -4494,35 +4543,38 @@
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="3" t="str">
+      <c r="O13" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P13" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hoying, Cameron</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>12</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="3">
+      <c r="X13" s="9"/>
+      <c r="Y13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4534,7 +4586,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Seb Jaculbe</v>
       </c>
@@ -4559,35 +4611,38 @@
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="3" t="str">
+      <c r="O14" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P14" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Jaculbe, Sebastian</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="3">
+      <c r="X14" s="9"/>
+      <c r="Y14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4599,7 +4654,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Kelty</v>
       </c>
@@ -4625,35 +4680,38 @@
       </c>
       <c r="M15" s="30"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="3" t="str">
+      <c r="O15" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P15" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Kelty, Ryan</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="3">
+      <c r="X15" s="9"/>
+      <c r="Y15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4665,7 +4723,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Nick Krzysiak</v>
       </c>
@@ -4693,35 +4751,38 @@
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="3" t="str">
+      <c r="O16" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Krzysiak, Nicholas</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>15</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="3">
+      <c r="X16" s="9"/>
+      <c r="Y16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4733,7 +4794,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Roman Lewis</v>
       </c>
@@ -4762,35 +4823,38 @@
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="3" t="str">
+      <c r="O17" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Lewis, Roman</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="3">
+      <c r="X17" s="9"/>
+      <c r="Y17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4802,7 +4866,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Justin Meyer</v>
       </c>
@@ -4828,35 +4892,38 @@
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="3" t="str">
+      <c r="O18" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Meyer, Justin</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="3">
+      <c r="X18" s="9"/>
+      <c r="Y18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4868,7 +4935,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Hassaan Mian</v>
       </c>
@@ -4894,35 +4961,38 @@
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="3" t="str">
+      <c r="O19" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Mian, Hassaan</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>18</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="3">
+      <c r="X19" s="9"/>
+      <c r="Y19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4934,7 +5004,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="E20" s="33" t="str">
         <f t="shared" si="2"/>
         <v>John Mola</v>
       </c>
@@ -4963,35 +5033,38 @@
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="3" t="str">
+      <c r="O20" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Mola, John</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="3">
+      <c r="X20" s="9"/>
+      <c r="Y20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5003,7 +5076,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Tony Morelli</v>
       </c>
@@ -5028,35 +5101,38 @@
       </c>
       <c r="M21" s="30"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="3" t="str">
+      <c r="O21" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Morelli, Anthony</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="3">
+      <c r="X21" s="9"/>
+      <c r="Y21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5068,7 +5144,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Sadri Ozgul</v>
       </c>
@@ -5094,35 +5170,38 @@
       </c>
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="3" t="str">
+      <c r="O22" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Ozgul, Sadri</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="3">
+      <c r="X22" s="9"/>
+      <c r="Y22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5134,7 +5213,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Jordan Pohancek</v>
       </c>
@@ -5160,35 +5239,38 @@
       </c>
       <c r="M23" s="30"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="3" t="str">
+      <c r="O23" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Pohancek, Jordan</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="3">
+      <c r="X23" s="9"/>
+      <c r="Y23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5200,7 +5282,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Adam Rehus</v>
       </c>
@@ -5226,35 +5308,38 @@
       </c>
       <c r="M24" s="30"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="3" t="str">
+      <c r="O24" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rehus, Adam</v>
       </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="3">
+      <c r="X24" s="9"/>
+      <c r="Y24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5266,7 +5351,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Vinny Ringelsten</v>
       </c>
@@ -5291,35 +5376,38 @@
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="3" t="str">
+      <c r="O25" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Ringelsten, Vincent</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
         <v>24</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="3">
+      <c r="X25" s="9"/>
+      <c r="Y25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5331,7 +5419,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Eddy Rodriguez</v>
       </c>
@@ -5356,35 +5444,38 @@
       </c>
       <c r="M26" s="30"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="3" t="str">
+      <c r="O26" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rodriguez, Edward</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="3">
+      <c r="X26" s="9"/>
+      <c r="Y26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5396,7 +5487,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="E27" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Juan Rodriguez</v>
       </c>
@@ -5422,35 +5513,38 @@
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="3" t="str">
+      <c r="O27" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rodriguez, Juan</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="3">
+      <c r="X27" s="9"/>
+      <c r="Y27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5462,7 +5556,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Alanna San Luis</v>
       </c>
@@ -5490,35 +5584,38 @@
       </c>
       <c r="M28" s="30"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="3" t="str">
+      <c r="O28" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>San Luis, Alanna Marie</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28" s="3">
         <v>27</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="3">
+      <c r="X28" s="9"/>
+      <c r="Y28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5530,7 +5627,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E29" s="3" t="str">
+      <c r="E29" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Matthew Santiago</v>
       </c>
@@ -5556,35 +5653,38 @@
       </c>
       <c r="M29" s="30"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="3" t="str">
+      <c r="O29" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Santiago, Matthew</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>28</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="3">
+      <c r="X29" s="9"/>
+      <c r="Y29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5596,7 +5696,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E30" s="3" t="str">
+      <c r="E30" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Matt Sittler</v>
       </c>
@@ -5621,35 +5721,38 @@
       </c>
       <c r="M30" s="30"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="3" t="str">
+      <c r="O30" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Sittler, Matthew</v>
       </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R30" s="3">
+      <c r="S30" s="3">
         <v>29</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="3">
+      <c r="X30" s="9"/>
+      <c r="Y30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5661,7 +5764,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E31" s="25" t="str">
+      <c r="E31" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Dominic Varchetto</v>
       </c>
@@ -5687,35 +5790,38 @@
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="3" t="str">
+      <c r="O31" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Varchetto, Dominic</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="9"/>
+      <c r="R31" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="R31" s="3">
+      <c r="S31" s="3">
         <v>30</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="W31" s="9"/>
-      <c r="X31" s="3">
+      <c r="X31" s="9"/>
+      <c r="Y31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5756,35 +5862,38 @@
       </c>
       <c r="M32" s="30"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="3" t="str">
+      <c r="O32" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Abuisneineh, Sarah</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>553</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>278</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>554</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>555</v>
       </c>
-      <c r="W32" s="9"/>
-      <c r="X32" s="3">
+      <c r="X32" s="9"/>
+      <c r="Y32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5793,7 +5902,7 @@
         <v>426</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" ref="D33:D64" si="6">R33</f>
+        <f t="shared" ref="D33:D64" si="6">S33</f>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="str">
@@ -5821,37 +5930,40 @@
       </c>
       <c r="M33" s="30"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="3" t="str">
+      <c r="O33" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Alimatov, Narzulla Gafforovich</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>556</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>557</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>558</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>559</v>
       </c>
-      <c r="W33" s="9"/>
-      <c r="X33" s="3">
+      <c r="X33" s="9"/>
+      <c r="Y33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
-        <f t="shared" ref="A34:A65" si="7">RIGHT(Q34,9)</f>
+        <f t="shared" ref="A34:A65" si="7">RIGHT(R34,9)</f>
         <v>20000-003</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5862,11 +5974,11 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" ref="E34:E65" si="8">CONCATENATE(F34," ",S34)</f>
+        <f t="shared" ref="E34:E65" si="8">CONCATENATE(F34," ",T34)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" ref="F34:F65" si="9">T34</f>
+        <f t="shared" ref="F34:F65" si="9">U34</f>
         <v>Gene</v>
       </c>
       <c r="G34" s="3">
@@ -5887,35 +5999,38 @@
       </c>
       <c r="M34" s="30"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="3" t="str">
-        <f t="shared" ref="O34:O65" si="11">CONCATENATE(S34,", ",T34)</f>
+      <c r="O34" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P34" s="3" t="str">
+        <f t="shared" ref="P34:P65" si="11">CONCATENATE(T34,", ",U34)</f>
         <v>Anderson, Gene</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R34" s="3">
+      <c r="S34" s="3">
         <v>3</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>487</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>560</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>561</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>562</v>
       </c>
-      <c r="W34" s="9"/>
-      <c r="X34" s="3">
+      <c r="X34" s="9"/>
+      <c r="Y34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -5952,35 +6067,38 @@
       </c>
       <c r="M35" s="30"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="3" t="str">
+      <c r="O35" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P35" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Arenas, Luis</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>563</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>564</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>565</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>566</v>
       </c>
-      <c r="W35" s="9"/>
-      <c r="X35" s="3">
+      <c r="X35" s="9"/>
+      <c r="Y35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6017,35 +6135,38 @@
       </c>
       <c r="M36" s="30"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="3" t="str">
+      <c r="O36" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P36" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Egan, Joseph</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R36" s="3">
+      <c r="S36" s="3">
         <v>5</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>567</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>495</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>568</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>569</v>
       </c>
-      <c r="W36" s="9"/>
-      <c r="X36" s="3">
+      <c r="X36" s="9"/>
+      <c r="Y36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6086,35 +6207,38 @@
       </c>
       <c r="M37" s="30"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="3" t="str">
+      <c r="O37" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P37" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gentile, Charles</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R37" s="3">
+      <c r="S37" s="3">
         <v>6</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>570</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>571</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>572</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>573</v>
       </c>
-      <c r="W37" s="9"/>
-      <c r="X37" s="3">
+      <c r="X37" s="9"/>
+      <c r="Y37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6152,35 +6276,38 @@
       </c>
       <c r="M38" s="30"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="3" t="str">
+      <c r="O38" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P38" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gutierrez, Brandon</v>
       </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R38" s="3">
+      <c r="S38" s="3">
         <v>7</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>574</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>129</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>575</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>576</v>
       </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="3">
+      <c r="X38" s="9"/>
+      <c r="Y38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6217,35 +6344,38 @@
       </c>
       <c r="M39" s="30"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="3" t="str">
+      <c r="O39" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P39" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Ibrahim, Ahmed Ismail Mohamed Ismail</v>
       </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R39" s="3">
+      <c r="S39" s="3">
         <v>8</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>577</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>578</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>579</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>580</v>
       </c>
-      <c r="W39" s="9"/>
-      <c r="X39" s="3">
+      <c r="X39" s="9"/>
+      <c r="Y39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6262,7 +6392,7 @@
         <f t="shared" si="8"/>
         <v>Joe Janda</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="33" t="s">
         <v>768</v>
       </c>
       <c r="G40" s="3">
@@ -6283,35 +6413,38 @@
       </c>
       <c r="M40" s="30"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="3" t="str">
+      <c r="O40" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P40" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Janda, Joseph</v>
       </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R40" s="3">
+      <c r="S40" s="3">
         <v>9</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>581</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>495</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>582</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>583</v>
       </c>
-      <c r="W40" s="9"/>
-      <c r="X40" s="3">
+      <c r="X40" s="9"/>
+      <c r="Y40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6349,35 +6482,38 @@
       </c>
       <c r="M41" s="30"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="3" t="str">
+      <c r="O41" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P41" s="3" t="str">
         <f t="shared" si="11"/>
         <v>LaFontaine-Larson, Alexa Grace</v>
       </c>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="9"/>
+      <c r="R41" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>584</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>585</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>586</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>587</v>
       </c>
-      <c r="W41" s="9"/>
-      <c r="X41" s="3">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6414,35 +6550,38 @@
       </c>
       <c r="M42" s="30"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="3" t="str">
+      <c r="O42" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P42" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Mucha, Zachary</v>
       </c>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>588</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>589</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>590</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>591</v>
       </c>
-      <c r="W42" s="9"/>
-      <c r="X42" s="3">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6480,35 +6619,38 @@
       </c>
       <c r="M43" s="30"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="3" t="str">
+      <c r="O43" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P43" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Murgas, Eric</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>592</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>125</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>593</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>594</v>
       </c>
-      <c r="W43" s="9"/>
-      <c r="X43" s="3">
+      <c r="X43" s="9"/>
+      <c r="Y43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6545,35 +6687,38 @@
       </c>
       <c r="M44" s="30"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="3" t="str">
+      <c r="O44" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P44" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nazmiddinov, Rashid Khusniddinovich</v>
       </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>595</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>596</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>597</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>598</v>
       </c>
-      <c r="W44" s="9"/>
-      <c r="X44" s="3">
+      <c r="X44" s="9"/>
+      <c r="Y44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6611,35 +6756,38 @@
       </c>
       <c r="M45" s="30"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="3" t="str">
+      <c r="O45" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P45" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nguyen, Long</v>
       </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="9"/>
+      <c r="R45" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>599</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>600</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>601</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>602</v>
       </c>
-      <c r="W45" s="9"/>
-      <c r="X45" s="3">
+      <c r="X45" s="9"/>
+      <c r="Y45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6677,35 +6825,38 @@
       </c>
       <c r="M46" s="30"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="3" t="str">
+      <c r="O46" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P46" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nykaza, Natalia</v>
       </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>603</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>604</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>605</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>606</v>
       </c>
-      <c r="W46" s="9"/>
-      <c r="X46" s="3">
+      <c r="X46" s="9"/>
+      <c r="Y46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6743,35 +6894,38 @@
       </c>
       <c r="M47" s="30"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="3" t="str">
+      <c r="O47" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P47" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Ojeda, Karen</v>
       </c>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>607</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>608</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>609</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>610</v>
       </c>
-      <c r="W47" s="9"/>
-      <c r="X47" s="3">
+      <c r="X47" s="9"/>
+      <c r="Y47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6809,35 +6963,38 @@
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="3" t="str">
+      <c r="O48" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="P48" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Paugys, Nicholas</v>
       </c>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>611</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>288</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>612</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>613</v>
       </c>
-      <c r="W48" s="9"/>
-      <c r="X48" s="3">
+      <c r="X48" s="9"/>
+      <c r="Y48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6878,35 +7035,38 @@
       </c>
       <c r="M49" s="30"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="3" t="str">
+      <c r="O49" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P49" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Phillips, Lonnie</v>
       </c>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>614</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>615</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>616</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>617</v>
       </c>
-      <c r="W49" s="9"/>
-      <c r="X49" s="3">
+      <c r="X49" s="9"/>
+      <c r="Y49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6944,35 +7104,38 @@
       </c>
       <c r="M50" s="30"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="3" t="str">
+      <c r="O50" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P50" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Prieto, Mario</v>
       </c>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R50" s="3">
+      <c r="S50" s="3">
         <v>19</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>618</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>619</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>620</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>621</v>
       </c>
-      <c r="W50" s="9"/>
-      <c r="X50" s="3">
+      <c r="X50" s="9"/>
+      <c r="Y50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7010,35 +7173,38 @@
       </c>
       <c r="M51" s="30"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="3" t="str">
+      <c r="O51" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P51" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Richardson, Kaleb</v>
       </c>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="3" t="s">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R51" s="3">
+      <c r="S51" s="3">
         <v>20</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>622</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>623</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>624</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>625</v>
       </c>
-      <c r="W51" s="9"/>
-      <c r="X51" s="3">
+      <c r="X51" s="9"/>
+      <c r="Y51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7080,35 +7246,38 @@
       </c>
       <c r="M52" s="30"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="3" t="str">
+      <c r="O52" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P52" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Rodriguez, Eric</v>
       </c>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>626</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>125</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>627</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>628</v>
       </c>
-      <c r="W52" s="9"/>
-      <c r="X52" s="3">
+      <c r="X52" s="9"/>
+      <c r="Y52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7150,35 +7319,38 @@
       </c>
       <c r="M53" s="30"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="3" t="str">
+      <c r="O53" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P53" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Schnowske, Gavin</v>
       </c>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R53" s="3">
+      <c r="S53" s="3">
         <v>22</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>629</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>630</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>631</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>632</v>
       </c>
-      <c r="W53" s="9"/>
-      <c r="X53" s="3">
+      <c r="X53" s="9"/>
+      <c r="Y53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7216,35 +7388,38 @@
       </c>
       <c r="M54" s="30"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="3" t="str">
+      <c r="O54" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P54" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Siedlarczyk, Caroline</v>
       </c>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="3" t="s">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>633</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>634</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>635</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>636</v>
       </c>
-      <c r="W54" s="9"/>
-      <c r="X54" s="3">
+      <c r="X54" s="9"/>
+      <c r="Y54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7256,7 +7431,7 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E55" s="25" t="str">
+      <c r="E55" s="33" t="str">
         <f t="shared" si="8"/>
         <v>Andrew Tolentino</v>
       </c>
@@ -7282,35 +7457,38 @@
       </c>
       <c r="M55" s="30"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="3" t="str">
+      <c r="O55" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P55" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Tolentino, Andrew</v>
       </c>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="3" t="s">
+      <c r="Q55" s="9"/>
+      <c r="R55" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S55" s="3">
         <v>24</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>637</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>638</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>639</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>640</v>
       </c>
-      <c r="W55" s="9"/>
-      <c r="X55" s="3">
+      <c r="X55" s="9"/>
+      <c r="Y55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7348,35 +7526,38 @@
       </c>
       <c r="M56" s="30"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="3" t="str">
+      <c r="O56" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P56" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Woloszczuk-Mrugala, David</v>
       </c>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" s="9"/>
+      <c r="R56" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R56" s="3">
+      <c r="S56" s="3">
         <v>25</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>641</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>476</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>642</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>643</v>
       </c>
-      <c r="W56" s="9"/>
-      <c r="X56" s="3">
+      <c r="X56" s="9"/>
+      <c r="Y56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7414,35 +7595,38 @@
       </c>
       <c r="M57" s="30"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="3" t="str">
+      <c r="O57" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="P57" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Zajac, Wyatt</v>
       </c>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="3" t="s">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>644</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>645</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>646</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
         <v>647</v>
       </c>
-      <c r="W57" s="9"/>
-      <c r="X57" s="3">
+      <c r="X57" s="9"/>
+      <c r="Y57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7480,35 +7664,36 @@
       </c>
       <c r="M58" s="30"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="3" t="str">
+      <c r="O58" s="9"/>
+      <c r="P58" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Abrutis, David</v>
       </c>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>475</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>476</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>477</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" t="s">
         <v>478</v>
       </c>
-      <c r="W58" s="9"/>
-      <c r="X58" s="3">
+      <c r="X58" s="9"/>
+      <c r="Y58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7549,35 +7734,36 @@
       </c>
       <c r="M59" s="30"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="3" t="str">
+      <c r="O59" s="9"/>
+      <c r="P59" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Contreras, Mia</v>
       </c>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>526</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>527</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>528</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59" t="s">
         <v>529</v>
       </c>
-      <c r="W59" s="9"/>
-      <c r="X59" s="3">
+      <c r="X59" s="9"/>
+      <c r="Y59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7618,35 +7804,36 @@
       </c>
       <c r="M60" s="30"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="3" t="str">
+      <c r="O60" s="9"/>
+      <c r="P60" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="3" t="s">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>433</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>434</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>435</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>436</v>
       </c>
-      <c r="W60" s="9"/>
-      <c r="X60" s="3">
+      <c r="X60" s="9"/>
+      <c r="Y60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7684,35 +7871,36 @@
       </c>
       <c r="M61" s="30"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="3" t="str">
+      <c r="O61" s="9"/>
+      <c r="P61" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Frantz, Shane</v>
       </c>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>530</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>531</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>532</v>
       </c>
-      <c r="V61" t="s">
+      <c r="W61" t="s">
         <v>533</v>
       </c>
-      <c r="W61" s="9"/>
-      <c r="X61" s="3">
+      <c r="X61" s="9"/>
+      <c r="Y61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7750,35 +7938,36 @@
       </c>
       <c r="M62" s="30"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="3" t="str">
+      <c r="O62" s="9"/>
+      <c r="P62" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gallagher, Grant</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>534</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>535</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>536</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
         <v>537</v>
       </c>
-      <c r="W62" s="9"/>
-      <c r="X62" s="3">
+      <c r="X62" s="9"/>
+      <c r="Y62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7816,35 +8005,36 @@
       </c>
       <c r="M63" s="30"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="3" t="str">
+      <c r="O63" s="9"/>
+      <c r="P63" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Jaime, Michael</v>
       </c>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="3" t="s">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R63" s="3">
+      <c r="S63" s="3">
         <v>6</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>538</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>4</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>539</v>
       </c>
-      <c r="V63" t="s">
+      <c r="W63" t="s">
         <v>540</v>
       </c>
-      <c r="W63" s="9"/>
-      <c r="X63" s="3">
+      <c r="X63" s="9"/>
+      <c r="Y63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7857,7 +8047,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f>CONCATENATE(F64," ",S64)</f>
+        <f>CONCATENATE(F64," ",T64)</f>
         <v>Jose Montes De Oca Morfin</v>
       </c>
       <c r="F64" s="3" t="str">
@@ -7882,35 +8072,36 @@
       </c>
       <c r="M64" s="30"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="3" t="str">
+      <c r="O64" s="9"/>
+      <c r="P64" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="3" t="s">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R64" s="3">
+      <c r="S64" s="3">
         <v>7</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>453</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>450</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>454</v>
       </c>
-      <c r="V64" t="s">
+      <c r="W64" t="s">
         <v>455</v>
       </c>
-      <c r="W64" s="9"/>
-      <c r="X64" s="3">
+      <c r="X64" s="9"/>
+      <c r="Y64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7919,7 +8110,7 @@
         <v>426</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ref="D65:D93" si="12">R65</f>
+        <f t="shared" ref="D65:D93" si="12">S65</f>
         <v>8</v>
       </c>
       <c r="E65" s="3" t="str">
@@ -7948,37 +8139,38 @@
       </c>
       <c r="M65" s="30"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="3" t="str">
+      <c r="O65" s="9"/>
+      <c r="P65" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Patel, Rahul</v>
       </c>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="3" t="s">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R65" s="3">
+      <c r="S65" s="3">
         <v>8</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>158</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>541</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>542</v>
       </c>
-      <c r="V65" t="s">
+      <c r="W65" t="s">
         <v>543</v>
       </c>
-      <c r="W65" s="9"/>
-      <c r="X65" s="3">
+      <c r="X65" s="9"/>
+      <c r="Y65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A93" si="13">RIGHT(Q66,9)</f>
+        <f t="shared" ref="A66:A93" si="13">RIGHT(R66,9)</f>
         <v>24700-001</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7989,11 +8181,11 @@
         <v>9</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E93" si="14">CONCATENATE(F66," ",S66)</f>
+        <f t="shared" ref="E66:E93" si="14">CONCATENATE(F66," ",T66)</f>
         <v>Huzaifa Razzak</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" ref="F66:F93" si="15">T66</f>
+        <f t="shared" ref="F66:F93" si="15">U66</f>
         <v>Huzaifa</v>
       </c>
       <c r="G66" s="3">
@@ -8017,35 +8209,36 @@
       </c>
       <c r="M66" s="30"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="3" t="str">
-        <f t="shared" ref="O66:O93" si="17">CONCATENATE(S66,", ",T66)</f>
+      <c r="O66" s="9"/>
+      <c r="P66" s="3" t="str">
+        <f t="shared" ref="P66:P93" si="17">CONCATENATE(T66,", ",U66)</f>
         <v>Razzak, Huzaifa</v>
       </c>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="3" t="s">
+      <c r="Q66" s="9"/>
+      <c r="R66" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>544</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>545</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>546</v>
       </c>
-      <c r="V66" t="s">
+      <c r="W66" t="s">
         <v>547</v>
       </c>
-      <c r="W66" s="9"/>
-      <c r="X66" s="3">
+      <c r="X66" s="9"/>
+      <c r="Y66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8086,35 +8279,36 @@
       </c>
       <c r="M67" s="30"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="3" t="str">
+      <c r="O67" s="9"/>
+      <c r="P67" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Woods, Parker</v>
       </c>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="3" t="s">
+      <c r="Q67" s="9"/>
+      <c r="R67" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R67" s="3">
+      <c r="S67" s="3">
         <v>10</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>548</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>549</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>550</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
         <v>551</v>
       </c>
-      <c r="W67" s="9"/>
-      <c r="X67" s="3">
+      <c r="X67" s="9"/>
+      <c r="Y67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8155,35 +8349,36 @@
       </c>
       <c r="M68" s="30"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="3" t="str">
+      <c r="O68" s="9"/>
+      <c r="P68" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Abrutis, David</v>
       </c>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="3" t="s">
+      <c r="Q68" s="9"/>
+      <c r="R68" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R68" s="3">
+      <c r="S68" s="3">
         <v>1</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>475</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>476</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>477</v>
       </c>
-      <c r="V68" t="s">
+      <c r="W68" t="s">
         <v>478</v>
       </c>
-      <c r="W68" s="9"/>
-      <c r="X68" s="3">
+      <c r="X68" s="9"/>
+      <c r="Y68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8223,35 +8418,36 @@
       </c>
       <c r="M69" s="30"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="3" t="str">
+      <c r="O69" s="9"/>
+      <c r="P69" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Albaz, Hamzeh</v>
       </c>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="3" t="s">
+      <c r="Q69" s="9"/>
+      <c r="R69" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R69" s="3">
+      <c r="S69" s="3">
         <v>2</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>479</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>480</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>481</v>
       </c>
-      <c r="V69" t="s">
+      <c r="W69" t="s">
         <v>482</v>
       </c>
-      <c r="W69" s="9"/>
-      <c r="X69" s="3">
+      <c r="X69" s="9"/>
+      <c r="Y69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8292,35 +8488,36 @@
       </c>
       <c r="M70" s="30"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="3" t="str">
+      <c r="O70" s="9"/>
+      <c r="P70" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Alfaro, Fernando</v>
       </c>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="3" t="s">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>483</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>484</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>485</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>486</v>
       </c>
-      <c r="W70" s="9"/>
-      <c r="X70" s="3">
+      <c r="X70" s="9"/>
+      <c r="Y70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8358,35 +8555,36 @@
       </c>
       <c r="M71" s="30"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="3" t="str">
+      <c r="O71" s="9"/>
+      <c r="P71" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Anderson, Ryan</v>
       </c>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="3" t="s">
+      <c r="Q71" s="9"/>
+      <c r="R71" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R71" s="3">
+      <c r="S71" s="3">
         <v>4</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>487</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>175</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>488</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>489</v>
       </c>
-      <c r="W71" s="9"/>
-      <c r="X71" s="3">
+      <c r="X71" s="9"/>
+      <c r="Y71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8424,35 +8622,36 @@
       </c>
       <c r="M72" s="30"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="3" t="str">
+      <c r="O72" s="9"/>
+      <c r="P72" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Cherrington, Jefferson</v>
       </c>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="3" t="s">
+      <c r="Q72" s="9"/>
+      <c r="R72" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>490</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>491</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>492</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
         <v>493</v>
       </c>
-      <c r="W72" s="9"/>
-      <c r="X72" s="3">
+      <c r="X72" s="9"/>
+      <c r="Y72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8492,35 +8691,36 @@
       </c>
       <c r="M73" s="30"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="3" t="str">
+      <c r="O73" s="9"/>
+      <c r="P73" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Devito, Joseph</v>
       </c>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="3" t="s">
+      <c r="Q73" s="9"/>
+      <c r="R73" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R73" s="3">
+      <c r="S73" s="3">
         <v>6</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>494</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>495</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>496</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>497</v>
       </c>
-      <c r="W73" s="9"/>
-      <c r="X73" s="3">
+      <c r="X73" s="9"/>
+      <c r="Y73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8564,35 +8764,36 @@
       </c>
       <c r="M74" s="30"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="3" t="str">
+      <c r="O74" s="9"/>
+      <c r="P74" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Enriquez, Pablo</v>
       </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="3" t="s">
+      <c r="Q74" s="9"/>
+      <c r="R74" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R74" s="3">
+      <c r="S74" s="3">
         <v>7</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>498</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>499</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>500</v>
       </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
         <v>501</v>
       </c>
-      <c r="W74" s="9"/>
-      <c r="X74" s="3">
+      <c r="X74" s="9"/>
+      <c r="Y74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8633,35 +8834,36 @@
       </c>
       <c r="M75" s="30"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="3" t="str">
+      <c r="O75" s="9"/>
+      <c r="P75" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jaber, Adam</v>
       </c>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="3" t="s">
+      <c r="Q75" s="9"/>
+      <c r="R75" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R75" s="3">
+      <c r="S75" s="3">
         <v>8</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>502</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>109</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>503</v>
       </c>
-      <c r="V75" t="s">
+      <c r="W75" t="s">
         <v>504</v>
       </c>
-      <c r="W75" s="9"/>
-      <c r="X75" s="3">
+      <c r="X75" s="9"/>
+      <c r="Y75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8699,35 +8901,36 @@
       </c>
       <c r="M76" s="30"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="3" t="str">
+      <c r="O76" s="9"/>
+      <c r="P76" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Joseph, Jubin</v>
       </c>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="3" t="s">
+      <c r="Q76" s="9"/>
+      <c r="R76" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>495</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>505</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>506</v>
       </c>
-      <c r="V76" t="s">
+      <c r="W76" t="s">
         <v>507</v>
       </c>
-      <c r="W76" s="9"/>
-      <c r="X76" s="3">
+      <c r="X76" s="9"/>
+      <c r="Y76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8767,35 +8970,36 @@
       </c>
       <c r="M77" s="30"/>
       <c r="N77" s="9"/>
-      <c r="O77" s="3" t="str">
+      <c r="O77" s="9"/>
+      <c r="P77" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jules, Christopher</v>
       </c>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="3" t="s">
+      <c r="Q77" s="9"/>
+      <c r="R77" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R77" s="3">
+      <c r="S77" s="3">
         <v>10</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>508</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>509</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>510</v>
       </c>
-      <c r="V77" t="s">
+      <c r="W77" t="s">
         <v>511</v>
       </c>
-      <c r="W77" s="9"/>
-      <c r="X77" s="3">
+      <c r="X77" s="9"/>
+      <c r="Y77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8836,35 +9040,36 @@
       </c>
       <c r="M78" s="30"/>
       <c r="N78" s="9"/>
-      <c r="O78" s="3" t="str">
+      <c r="O78" s="9"/>
+      <c r="P78" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Kaminski, Alex</v>
       </c>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="3" t="s">
+      <c r="Q78" s="9"/>
+      <c r="R78" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R78" s="3">
+      <c r="S78" s="3">
         <v>11</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>512</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>311</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>513</v>
       </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
         <v>514</v>
       </c>
-      <c r="W78" s="9"/>
-      <c r="X78" s="3">
+      <c r="X78" s="9"/>
+      <c r="Y78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8908,35 +9113,36 @@
       </c>
       <c r="M79" s="30"/>
       <c r="N79" s="9"/>
-      <c r="O79" s="3" t="str">
+      <c r="O79" s="9"/>
+      <c r="P79" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Mackowiak, James</v>
       </c>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="3" t="s">
+      <c r="Q79" s="9"/>
+      <c r="R79" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R79" s="3">
+      <c r="S79" s="3">
         <v>12</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>515</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>427</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>516</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
         <v>517</v>
       </c>
-      <c r="W79" s="9"/>
-      <c r="X79" s="3">
+      <c r="X79" s="9"/>
+      <c r="Y79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8973,35 +9179,36 @@
       </c>
       <c r="M80" s="30"/>
       <c r="N80" s="9"/>
-      <c r="O80" s="3" t="str">
+      <c r="O80" s="9"/>
+      <c r="P80" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Smith, Benjamin</v>
       </c>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="3" t="s">
+      <c r="Q80" s="9"/>
+      <c r="R80" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R80" s="3">
+      <c r="S80" s="3">
         <v>13</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>10</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>518</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>519</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>520</v>
       </c>
-      <c r="W80" s="9"/>
-      <c r="X80" s="3">
+      <c r="X80" s="9"/>
+      <c r="Y80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9039,35 +9246,36 @@
       </c>
       <c r="M81" s="30"/>
       <c r="N81" s="9"/>
-      <c r="O81" s="3" t="str">
+      <c r="O81" s="9"/>
+      <c r="P81" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Soans, Grover</v>
       </c>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="3" t="s">
+      <c r="Q81" s="9"/>
+      <c r="R81" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>521</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>522</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>523</v>
       </c>
-      <c r="V81" t="s">
+      <c r="W81" t="s">
         <v>524</v>
       </c>
-      <c r="W81" s="9"/>
-      <c r="X81" s="3">
+      <c r="X81" s="9"/>
+      <c r="Y81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9101,35 +9309,36 @@
         <v>460</v>
       </c>
       <c r="N82" s="9"/>
-      <c r="O82" s="3" t="str">
+      <c r="O82" s="9"/>
+      <c r="P82" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Brian</v>
       </c>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="3" t="s">
+      <c r="Q82" s="9"/>
+      <c r="R82" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R82" s="3">
+      <c r="S82" s="3">
         <v>1</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>429</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>428</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>437</v>
       </c>
-      <c r="V82" t="s">
+      <c r="W82" t="s">
         <v>438</v>
       </c>
-      <c r="W82" s="9"/>
-      <c r="X82" s="3">
+      <c r="X82" s="9"/>
+      <c r="Y82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9162,35 +9371,36 @@
         <v>460</v>
       </c>
       <c r="N83" s="9"/>
-      <c r="O83" s="3" t="str">
+      <c r="O83" s="9"/>
+      <c r="P83" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Stephen</v>
       </c>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="3" t="s">
+      <c r="Q83" s="9"/>
+      <c r="R83" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>429</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>430</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>431</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
         <v>432</v>
       </c>
-      <c r="W83" s="9"/>
-      <c r="X83" s="3">
+      <c r="X83" s="9"/>
+      <c r="Y83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9221,35 +9431,38 @@
         <v>461</v>
       </c>
       <c r="N84" s="9"/>
-      <c r="O84" s="3" t="str">
+      <c r="O84" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="P84" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Groppe, Katherine</v>
       </c>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="3" t="s">
+      <c r="Q84" s="9"/>
+      <c r="R84" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R84" s="3">
+      <c r="S84" s="3">
         <v>3</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>439</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>440</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>441</v>
       </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
         <v>442</v>
       </c>
-      <c r="W84" s="9"/>
-      <c r="X84" s="3">
+      <c r="X84" s="9"/>
+      <c r="Y84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9280,35 +9493,38 @@
         <v>461</v>
       </c>
       <c r="N85" s="9"/>
-      <c r="O85" s="3" t="str">
+      <c r="O85" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="P85" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Koldoff, Collin</v>
       </c>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="3" t="s">
+      <c r="Q85" s="9"/>
+      <c r="R85" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R85" s="3">
+      <c r="S85" s="3">
         <v>4</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>443</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>352</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>444</v>
       </c>
-      <c r="V85" t="s">
+      <c r="W85" t="s">
         <v>445</v>
       </c>
-      <c r="W85" s="9"/>
-      <c r="X85" s="3">
+      <c r="X85" s="9"/>
+      <c r="Y85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9339,35 +9555,38 @@
         <v>461</v>
       </c>
       <c r="N86" s="9"/>
-      <c r="O86" s="3" t="str">
+      <c r="O86" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="P86" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Leiteritz, Ryan</v>
       </c>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="3" t="s">
+      <c r="Q86" s="9"/>
+      <c r="R86" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R86" s="3">
+      <c r="S86" s="3">
         <v>5</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>462</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>175</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>463</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
         <v>464</v>
       </c>
-      <c r="W86" s="9"/>
-      <c r="X86" s="3">
+      <c r="X86" s="9"/>
+      <c r="Y86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9398,35 +9617,36 @@
         <v>451</v>
       </c>
       <c r="N87" s="9"/>
-      <c r="O87" s="3" t="str">
+      <c r="O87" s="9"/>
+      <c r="P87" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="3" t="s">
+      <c r="Q87" s="9"/>
+      <c r="R87" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R87" s="3">
+      <c r="S87" s="3">
         <v>6</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>453</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>450</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>454</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>455</v>
       </c>
-      <c r="W87" s="9"/>
-      <c r="X87" s="3">
+      <c r="X87" s="9"/>
+      <c r="Y87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9457,35 +9677,38 @@
         <v>461</v>
       </c>
       <c r="N88" s="9"/>
-      <c r="O88" s="3" t="str">
+      <c r="O88" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="P88" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Piwoni, Justina</v>
       </c>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="3" t="s">
+      <c r="Q88" s="9"/>
+      <c r="R88" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R88" s="3">
+      <c r="S88" s="3">
         <v>7</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>446</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>447</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>448</v>
       </c>
-      <c r="V88" t="s">
+      <c r="W88" t="s">
         <v>449</v>
       </c>
-      <c r="W88" s="9"/>
-      <c r="X88" s="3">
+      <c r="X88" s="9"/>
+      <c r="Y88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9519,35 +9742,36 @@
         <v>451</v>
       </c>
       <c r="N89" s="9"/>
-      <c r="O89" s="3" t="str">
+      <c r="O89" s="9"/>
+      <c r="P89" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Senese, Matthew</v>
       </c>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="3" t="s">
+      <c r="Q89" s="9"/>
+      <c r="R89" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>456</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>152</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>457</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
         <v>458</v>
       </c>
-      <c r="W89" s="9"/>
-      <c r="X89" s="3">
+      <c r="X89" s="9"/>
+      <c r="Y89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9578,52 +9802,53 @@
         <v>451</v>
       </c>
       <c r="N90" s="9"/>
-      <c r="O90" s="3" t="str">
+      <c r="O90" s="9"/>
+      <c r="P90" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Stewart, Jahi</v>
       </c>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="3" t="s">
+      <c r="Q90" s="9"/>
+      <c r="R90" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R90" s="3">
+      <c r="S90" s="3">
         <v>9</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>465</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>466</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>467</v>
       </c>
-      <c r="V90" t="s">
+      <c r="W90" t="s">
         <v>468</v>
       </c>
-      <c r="W90" s="9"/>
-      <c r="X90" s="3">
+      <c r="X90" s="9"/>
+      <c r="Y90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f t="shared" ref="A91" si="18">RIGHT(Q91,9)</f>
+        <f t="shared" ref="A91" si="18">RIGHT(R91,9)</f>
         <v>49200-001</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ref="D91" si="19">R91</f>
+        <f t="shared" ref="D91" si="19">S91</f>
         <v>0</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" ref="E91" si="20">CONCATENATE(F91," ",S91)</f>
+        <f t="shared" ref="E91" si="20">CONCATENATE(F91," ",T91)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" ref="F91" si="21">T91</f>
+        <f t="shared" ref="F91" si="21">U91</f>
         <v>Julie</v>
       </c>
       <c r="L91" s="4">
@@ -9633,29 +9858,30 @@
         <v>451</v>
       </c>
       <c r="N91" s="9"/>
-      <c r="O91" s="3" t="str">
+      <c r="O91" s="9"/>
+      <c r="P91" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="9"/>
+      <c r="R91" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>433</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>434</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>435</v>
       </c>
-      <c r="V91" t="s">
+      <c r="W91" t="s">
         <v>436</v>
       </c>
-      <c r="W91" s="9"/>
-    </row>
-    <row r="92" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9686,35 +9912,36 @@
         <v>451</v>
       </c>
       <c r="N92" s="9"/>
-      <c r="O92" s="3" t="str">
+      <c r="O92" s="9"/>
+      <c r="P92" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Zenisek, Tyler</v>
       </c>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="3" t="s">
+      <c r="Q92" s="9"/>
+      <c r="R92" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R92" s="3">
+      <c r="S92" s="3">
         <v>10</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>469</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>470</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>471</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
         <v>472</v>
       </c>
-      <c r="W92" s="9"/>
-      <c r="X92" s="3">
+      <c r="X92" s="9"/>
+      <c r="Y92" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9737,33 +9964,45 @@
       <c r="M93" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="O93" s="3" t="str">
+      <c r="O93" s="3"/>
+      <c r="P93" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="Q93" s="3" t="s">
+      <c r="R93" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="R93" s="3">
+      <c r="S93" s="3">
         <v>11</v>
       </c>
-      <c r="S93" s="3" t="s">
+      <c r="T93" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="T93" s="3" t="s">
+      <c r="U93" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:24" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="15:15" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="15:15" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O98" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+  <autoFilter ref="A1:AF98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="24700-001"/>
+        <filter val="20000-002"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -9771,15 +10010,10 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="6"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP99">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ99">
     <sortCondition ref="A2:A99"/>
-    <sortCondition ref="O2:O99"/>
+    <sortCondition ref="P2:P99"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12034ADC-93EE-BE4D-963D-BCCC671B3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF486DB-6AD6-DE4B-92D3-83678968C0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="340" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1680" yWindow="-21080" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="804">
   <si>
     <t>Last Name</t>
   </si>
@@ -2622,9 +2622,6 @@
   </si>
   <si>
     <t>TaDa</t>
-  </si>
-  <si>
-    <t>ToDo</t>
   </si>
 </sst>
 </file>
@@ -3249,7 +3246,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3299,7 +3296,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3665,27 +3661,27 @@
   </sheetPr>
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="7" style="30" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="7" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="35.6640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" style="3" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="4" style="3" customWidth="1"/>
     <col min="18" max="18" width="17.5" style="3" customWidth="1"/>
@@ -3740,7 +3736,7 @@
         <v>459</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="1" t="s">
         <v>801</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -3767,7 +3763,7 @@
       </c>
       <c r="X1" s="10"/>
     </row>
-    <row r="2" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(R2,9)</f>
         <v>20000-002</v>
@@ -3804,7 +3800,7 @@
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P2" s="3" t="str">
@@ -3835,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3873,7 +3869,7 @@
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P3" s="3" t="str">
@@ -3904,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3942,7 +3938,7 @@
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P4" s="3" t="str">
@@ -4031,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4068,7 +4064,7 @@
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P6" s="3" t="str">
@@ -4099,7 +4095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4111,7 +4107,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="33" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Angelo Fornero</v>
       </c>
@@ -4137,7 +4133,7 @@
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P7" s="3" t="str">
@@ -4168,7 +4164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4180,7 +4176,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Johan Gonzalez</v>
       </c>
@@ -4206,7 +4202,7 @@
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P8" s="3" t="str">
@@ -4295,7 +4291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4307,7 +4303,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="33" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cherokee Hammonds</v>
       </c>
@@ -4333,8 +4329,8 @@
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="33" t="s">
-        <v>804</v>
+      <c r="O10" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4364,7 +4360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4376,7 +4372,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E11" s="33" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Erick Hernandez</v>
       </c>
@@ -4402,7 +4398,7 @@
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P11" s="3" t="str">
@@ -4433,7 +4429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4445,7 +4441,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E12" s="33" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cael Hiser</v>
       </c>
@@ -4474,7 +4470,7 @@
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P12" s="3" t="str">
@@ -4505,7 +4501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4517,7 +4513,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E13" s="33" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Cameron Hoying</v>
       </c>
@@ -4543,7 +4539,7 @@
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P13" s="3" t="str">
@@ -4574,7 +4570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4586,7 +4582,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E14" s="33" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Seb Jaculbe</v>
       </c>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P14" s="3" t="str">
@@ -4642,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4654,7 +4650,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="33" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Kelty</v>
       </c>
@@ -4680,7 +4676,7 @@
       </c>
       <c r="M15" s="30"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P15" s="3" t="str">
@@ -4711,7 +4707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4723,7 +4719,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E16" s="33" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Nick Krzysiak</v>
       </c>
@@ -4751,7 +4747,7 @@
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P16" s="3" t="str">
@@ -4782,7 +4778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4794,7 +4790,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E17" s="33" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Roman Lewis</v>
       </c>
@@ -4823,8 +4819,8 @@
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="33" t="s">
-        <v>802</v>
+      <c r="O17" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4854,7 +4850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4866,7 +4862,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E18" s="33" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Justin Meyer</v>
       </c>
@@ -4892,8 +4888,8 @@
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="33" t="s">
-        <v>802</v>
+      <c r="O18" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P18" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4923,7 +4919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4935,7 +4931,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E19" s="33" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Hassaan Mian</v>
       </c>
@@ -4961,7 +4957,7 @@
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P19" s="3" t="str">
@@ -4992,7 +4988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5004,7 +5000,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E20" s="33" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>John Mola</v>
       </c>
@@ -5033,7 +5029,7 @@
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P20" s="3" t="str">
@@ -5064,7 +5060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5076,7 +5072,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E21" s="33" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Tony Morelli</v>
       </c>
@@ -5101,7 +5097,7 @@
       </c>
       <c r="M21" s="30"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P21" s="3" t="str">
@@ -5132,7 +5128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5144,7 +5140,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E22" s="33" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sadri Ozgul</v>
       </c>
@@ -5170,7 +5166,7 @@
       </c>
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P22" s="3" t="str">
@@ -5201,7 +5197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5213,7 +5209,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E23" s="33" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Jordan Pohancek</v>
       </c>
@@ -5239,7 +5235,7 @@
       </c>
       <c r="M23" s="30"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P23" s="3" t="str">
@@ -5270,7 +5266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5282,7 +5278,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E24" s="33" t="str">
+      <c r="E24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Adam Rehus</v>
       </c>
@@ -5308,7 +5304,7 @@
       </c>
       <c r="M24" s="30"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P24" s="3" t="str">
@@ -5339,7 +5335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5351,7 +5347,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E25" s="33" t="str">
+      <c r="E25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Vinny Ringelsten</v>
       </c>
@@ -5376,7 +5372,7 @@
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="33" t="s">
+      <c r="O25" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P25" s="3" t="str">
@@ -5407,7 +5403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5419,7 +5415,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E26" s="33" t="str">
+      <c r="E26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Eddy Rodriguez</v>
       </c>
@@ -5444,7 +5440,7 @@
       </c>
       <c r="M26" s="30"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P26" s="3" t="str">
@@ -5475,7 +5471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5487,7 +5483,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E27" s="33" t="str">
+      <c r="E27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Juan Rodriguez</v>
       </c>
@@ -5513,8 +5509,8 @@
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="33" t="s">
-        <v>802</v>
+      <c r="O27" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5544,7 +5540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5556,7 +5552,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E28" s="33" t="str">
+      <c r="E28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Alanna San Luis</v>
       </c>
@@ -5584,8 +5580,8 @@
       </c>
       <c r="M28" s="30"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="33" t="s">
-        <v>802</v>
+      <c r="O28" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P28" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5615,7 +5611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5627,7 +5623,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E29" s="33" t="str">
+      <c r="E29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Matthew Santiago</v>
       </c>
@@ -5653,7 +5649,7 @@
       </c>
       <c r="M29" s="30"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P29" s="3" t="str">
@@ -5684,7 +5680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5696,7 +5692,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E30" s="33" t="str">
+      <c r="E30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Matt Sittler</v>
       </c>
@@ -5721,7 +5717,7 @@
       </c>
       <c r="M30" s="30"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P30" s="3" t="str">
@@ -5752,7 +5748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5764,7 +5760,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E31" s="33" t="str">
+      <c r="E31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dominic Varchetto</v>
       </c>
@@ -5790,7 +5786,7 @@
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P31" s="3" t="str">
@@ -5821,7 +5817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5862,7 +5858,7 @@
       </c>
       <c r="M32" s="30"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="33" t="s">
+      <c r="O32" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P32" s="3" t="str">
@@ -5930,7 +5926,7 @@
       </c>
       <c r="M33" s="30"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P33" s="3" t="str">
@@ -5999,7 +5995,7 @@
       </c>
       <c r="M34" s="30"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P34" s="3" t="str">
@@ -6067,7 +6063,7 @@
       </c>
       <c r="M35" s="30"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="33" t="s">
+      <c r="O35" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P35" s="3" t="str">
@@ -6135,7 +6131,7 @@
       </c>
       <c r="M36" s="30"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P36" s="3" t="str">
@@ -6166,7 +6162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6207,7 +6203,7 @@
       </c>
       <c r="M37" s="30"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P37" s="3" t="str">
@@ -6238,7 +6234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6276,8 +6272,8 @@
       </c>
       <c r="M38" s="30"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="33" t="s">
-        <v>802</v>
+      <c r="O38" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P38" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6344,7 +6340,7 @@
       </c>
       <c r="M39" s="30"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="33" t="s">
+      <c r="O39" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P39" s="3" t="str">
@@ -6375,7 +6371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6392,7 +6388,7 @@
         <f t="shared" si="8"/>
         <v>Joe Janda</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="3" t="s">
         <v>768</v>
       </c>
       <c r="G40" s="3">
@@ -6413,7 +6409,7 @@
       </c>
       <c r="M40" s="30"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="33" t="s">
+      <c r="O40" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P40" s="3" t="str">
@@ -6444,7 +6440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6482,7 +6478,7 @@
       </c>
       <c r="M41" s="30"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P41" s="3" t="str">
@@ -6550,7 +6546,7 @@
       </c>
       <c r="M42" s="30"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="33" t="s">
+      <c r="O42" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P42" s="3" t="str">
@@ -6619,7 +6615,7 @@
       </c>
       <c r="M43" s="30"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="33" t="s">
+      <c r="O43" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P43" s="3" t="str">
@@ -6687,7 +6683,7 @@
       </c>
       <c r="M44" s="30"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="33" t="s">
+      <c r="O44" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P44" s="3" t="str">
@@ -6756,7 +6752,7 @@
       </c>
       <c r="M45" s="30"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="33" t="s">
+      <c r="O45" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P45" s="3" t="str">
@@ -6825,7 +6821,7 @@
       </c>
       <c r="M46" s="30"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="33" t="s">
+      <c r="O46" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P46" s="3" t="str">
@@ -6894,7 +6890,7 @@
       </c>
       <c r="M47" s="30"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="33" t="s">
+      <c r="O47" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P47" s="3" t="str">
@@ -6925,7 +6921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6963,7 +6959,7 @@
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="33" t="s">
+      <c r="O48" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P48" s="3" t="str">
@@ -7035,7 +7031,7 @@
       </c>
       <c r="M49" s="30"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="33" t="s">
+      <c r="O49" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P49" s="3" t="str">
@@ -7104,7 +7100,7 @@
       </c>
       <c r="M50" s="30"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="33" t="s">
+      <c r="O50" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P50" s="3" t="str">
@@ -7173,7 +7169,7 @@
       </c>
       <c r="M51" s="30"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="33" t="s">
+      <c r="O51" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P51" s="3" t="str">
@@ -7246,7 +7242,7 @@
       </c>
       <c r="M52" s="30"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="33" t="s">
+      <c r="O52" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P52" s="3" t="str">
@@ -7277,7 +7273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7319,8 +7315,8 @@
       </c>
       <c r="M53" s="30"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="33" t="s">
-        <v>802</v>
+      <c r="O53" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="P53" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7388,7 +7384,7 @@
       </c>
       <c r="M54" s="30"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="33" t="s">
+      <c r="O54" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P54" s="3" t="str">
@@ -7431,7 +7427,7 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E55" s="33" t="str">
+      <c r="E55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Andrew Tolentino</v>
       </c>
@@ -7457,7 +7453,7 @@
       </c>
       <c r="M55" s="30"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="33" t="s">
+      <c r="O55" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P55" s="3" t="str">
@@ -7526,7 +7522,7 @@
       </c>
       <c r="M56" s="30"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="33" t="s">
+      <c r="O56" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P56" s="3" t="str">
@@ -7595,7 +7591,7 @@
       </c>
       <c r="M57" s="30"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="33" t="s">
+      <c r="O57" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P57" s="3" t="str">
@@ -9964,7 +9960,6 @@
       <c r="M93" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="O93" s="3"/>
       <c r="P93" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
@@ -9982,32 +9977,26 @@
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="15:15" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="15:15" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O98" s="3"/>
-    </row>
+    <row r="94" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AF98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
         <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Final Exam Time"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF486DB-6AD6-DE4B-92D3-83678968C0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48FB0C-3FF6-8840-A981-BAED61A6690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1680" yWindow="-21080" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="805">
   <si>
     <t>Last Name</t>
   </si>
@@ -2622,6 +2622,9 @@
   </si>
   <si>
     <t>TaDa</t>
+  </si>
+  <si>
+    <t>Monday, December 4 at 3 pm</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3249,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3296,6 +3299,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3661,18 +3665,18 @@
   </sheetPr>
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="7" style="30" customWidth="1"/>
@@ -5889,7 +5893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5957,7 +5961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(R34,9)</f>
         <v>20000-003</v>
@@ -6026,7 +6030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6094,7 +6098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6303,7 +6307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6509,7 +6513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6577,7 +6581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6646,7 +6650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6714,7 +6718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6783,7 +6787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6852,7 +6856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6990,7 +6994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7062,7 +7066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7131,7 +7135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7200,7 +7204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7346,7 +7350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7415,7 +7419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7484,7 +7488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7553,7 +7557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7622,7 +7626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7660,7 +7664,9 @@
       </c>
       <c r="M58" s="30"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P58" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Abrutis, David</v>
@@ -7689,7 +7695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7730,7 +7736,9 @@
       </c>
       <c r="M59" s="30"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P59" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Contreras, Mia</v>
@@ -7759,7 +7767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7800,7 +7808,9 @@
       </c>
       <c r="M60" s="30"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P60" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Dosher, Julie</v>
@@ -7829,7 +7839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7867,7 +7877,9 @@
       </c>
       <c r="M61" s="30"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
+      <c r="O61" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P61" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Frantz, Shane</v>
@@ -7896,7 +7908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7934,7 +7946,9 @@
       </c>
       <c r="M62" s="30"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P62" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gallagher, Grant</v>
@@ -7963,7 +7977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8001,7 +8015,9 @@
       </c>
       <c r="M63" s="30"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P63" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Jaime, Michael</v>
@@ -8030,7 +8046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8068,7 +8084,9 @@
       </c>
       <c r="M64" s="30"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
+      <c r="O64" s="33" t="s">
+        <v>804</v>
+      </c>
       <c r="P64" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Montes De Oca Morfin, Jose</v>
@@ -8097,7 +8115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8135,7 +8153,9 @@
       </c>
       <c r="M65" s="30"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
+      <c r="O65" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P65" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Patel, Rahul</v>
@@ -8164,7 +8184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(R66,9)</f>
         <v>24700-001</v>
@@ -8205,7 +8225,9 @@
       </c>
       <c r="M66" s="30"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
+      <c r="O66" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P66" s="3" t="str">
         <f t="shared" ref="P66:P93" si="17">CONCATENATE(T66,", ",U66)</f>
         <v>Razzak, Huzaifa</v>
@@ -8234,7 +8256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8275,7 +8297,9 @@
       </c>
       <c r="M67" s="30"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
+      <c r="O67" s="33" t="s">
+        <v>802</v>
+      </c>
       <c r="P67" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Woods, Parker</v>
@@ -9986,17 +10010,12 @@
   <autoFilter ref="A1:AF98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="24700-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Final Exam Time"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48FB0C-3FF6-8840-A981-BAED61A6690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E83D34-6F22-0941-82C6-949723DCA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3249,7 +3249,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3299,7 +3299,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3665,8 +3664,8 @@
   </sheetPr>
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="E57" sqref="E33:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3943,7 +3942,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="9"/>
       <c r="O4" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P4" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4207,7 +4206,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="9"/>
       <c r="O8" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5893,7 +5892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5961,7 +5960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(R34,9)</f>
         <v>20000-003</v>
@@ -6030,7 +6029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6098,7 +6097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6307,7 +6306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6513,7 +6512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6581,7 +6580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6650,7 +6649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6718,7 +6717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6787,7 +6786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6856,7 +6855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6994,7 +6993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7066,7 +7065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7135,7 +7134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7204,7 +7203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7350,7 +7349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7419,7 +7418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7488,7 +7487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7557,7 +7556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7626,7 +7625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7664,7 +7663,7 @@
       </c>
       <c r="M58" s="30"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="33" t="s">
+      <c r="O58" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P58" s="3" t="str">
@@ -7695,7 +7694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7736,7 +7735,7 @@
       </c>
       <c r="M59" s="30"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="33" t="s">
+      <c r="O59" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P59" s="3" t="str">
@@ -7767,7 +7766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7808,7 +7807,7 @@
       </c>
       <c r="M60" s="30"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="33" t="s">
+      <c r="O60" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P60" s="3" t="str">
@@ -7839,7 +7838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7877,7 +7876,7 @@
       </c>
       <c r="M61" s="30"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="33" t="s">
+      <c r="O61" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P61" s="3" t="str">
@@ -7908,7 +7907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7946,7 +7945,7 @@
       </c>
       <c r="M62" s="30"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="33" t="s">
+      <c r="O62" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P62" s="3" t="str">
@@ -7977,7 +7976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8015,7 +8014,7 @@
       </c>
       <c r="M63" s="30"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="33" t="s">
+      <c r="O63" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P63" s="3" t="str">
@@ -8046,7 +8045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8084,7 +8083,7 @@
       </c>
       <c r="M64" s="30"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="33" t="s">
+      <c r="O64" s="3" t="s">
         <v>804</v>
       </c>
       <c r="P64" s="3" t="str">
@@ -8115,7 +8114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8153,7 +8152,7 @@
       </c>
       <c r="M65" s="30"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="33" t="s">
+      <c r="O65" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P65" s="3" t="str">
@@ -8184,7 +8183,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(R66,9)</f>
         <v>24700-001</v>
@@ -8225,7 +8224,7 @@
       </c>
       <c r="M66" s="30"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="33" t="s">
+      <c r="O66" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P66" s="3" t="str">
@@ -8256,7 +8255,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8297,7 +8296,7 @@
       </c>
       <c r="M67" s="30"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="33" t="s">
+      <c r="O67" s="3" t="s">
         <v>802</v>
       </c>
       <c r="P67" s="3" t="str">
@@ -10010,12 +10009,17 @@
   <autoFilter ref="A1:AF98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="24700-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Final Exam Time"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E83D34-6F22-0941-82C6-949723DCA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EA06B8-60A2-AF4A-9BCF-5D0DA26C7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="806">
   <si>
     <t>Last Name</t>
   </si>
@@ -2625,6 +2625,9 @@
   </si>
   <si>
     <t>Monday, December 4 at 3 pm</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -2830,7 +2833,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3088,6 +3091,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3249,7 +3258,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3299,6 +3308,8 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3664,8 +3675,8 @@
   </sheetPr>
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="E57" sqref="E33:E57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5892,7 +5903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5960,7 +5971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(R34,9)</f>
         <v>20000-003</v>
@@ -6029,7 +6040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6097,7 +6108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6306,7 +6317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6512,7 +6523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6580,7 +6591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6649,7 +6660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6717,7 +6728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6786,7 +6797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6855,7 +6866,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6993,7 +7004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7065,7 +7076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7134,7 +7145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7203,7 +7214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7349,7 +7360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7418,7 +7429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7487,7 +7498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7556,7 +7567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7877,7 +7888,7 @@
       <c r="M61" s="30"/>
       <c r="N61" s="9"/>
       <c r="O61" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P61" s="3" t="str">
         <f t="shared" si="11"/>
@@ -8327,7 +8338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8368,7 +8379,9 @@
       </c>
       <c r="M68" s="30"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="O68" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P68" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Abrutis, David</v>
@@ -8397,7 +8410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8437,7 +8450,9 @@
       </c>
       <c r="M69" s="30"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="O69" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P69" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Albaz, Hamzeh</v>
@@ -8466,7 +8481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8507,7 +8522,9 @@
       </c>
       <c r="M70" s="30"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
+      <c r="O70" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P70" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Alfaro, Fernando</v>
@@ -8536,7 +8553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8574,7 +8591,9 @@
       </c>
       <c r="M71" s="30"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
+      <c r="O71" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P71" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Anderson, Ryan</v>
@@ -8603,7 +8622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8641,7 +8660,9 @@
       </c>
       <c r="M72" s="30"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P72" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Cherrington, Jefferson</v>
@@ -8670,7 +8691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8710,7 +8731,9 @@
       </c>
       <c r="M73" s="30"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
+      <c r="O73" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P73" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Devito, Joseph</v>
@@ -8739,7 +8762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8783,7 +8806,9 @@
       </c>
       <c r="M74" s="30"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
+      <c r="O74" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P74" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Enriquez, Pablo</v>
@@ -8812,7 +8837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8853,7 +8878,9 @@
       </c>
       <c r="M75" s="30"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="O75" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P75" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jaber, Adam</v>
@@ -8882,7 +8909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8920,7 +8947,9 @@
       </c>
       <c r="M76" s="30"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="O76" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P76" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Joseph, Jubin</v>
@@ -8949,7 +8978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8989,7 +9018,9 @@
       </c>
       <c r="M77" s="30"/>
       <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
+      <c r="O77" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P77" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jules, Christopher</v>
@@ -9018,7 +9049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9059,7 +9090,9 @@
       </c>
       <c r="M78" s="30"/>
       <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
+      <c r="O78" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P78" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Kaminski, Alex</v>
@@ -9088,7 +9121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9132,7 +9165,9 @@
       </c>
       <c r="M79" s="30"/>
       <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
+      <c r="O79" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P79" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Mackowiak, James</v>
@@ -9161,7 +9196,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9198,7 +9233,9 @@
       </c>
       <c r="M80" s="30"/>
       <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
+      <c r="O80" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P80" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Smith, Benjamin</v>
@@ -9227,7 +9264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9265,7 +9302,9 @@
       </c>
       <c r="M81" s="30"/>
       <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
+      <c r="O81" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P81" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Soans, Grover</v>
@@ -9294,7 +9333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9328,7 +9367,9 @@
         <v>460</v>
       </c>
       <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
+      <c r="O82" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P82" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Brian</v>
@@ -9357,7 +9398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9390,7 +9431,9 @@
         <v>460</v>
       </c>
       <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
+      <c r="O83" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P83" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Stephen</v>
@@ -9419,7 +9462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9450,7 +9493,7 @@
         <v>461</v>
       </c>
       <c r="N84" s="9"/>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="34" t="s">
         <v>800</v>
       </c>
       <c r="P84" s="3" t="str">
@@ -9481,7 +9524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9512,7 +9555,7 @@
         <v>461</v>
       </c>
       <c r="N85" s="9"/>
-      <c r="O85" s="3" t="s">
+      <c r="O85" s="34" t="s">
         <v>800</v>
       </c>
       <c r="P85" s="3" t="str">
@@ -9543,7 +9586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9574,7 +9617,7 @@
         <v>461</v>
       </c>
       <c r="N86" s="9"/>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="34" t="s">
         <v>800</v>
       </c>
       <c r="P86" s="3" t="str">
@@ -9605,7 +9648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9636,7 +9679,9 @@
         <v>451</v>
       </c>
       <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
+      <c r="O87" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P87" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Montes De Oca Morfin, Jose</v>
@@ -9665,7 +9710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9696,7 +9741,7 @@
         <v>461</v>
       </c>
       <c r="N88" s="9"/>
-      <c r="O88" s="3" t="s">
+      <c r="O88" s="34" t="s">
         <v>800</v>
       </c>
       <c r="P88" s="3" t="str">
@@ -9727,7 +9772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9761,7 +9806,9 @@
         <v>451</v>
       </c>
       <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
+      <c r="O89" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P89" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Senese, Matthew</v>
@@ -9790,7 +9837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9821,7 +9868,9 @@
         <v>451</v>
       </c>
       <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
+      <c r="O90" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P90" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Stewart, Jahi</v>
@@ -9850,7 +9899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="18">RIGHT(R91,9)</f>
         <v>49200-001</v>
@@ -9877,7 +9926,9 @@
         <v>451</v>
       </c>
       <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
+      <c r="O91" s="34" t="s">
+        <v>800</v>
+      </c>
       <c r="P91" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
@@ -9900,7 +9951,7 @@
       </c>
       <c r="X91" s="9"/>
     </row>
-    <row r="92" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9931,7 +9982,9 @@
         <v>451</v>
       </c>
       <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
+      <c r="O92" s="33" t="s">
+        <v>805</v>
+      </c>
       <c r="P92" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Zenisek, Tyler</v>
@@ -10009,17 +10062,13 @@
   <autoFilter ref="A1:AF98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Final Exam Time"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EA06B8-60A2-AF4A-9BCF-5D0DA26C7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179F136-0C65-B645-9902-54258DF00138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="sp-21-dropped" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AF$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fa-21'!$A$1:$AH$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sp-21-main'!$A$1:$AT$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'fa-21'!$A$1:$L$81</definedName>
   </definedNames>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="816">
   <si>
     <t>Last Name</t>
   </si>
@@ -2628,6 +2628,36 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Proposal (2)</t>
+  </si>
+  <si>
+    <t>Requirements (10/10/10/4)</t>
+  </si>
+  <si>
+    <t>10/10/10/4</t>
+  </si>
+  <si>
+    <t>10/10/10/4 (plus)</t>
+  </si>
+  <si>
+    <t>10/10/8-10/4 (maybe)</t>
+  </si>
+  <si>
+    <t>10/10/10/4 (wow)</t>
+  </si>
+  <si>
+    <t>10/8/8/4 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/10/10/4 </t>
+  </si>
+  <si>
+    <t>10/10/10/4 (oh my!)</t>
+  </si>
+  <si>
+    <t>10/10/10/4 (wow!)</t>
   </si>
 </sst>
 </file>
@@ -3308,8 +3338,8 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3673,17 +3703,17 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68:O91"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
@@ -3693,22 +3723,24 @@
     <col min="10" max="10" width="17.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="7" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="35.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="3" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="4" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="7" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10" style="3" customWidth="1"/>
-    <col min="24" max="24" width="4" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="3"/>
+    <col min="17" max="17" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.5" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="10" style="3" customWidth="1"/>
+    <col min="26" max="26" width="4" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3751,7 @@
         <v>797</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f t="shared" ref="D1:D32" si="0">S1</f>
+        <f t="shared" ref="D1:D32" si="0">U1</f>
         <v>Row</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3756,30 +3788,36 @@
       <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="R1" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="S1" s="10"/>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A33" si="1">RIGHT(R2,9)</f>
+        <f t="shared" ref="A2:A33" si="1">RIGHT(T2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3790,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E33" si="2">CONCATENATE(F2," ",T2)</f>
+        <f t="shared" ref="E2:E33" si="2">CONCATENATE(F2," ",V2)</f>
         <v>Beth Adelman</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3818,34 +3856,34 @@
         <v>802</v>
       </c>
       <c r="P2" s="3" t="str">
-        <f t="shared" ref="P2:P33" si="4">CONCATENATE(T2,", ",U2)</f>
+        <f t="shared" ref="P2:P33" si="4">CONCATENATE(V2,", ",W2)</f>
         <v>Adelman, Elizabeth</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S2" s="3">
+      <c r="U2" s="3">
         <v>1</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="3">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3862,7 +3900,7 @@
         <v>Alan Bota</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F32" si="5">U3</f>
+        <f t="shared" ref="F3:F32" si="5">W3</f>
         <v>Alan</v>
       </c>
       <c r="G3" s="3">
@@ -3890,31 +3928,31 @@
         <f t="shared" si="4"/>
         <v>Bota, Alan</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S3" s="3">
+      <c r="U3" s="3">
         <v>2</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="3">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -3959,31 +3997,34 @@
         <f t="shared" si="4"/>
         <v>Bresnahan, Amelia</v>
       </c>
-      <c r="Q4" s="9"/>
       <c r="R4" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S4" s="3">
+      <c r="U4" s="3">
         <v>3</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="3">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4017,31 +4058,31 @@
         <f t="shared" si="4"/>
         <v>Didomenico, Robert</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="9"/>
+      <c r="T5" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>4</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="3">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4085,31 +4126,31 @@
         <f t="shared" si="4"/>
         <v>Faulstroh, Joshua</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="9"/>
+      <c r="T6" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>5</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="3">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4154,31 +4195,31 @@
         <f t="shared" si="4"/>
         <v>Fornero, Angelo</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="9"/>
+      <c r="T7" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>6</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="3">
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4223,31 +4264,34 @@
         <f t="shared" si="4"/>
         <v>Gonzalez, Johan</v>
       </c>
-      <c r="Q8" s="9"/>
       <c r="R8" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="3">
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4281,31 +4325,31 @@
         <f t="shared" si="4"/>
         <v>Guzman, Eric</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="9"/>
+      <c r="T9" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="3">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4344,37 +4388,38 @@
       <c r="M10" s="30"/>
       <c r="N10" s="9"/>
       <c r="O10" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Hammonds, Cherokee</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="12"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="3">
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4419,31 +4464,31 @@
         <f t="shared" si="4"/>
         <v>Hernandez, Erick</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="9"/>
+      <c r="T11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>10</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="3">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4491,31 +4536,31 @@
         <f t="shared" si="4"/>
         <v>Hiser, Cael</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="9"/>
+      <c r="T12" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="3">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4560,31 +4605,31 @@
         <f t="shared" si="4"/>
         <v>Hoying, Cameron</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S13" s="3">
+      <c r="U13" s="3">
         <v>12</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="3">
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4628,31 +4673,34 @@
         <f t="shared" si="4"/>
         <v>Jaculbe, Sebastian</v>
       </c>
-      <c r="Q14" s="9"/>
       <c r="R14" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>13</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="3">
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4697,31 +4745,31 @@
         <f t="shared" si="4"/>
         <v>Kelty, Ryan</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>14</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="3">
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4768,31 +4816,31 @@
         <f t="shared" si="4"/>
         <v>Krzysiak, Nicholas</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="9"/>
+      <c r="T16" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S16" s="3">
+      <c r="U16" s="3">
         <v>15</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="3">
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4840,31 +4888,34 @@
         <f t="shared" si="4"/>
         <v>Lewis, Roman</v>
       </c>
-      <c r="Q17" s="9"/>
       <c r="R17" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>16</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="3">
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4909,31 +4960,34 @@
         <f t="shared" si="4"/>
         <v>Meyer, Justin</v>
       </c>
-      <c r="Q18" s="9"/>
       <c r="R18" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>17</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="3">
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4978,31 +5032,31 @@
         <f t="shared" si="4"/>
         <v>Mian, Hassaan</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S19" s="3">
+      <c r="U19" s="3">
         <v>18</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="3">
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5050,31 +5104,34 @@
         <f t="shared" si="4"/>
         <v>Mola, John</v>
       </c>
-      <c r="Q20" s="9"/>
       <c r="R20" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>19</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="3">
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5118,31 +5175,31 @@
         <f t="shared" si="4"/>
         <v>Morelli, Anthony</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="9"/>
+      <c r="T21" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>20</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="3">
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5181,37 +5238,37 @@
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
       <c r="O22" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Ozgul, Sadri</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="9"/>
+      <c r="T22" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>21</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="3">
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5256,31 +5313,31 @@
         <f t="shared" si="4"/>
         <v>Pohancek, Jordan</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="9"/>
+      <c r="T23" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>22</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="3">
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5325,31 +5382,31 @@
         <f t="shared" si="4"/>
         <v>Rehus, Adam</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="9"/>
+      <c r="T24" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="3">
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5393,31 +5450,31 @@
         <f t="shared" si="4"/>
         <v>Ringelsten, Vincent</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="9"/>
+      <c r="T25" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S25" s="3">
+      <c r="U25" s="3">
         <v>24</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="3">
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5461,31 +5518,31 @@
         <f t="shared" si="4"/>
         <v>Rodriguez, Edward</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="9"/>
+      <c r="T26" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>25</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="3">
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5530,31 +5587,34 @@
         <f t="shared" si="4"/>
         <v>Rodriguez, Juan</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>26</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="3">
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5601,31 +5661,34 @@
         <f t="shared" si="4"/>
         <v>San Luis, Alanna Marie</v>
       </c>
-      <c r="Q28" s="9"/>
       <c r="R28" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S28" s="3">
+      <c r="U28" s="3">
         <v>27</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="3">
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5664,37 +5727,40 @@
       <c r="M29" s="30"/>
       <c r="N29" s="9"/>
       <c r="O29" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Santiago, Matthew</v>
       </c>
-      <c r="Q29" s="9"/>
       <c r="R29" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>28</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="3">
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5738,31 +5804,31 @@
         <f t="shared" si="4"/>
         <v>Sittler, Matthew</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="9"/>
+      <c r="T30" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S30" s="3">
+      <c r="U30" s="3">
         <v>29</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="Y30" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="3">
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5807,31 +5873,31 @@
         <f t="shared" si="4"/>
         <v>Varchetto, Dominic</v>
       </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="9"/>
+      <c r="T31" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S31" s="3">
+      <c r="U31" s="3">
         <v>30</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="3">
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5879,31 +5945,34 @@
         <f t="shared" si="4"/>
         <v>Abuisneineh, Sarah</v>
       </c>
-      <c r="Q32" s="9"/>
       <c r="R32" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1</v>
       </c>
-      <c r="T32" t="s">
+      <c r="V32" t="s">
         <v>553</v>
       </c>
-      <c r="U32" t="s">
+      <c r="W32" t="s">
         <v>278</v>
       </c>
-      <c r="V32" t="s">
+      <c r="X32" t="s">
         <v>554</v>
       </c>
-      <c r="W32" t="s">
+      <c r="Y32" t="s">
         <v>555</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="3">
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5912,7 +5981,7 @@
         <v>426</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" ref="D33:D64" si="6">S33</f>
+        <f t="shared" ref="D33:D64" si="6">U33</f>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="str">
@@ -5947,33 +6016,33 @@
         <f t="shared" si="4"/>
         <v>Alimatov, Narzulla Gafforovich</v>
       </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="9"/>
+      <c r="T33" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2</v>
       </c>
-      <c r="T33" t="s">
+      <c r="V33" t="s">
         <v>556</v>
       </c>
-      <c r="U33" t="s">
+      <c r="W33" t="s">
         <v>557</v>
       </c>
-      <c r="V33" t="s">
+      <c r="X33" t="s">
         <v>558</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
         <v>559</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="3">
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
-        <f t="shared" ref="A34:A65" si="7">RIGHT(R34,9)</f>
+        <f t="shared" ref="A34:A65" si="7">RIGHT(T34,9)</f>
         <v>20000-003</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5984,11 +6053,11 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" ref="E34:E65" si="8">CONCATENATE(F34," ",T34)</f>
+        <f t="shared" ref="E34:E65" si="8">CONCATENATE(F34," ",V34)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" ref="F34:F65" si="9">U34</f>
+        <f t="shared" ref="F34:F65" si="9">W34</f>
         <v>Gene</v>
       </c>
       <c r="G34" s="3">
@@ -6013,34 +6082,34 @@
         <v>802</v>
       </c>
       <c r="P34" s="3" t="str">
-        <f t="shared" ref="P34:P65" si="11">CONCATENATE(T34,", ",U34)</f>
+        <f t="shared" ref="P34:P65" si="11">CONCATENATE(V34,", ",W34)</f>
         <v>Anderson, Gene</v>
       </c>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="9"/>
+      <c r="T34" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S34" s="3">
+      <c r="U34" s="3">
         <v>3</v>
       </c>
-      <c r="T34" t="s">
+      <c r="V34" t="s">
         <v>487</v>
       </c>
-      <c r="U34" t="s">
+      <c r="W34" t="s">
         <v>560</v>
       </c>
-      <c r="V34" t="s">
+      <c r="X34" t="s">
         <v>561</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Y34" t="s">
         <v>562</v>
       </c>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="3">
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6084,31 +6153,31 @@
         <f t="shared" si="11"/>
         <v>Arenas, Luis</v>
       </c>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="9"/>
+      <c r="T35" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4</v>
       </c>
-      <c r="T35" t="s">
+      <c r="V35" t="s">
         <v>563</v>
       </c>
-      <c r="U35" t="s">
+      <c r="W35" t="s">
         <v>564</v>
       </c>
-      <c r="V35" t="s">
+      <c r="X35" t="s">
         <v>565</v>
       </c>
-      <c r="W35" t="s">
+      <c r="Y35" t="s">
         <v>566</v>
       </c>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="3">
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6152,31 +6221,31 @@
         <f t="shared" si="11"/>
         <v>Egan, Joseph</v>
       </c>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="9"/>
+      <c r="T36" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S36" s="3">
+      <c r="U36" s="3">
         <v>5</v>
       </c>
-      <c r="T36" t="s">
+      <c r="V36" t="s">
         <v>567</v>
       </c>
-      <c r="U36" t="s">
+      <c r="W36" t="s">
         <v>495</v>
       </c>
-      <c r="V36" t="s">
+      <c r="X36" t="s">
         <v>568</v>
       </c>
-      <c r="W36" t="s">
+      <c r="Y36" t="s">
         <v>569</v>
       </c>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="3">
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6224,31 +6293,34 @@
         <f t="shared" si="11"/>
         <v>Gentile, Charles</v>
       </c>
-      <c r="Q37" s="9"/>
       <c r="R37" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S37" s="3">
+      <c r="U37" s="3">
         <v>6</v>
       </c>
-      <c r="T37" t="s">
+      <c r="V37" t="s">
         <v>570</v>
       </c>
-      <c r="U37" t="s">
+      <c r="W37" t="s">
         <v>571</v>
       </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>572</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Y37" t="s">
         <v>573</v>
       </c>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="3">
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6293,31 +6365,34 @@
         <f t="shared" si="11"/>
         <v>Gutierrez, Brandon</v>
       </c>
-      <c r="Q38" s="9"/>
       <c r="R38" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S38" s="3">
+      <c r="U38" s="3">
         <v>7</v>
       </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>574</v>
       </c>
-      <c r="U38" t="s">
+      <c r="W38" t="s">
         <v>129</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>575</v>
       </c>
-      <c r="W38" t="s">
+      <c r="Y38" t="s">
         <v>576</v>
       </c>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="3">
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6361,31 +6436,31 @@
         <f t="shared" si="11"/>
         <v>Ibrahim, Ahmed Ismail Mohamed Ismail</v>
       </c>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="9"/>
+      <c r="T39" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S39" s="3">
+      <c r="U39" s="3">
         <v>8</v>
       </c>
-      <c r="T39" t="s">
+      <c r="V39" t="s">
         <v>577</v>
       </c>
-      <c r="U39" t="s">
+      <c r="W39" t="s">
         <v>578</v>
       </c>
-      <c r="V39" t="s">
+      <c r="X39" t="s">
         <v>579</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Y39" t="s">
         <v>580</v>
       </c>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="3">
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6430,31 +6505,34 @@
         <f t="shared" si="11"/>
         <v>Janda, Joseph</v>
       </c>
-      <c r="Q40" s="9"/>
       <c r="R40" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S40" s="3">
+      <c r="U40" s="3">
         <v>9</v>
       </c>
-      <c r="T40" t="s">
+      <c r="V40" t="s">
         <v>581</v>
       </c>
-      <c r="U40" t="s">
+      <c r="W40" t="s">
         <v>495</v>
       </c>
-      <c r="V40" t="s">
+      <c r="X40" t="s">
         <v>582</v>
       </c>
-      <c r="W40" t="s">
+      <c r="Y40" t="s">
         <v>583</v>
       </c>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="3">
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6499,31 +6577,34 @@
         <f t="shared" si="11"/>
         <v>LaFontaine-Larson, Alexa Grace</v>
       </c>
-      <c r="Q41" s="9"/>
       <c r="R41" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10</v>
       </c>
-      <c r="T41" t="s">
+      <c r="V41" t="s">
         <v>584</v>
       </c>
-      <c r="U41" t="s">
+      <c r="W41" t="s">
         <v>585</v>
       </c>
-      <c r="V41" t="s">
+      <c r="X41" t="s">
         <v>586</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Y41" t="s">
         <v>587</v>
       </c>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="3">
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6567,31 +6648,31 @@
         <f t="shared" si="11"/>
         <v>Mucha, Zachary</v>
       </c>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="9"/>
+      <c r="T42" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>11</v>
       </c>
-      <c r="T42" t="s">
+      <c r="V42" t="s">
         <v>588</v>
       </c>
-      <c r="U42" t="s">
+      <c r="W42" t="s">
         <v>589</v>
       </c>
-      <c r="V42" t="s">
+      <c r="X42" t="s">
         <v>590</v>
       </c>
-      <c r="W42" t="s">
+      <c r="Y42" t="s">
         <v>591</v>
       </c>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="3">
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6636,31 +6717,31 @@
         <f t="shared" si="11"/>
         <v>Murgas, Eric</v>
       </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="9"/>
+      <c r="T43" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12</v>
       </c>
-      <c r="T43" t="s">
+      <c r="V43" t="s">
         <v>592</v>
       </c>
-      <c r="U43" t="s">
+      <c r="W43" t="s">
         <v>125</v>
       </c>
-      <c r="V43" t="s">
+      <c r="X43" t="s">
         <v>593</v>
       </c>
-      <c r="W43" t="s">
+      <c r="Y43" t="s">
         <v>594</v>
       </c>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="3">
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6704,31 +6785,31 @@
         <f t="shared" si="11"/>
         <v>Nazmiddinov, Rashid Khusniddinovich</v>
       </c>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="9"/>
+      <c r="T44" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>13</v>
       </c>
-      <c r="T44" t="s">
+      <c r="V44" t="s">
         <v>595</v>
       </c>
-      <c r="U44" t="s">
+      <c r="W44" t="s">
         <v>596</v>
       </c>
-      <c r="V44" t="s">
+      <c r="X44" t="s">
         <v>597</v>
       </c>
-      <c r="W44" t="s">
+      <c r="Y44" t="s">
         <v>598</v>
       </c>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="3">
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6773,31 +6854,31 @@
         <f t="shared" si="11"/>
         <v>Nguyen, Long</v>
       </c>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="9"/>
+      <c r="T45" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>14</v>
       </c>
-      <c r="T45" t="s">
+      <c r="V45" t="s">
         <v>599</v>
       </c>
-      <c r="U45" t="s">
+      <c r="W45" t="s">
         <v>600</v>
       </c>
-      <c r="V45" t="s">
+      <c r="X45" t="s">
         <v>601</v>
       </c>
-      <c r="W45" t="s">
+      <c r="Y45" t="s">
         <v>602</v>
       </c>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="3">
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6842,31 +6923,31 @@
         <f t="shared" si="11"/>
         <v>Nykaza, Natalia</v>
       </c>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="9"/>
+      <c r="T46" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15</v>
       </c>
-      <c r="T46" t="s">
+      <c r="V46" t="s">
         <v>603</v>
       </c>
-      <c r="U46" t="s">
+      <c r="W46" t="s">
         <v>604</v>
       </c>
-      <c r="V46" t="s">
+      <c r="X46" t="s">
         <v>605</v>
       </c>
-      <c r="W46" t="s">
+      <c r="Y46" t="s">
         <v>606</v>
       </c>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="3">
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6911,31 +6992,31 @@
         <f t="shared" si="11"/>
         <v>Ojeda, Karen</v>
       </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="9"/>
+      <c r="T47" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>16</v>
       </c>
-      <c r="T47" t="s">
+      <c r="V47" t="s">
         <v>607</v>
       </c>
-      <c r="U47" t="s">
+      <c r="W47" t="s">
         <v>608</v>
       </c>
-      <c r="V47" t="s">
+      <c r="X47" t="s">
         <v>609</v>
       </c>
-      <c r="W47" t="s">
+      <c r="Y47" t="s">
         <v>610</v>
       </c>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="3">
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6980,31 +7061,34 @@
         <f t="shared" si="11"/>
         <v>Paugys, Nicholas</v>
       </c>
-      <c r="Q48" s="9"/>
       <c r="R48" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="S48" s="9"/>
+      <c r="T48" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>17</v>
       </c>
-      <c r="T48" t="s">
+      <c r="V48" t="s">
         <v>611</v>
       </c>
-      <c r="U48" t="s">
+      <c r="W48" t="s">
         <v>288</v>
       </c>
-      <c r="V48" t="s">
+      <c r="X48" t="s">
         <v>612</v>
       </c>
-      <c r="W48" t="s">
+      <c r="Y48" t="s">
         <v>613</v>
       </c>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="3">
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7052,31 +7136,31 @@
         <f t="shared" si="11"/>
         <v>Phillips, Lonnie</v>
       </c>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="9"/>
+      <c r="T49" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>18</v>
       </c>
-      <c r="T49" t="s">
+      <c r="V49" t="s">
         <v>614</v>
       </c>
-      <c r="U49" t="s">
+      <c r="W49" t="s">
         <v>615</v>
       </c>
-      <c r="V49" t="s">
+      <c r="X49" t="s">
         <v>616</v>
       </c>
-      <c r="W49" t="s">
+      <c r="Y49" t="s">
         <v>617</v>
       </c>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="3">
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7121,31 +7205,31 @@
         <f t="shared" si="11"/>
         <v>Prieto, Mario</v>
       </c>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="9"/>
+      <c r="T50" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S50" s="3">
+      <c r="U50" s="3">
         <v>19</v>
       </c>
-      <c r="T50" t="s">
+      <c r="V50" t="s">
         <v>618</v>
       </c>
-      <c r="U50" t="s">
+      <c r="W50" t="s">
         <v>619</v>
       </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
         <v>620</v>
       </c>
-      <c r="W50" t="s">
+      <c r="Y50" t="s">
         <v>621</v>
       </c>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="3">
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7190,31 +7274,31 @@
         <f t="shared" si="11"/>
         <v>Richardson, Kaleb</v>
       </c>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="9"/>
+      <c r="T51" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S51" s="3">
+      <c r="U51" s="3">
         <v>20</v>
       </c>
-      <c r="T51" t="s">
+      <c r="V51" t="s">
         <v>622</v>
       </c>
-      <c r="U51" t="s">
+      <c r="W51" t="s">
         <v>623</v>
       </c>
-      <c r="V51" t="s">
+      <c r="X51" t="s">
         <v>624</v>
       </c>
-      <c r="W51" t="s">
+      <c r="Y51" t="s">
         <v>625</v>
       </c>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="3">
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7263,31 +7347,31 @@
         <f t="shared" si="11"/>
         <v>Rodriguez, Eric</v>
       </c>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="9"/>
+      <c r="T52" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>21</v>
       </c>
-      <c r="T52" t="s">
+      <c r="V52" t="s">
         <v>626</v>
       </c>
-      <c r="U52" t="s">
+      <c r="W52" t="s">
         <v>125</v>
       </c>
-      <c r="V52" t="s">
+      <c r="X52" t="s">
         <v>627</v>
       </c>
-      <c r="W52" t="s">
+      <c r="Y52" t="s">
         <v>628</v>
       </c>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="3">
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7336,31 +7420,34 @@
         <f t="shared" si="11"/>
         <v>Schnowske, Gavin</v>
       </c>
-      <c r="Q53" s="9"/>
       <c r="R53" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S53" s="3">
+      <c r="U53" s="3">
         <v>22</v>
       </c>
-      <c r="T53" t="s">
+      <c r="V53" t="s">
         <v>629</v>
       </c>
-      <c r="U53" t="s">
+      <c r="W53" t="s">
         <v>630</v>
       </c>
-      <c r="V53" t="s">
+      <c r="X53" t="s">
         <v>631</v>
       </c>
-      <c r="W53" t="s">
+      <c r="Y53" t="s">
         <v>632</v>
       </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="3">
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7405,31 +7492,31 @@
         <f t="shared" si="11"/>
         <v>Siedlarczyk, Caroline</v>
       </c>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="3" t="s">
+      <c r="S54" s="9"/>
+      <c r="T54" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>23</v>
       </c>
-      <c r="T54" t="s">
+      <c r="V54" t="s">
         <v>633</v>
       </c>
-      <c r="U54" t="s">
+      <c r="W54" t="s">
         <v>634</v>
       </c>
-      <c r="V54" t="s">
+      <c r="X54" t="s">
         <v>635</v>
       </c>
-      <c r="W54" t="s">
+      <c r="Y54" t="s">
         <v>636</v>
       </c>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="3">
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7474,31 +7561,31 @@
         <f t="shared" si="11"/>
         <v>Tolentino, Andrew</v>
       </c>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="3" t="s">
+      <c r="S55" s="9"/>
+      <c r="T55" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S55" s="3">
+      <c r="U55" s="3">
         <v>24</v>
       </c>
-      <c r="T55" t="s">
+      <c r="V55" t="s">
         <v>637</v>
       </c>
-      <c r="U55" t="s">
+      <c r="W55" t="s">
         <v>638</v>
       </c>
-      <c r="V55" t="s">
+      <c r="X55" t="s">
         <v>639</v>
       </c>
-      <c r="W55" t="s">
+      <c r="Y55" t="s">
         <v>640</v>
       </c>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="3">
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7543,31 +7630,31 @@
         <f t="shared" si="11"/>
         <v>Woloszczuk-Mrugala, David</v>
       </c>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="3" t="s">
+      <c r="S56" s="9"/>
+      <c r="T56" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S56" s="3">
+      <c r="U56" s="3">
         <v>25</v>
       </c>
-      <c r="T56" t="s">
+      <c r="V56" t="s">
         <v>641</v>
       </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
         <v>476</v>
       </c>
-      <c r="V56" t="s">
+      <c r="X56" t="s">
         <v>642</v>
       </c>
-      <c r="W56" t="s">
+      <c r="Y56" t="s">
         <v>643</v>
       </c>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="3">
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7612,31 +7699,31 @@
         <f t="shared" si="11"/>
         <v>Zajac, Wyatt</v>
       </c>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="9"/>
+      <c r="T57" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>26</v>
       </c>
-      <c r="T57" t="s">
+      <c r="V57" t="s">
         <v>644</v>
       </c>
-      <c r="U57" t="s">
+      <c r="W57" t="s">
         <v>645</v>
       </c>
-      <c r="V57" t="s">
+      <c r="X57" t="s">
         <v>646</v>
       </c>
-      <c r="W57" t="s">
+      <c r="Y57" t="s">
         <v>647</v>
       </c>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="3">
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7681,31 +7768,31 @@
         <f t="shared" si="11"/>
         <v>Abrutis, David</v>
       </c>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="9"/>
+      <c r="T58" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1</v>
       </c>
-      <c r="T58" t="s">
+      <c r="V58" t="s">
         <v>475</v>
       </c>
-      <c r="U58" t="s">
+      <c r="W58" t="s">
         <v>476</v>
       </c>
-      <c r="V58" t="s">
+      <c r="X58" t="s">
         <v>477</v>
       </c>
-      <c r="W58" t="s">
+      <c r="Y58" t="s">
         <v>478</v>
       </c>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="3">
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7753,31 +7840,31 @@
         <f t="shared" si="11"/>
         <v>Contreras, Mia</v>
       </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="3" t="s">
+      <c r="S59" s="9"/>
+      <c r="T59" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2</v>
       </c>
-      <c r="T59" t="s">
+      <c r="V59" t="s">
         <v>526</v>
       </c>
-      <c r="U59" t="s">
+      <c r="W59" t="s">
         <v>527</v>
       </c>
-      <c r="V59" t="s">
+      <c r="X59" t="s">
         <v>528</v>
       </c>
-      <c r="W59" t="s">
+      <c r="Y59" t="s">
         <v>529</v>
       </c>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="3">
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7825,31 +7912,31 @@
         <f t="shared" si="11"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="3" t="s">
+      <c r="S60" s="9"/>
+      <c r="T60" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3</v>
       </c>
-      <c r="T60" t="s">
+      <c r="V60" t="s">
         <v>433</v>
       </c>
-      <c r="U60" t="s">
+      <c r="W60" t="s">
         <v>434</v>
       </c>
-      <c r="V60" t="s">
+      <c r="X60" t="s">
         <v>435</v>
       </c>
-      <c r="W60" t="s">
+      <c r="Y60" t="s">
         <v>436</v>
       </c>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="3">
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7894,31 +7981,31 @@
         <f t="shared" si="11"/>
         <v>Frantz, Shane</v>
       </c>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="3" t="s">
+      <c r="S61" s="9"/>
+      <c r="T61" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4</v>
       </c>
-      <c r="T61" t="s">
+      <c r="V61" t="s">
         <v>530</v>
       </c>
-      <c r="U61" t="s">
+      <c r="W61" t="s">
         <v>531</v>
       </c>
-      <c r="V61" t="s">
+      <c r="X61" t="s">
         <v>532</v>
       </c>
-      <c r="W61" t="s">
+      <c r="Y61" t="s">
         <v>533</v>
       </c>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="3">
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7963,31 +8050,31 @@
         <f t="shared" si="11"/>
         <v>Gallagher, Grant</v>
       </c>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="3" t="s">
+      <c r="S62" s="9"/>
+      <c r="T62" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>5</v>
       </c>
-      <c r="T62" t="s">
+      <c r="V62" t="s">
         <v>534</v>
       </c>
-      <c r="U62" t="s">
+      <c r="W62" t="s">
         <v>535</v>
       </c>
-      <c r="V62" t="s">
+      <c r="X62" t="s">
         <v>536</v>
       </c>
-      <c r="W62" t="s">
+      <c r="Y62" t="s">
         <v>537</v>
       </c>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="3">
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8032,31 +8119,31 @@
         <f t="shared" si="11"/>
         <v>Jaime, Michael</v>
       </c>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="3" t="s">
+      <c r="S63" s="9"/>
+      <c r="T63" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S63" s="3">
+      <c r="U63" s="3">
         <v>6</v>
       </c>
-      <c r="T63" t="s">
+      <c r="V63" t="s">
         <v>538</v>
       </c>
-      <c r="U63" t="s">
+      <c r="W63" t="s">
         <v>4</v>
       </c>
-      <c r="V63" t="s">
+      <c r="X63" t="s">
         <v>539</v>
       </c>
-      <c r="W63" t="s">
+      <c r="Y63" t="s">
         <v>540</v>
       </c>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="3">
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8069,7 +8156,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f>CONCATENATE(F64," ",T64)</f>
+        <f>CONCATENATE(F64," ",V64)</f>
         <v>Jose Montes De Oca Morfin</v>
       </c>
       <c r="F64" s="3" t="str">
@@ -8101,31 +8188,31 @@
         <f t="shared" si="11"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="3" t="s">
+      <c r="S64" s="9"/>
+      <c r="T64" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S64" s="3">
+      <c r="U64" s="3">
         <v>7</v>
       </c>
-      <c r="T64" t="s">
+      <c r="V64" t="s">
         <v>453</v>
       </c>
-      <c r="U64" t="s">
+      <c r="W64" t="s">
         <v>450</v>
       </c>
-      <c r="V64" t="s">
+      <c r="X64" t="s">
         <v>454</v>
       </c>
-      <c r="W64" t="s">
+      <c r="Y64" t="s">
         <v>455</v>
       </c>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="3">
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8134,7 +8221,7 @@
         <v>426</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ref="D65:D93" si="12">S65</f>
+        <f t="shared" ref="D65:D93" si="12">U65</f>
         <v>8</v>
       </c>
       <c r="E65" s="3" t="str">
@@ -8170,33 +8257,33 @@
         <f t="shared" si="11"/>
         <v>Patel, Rahul</v>
       </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="3" t="s">
+      <c r="S65" s="9"/>
+      <c r="T65" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S65" s="3">
+      <c r="U65" s="3">
         <v>8</v>
       </c>
-      <c r="T65" t="s">
+      <c r="V65" t="s">
         <v>158</v>
       </c>
-      <c r="U65" t="s">
+      <c r="W65" t="s">
         <v>541</v>
       </c>
-      <c r="V65" t="s">
+      <c r="X65" t="s">
         <v>542</v>
       </c>
-      <c r="W65" t="s">
+      <c r="Y65" t="s">
         <v>543</v>
       </c>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="3">
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A93" si="13">RIGHT(R66,9)</f>
+        <f t="shared" ref="A66:A93" si="13">RIGHT(T66,9)</f>
         <v>24700-001</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -8207,11 +8294,11 @@
         <v>9</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E93" si="14">CONCATENATE(F66," ",T66)</f>
+        <f t="shared" ref="E66:E93" si="14">CONCATENATE(F66," ",V66)</f>
         <v>Huzaifa Razzak</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" ref="F66:F93" si="15">U66</f>
+        <f t="shared" ref="F66:F93" si="15">W66</f>
         <v>Huzaifa</v>
       </c>
       <c r="G66" s="3">
@@ -8239,34 +8326,34 @@
         <v>802</v>
       </c>
       <c r="P66" s="3" t="str">
-        <f t="shared" ref="P66:P93" si="17">CONCATENATE(T66,", ",U66)</f>
+        <f t="shared" ref="P66:P93" si="17">CONCATENATE(V66,", ",W66)</f>
         <v>Razzak, Huzaifa</v>
       </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="3" t="s">
+      <c r="S66" s="9"/>
+      <c r="T66" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9</v>
       </c>
-      <c r="T66" t="s">
+      <c r="V66" t="s">
         <v>544</v>
       </c>
-      <c r="U66" t="s">
+      <c r="W66" t="s">
         <v>545</v>
       </c>
-      <c r="V66" t="s">
+      <c r="X66" t="s">
         <v>546</v>
       </c>
-      <c r="W66" t="s">
+      <c r="Y66" t="s">
         <v>547</v>
       </c>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="3">
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8314,31 +8401,31 @@
         <f t="shared" si="17"/>
         <v>Woods, Parker</v>
       </c>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="3" t="s">
+      <c r="S67" s="9"/>
+      <c r="T67" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S67" s="3">
+      <c r="U67" s="3">
         <v>10</v>
       </c>
-      <c r="T67" t="s">
+      <c r="V67" t="s">
         <v>548</v>
       </c>
-      <c r="U67" t="s">
+      <c r="W67" t="s">
         <v>549</v>
       </c>
-      <c r="V67" t="s">
+      <c r="X67" t="s">
         <v>550</v>
       </c>
-      <c r="W67" t="s">
+      <c r="Y67" t="s">
         <v>551</v>
       </c>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="3">
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8379,38 +8466,38 @@
       </c>
       <c r="M68" s="30"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="34" t="s">
+      <c r="O68" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P68" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Abrutis, David</v>
       </c>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="3" t="s">
+      <c r="S68" s="9"/>
+      <c r="T68" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S68" s="3">
+      <c r="U68" s="3">
         <v>1</v>
       </c>
-      <c r="T68" t="s">
+      <c r="V68" t="s">
         <v>475</v>
       </c>
-      <c r="U68" t="s">
+      <c r="W68" t="s">
         <v>476</v>
       </c>
-      <c r="V68" t="s">
+      <c r="X68" t="s">
         <v>477</v>
       </c>
-      <c r="W68" t="s">
+      <c r="Y68" t="s">
         <v>478</v>
       </c>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="3">
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8450,38 +8537,38 @@
       </c>
       <c r="M69" s="30"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="34" t="s">
+      <c r="O69" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P69" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Albaz, Hamzeh</v>
       </c>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="3" t="s">
+      <c r="S69" s="9"/>
+      <c r="T69" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S69" s="3">
+      <c r="U69" s="3">
         <v>2</v>
       </c>
-      <c r="T69" t="s">
+      <c r="V69" t="s">
         <v>479</v>
       </c>
-      <c r="U69" t="s">
+      <c r="W69" t="s">
         <v>480</v>
       </c>
-      <c r="V69" t="s">
+      <c r="X69" t="s">
         <v>481</v>
       </c>
-      <c r="W69" t="s">
+      <c r="Y69" t="s">
         <v>482</v>
       </c>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="3">
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8522,38 +8609,38 @@
       </c>
       <c r="M70" s="30"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="34" t="s">
+      <c r="O70" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P70" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Alfaro, Fernando</v>
       </c>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="3" t="s">
+      <c r="S70" s="9"/>
+      <c r="T70" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3</v>
       </c>
-      <c r="T70" t="s">
+      <c r="V70" t="s">
         <v>483</v>
       </c>
-      <c r="U70" t="s">
+      <c r="W70" t="s">
         <v>484</v>
       </c>
-      <c r="V70" t="s">
+      <c r="X70" t="s">
         <v>485</v>
       </c>
-      <c r="W70" t="s">
+      <c r="Y70" t="s">
         <v>486</v>
       </c>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="3">
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8591,38 +8678,38 @@
       </c>
       <c r="M71" s="30"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="34" t="s">
+      <c r="O71" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P71" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Anderson, Ryan</v>
       </c>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="3" t="s">
+      <c r="S71" s="9"/>
+      <c r="T71" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S71" s="3">
+      <c r="U71" s="3">
         <v>4</v>
       </c>
-      <c r="T71" t="s">
+      <c r="V71" t="s">
         <v>487</v>
       </c>
-      <c r="U71" t="s">
+      <c r="W71" t="s">
         <v>175</v>
       </c>
-      <c r="V71" t="s">
+      <c r="X71" t="s">
         <v>488</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Y71" t="s">
         <v>489</v>
       </c>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="3">
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8660,38 +8747,38 @@
       </c>
       <c r="M72" s="30"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="34" t="s">
+      <c r="O72" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P72" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Cherrington, Jefferson</v>
       </c>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="9"/>
+      <c r="T72" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5</v>
       </c>
-      <c r="T72" t="s">
+      <c r="V72" t="s">
         <v>490</v>
       </c>
-      <c r="U72" t="s">
+      <c r="W72" t="s">
         <v>491</v>
       </c>
-      <c r="V72" t="s">
+      <c r="X72" t="s">
         <v>492</v>
       </c>
-      <c r="W72" t="s">
+      <c r="Y72" t="s">
         <v>493</v>
       </c>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="3">
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8731,38 +8818,38 @@
       </c>
       <c r="M73" s="30"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="34" t="s">
+      <c r="O73" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P73" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Devito, Joseph</v>
       </c>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="3" t="s">
+      <c r="S73" s="9"/>
+      <c r="T73" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S73" s="3">
+      <c r="U73" s="3">
         <v>6</v>
       </c>
-      <c r="T73" t="s">
+      <c r="V73" t="s">
         <v>494</v>
       </c>
-      <c r="U73" t="s">
+      <c r="W73" t="s">
         <v>495</v>
       </c>
-      <c r="V73" t="s">
+      <c r="X73" t="s">
         <v>496</v>
       </c>
-      <c r="W73" t="s">
+      <c r="Y73" t="s">
         <v>497</v>
       </c>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="3">
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8806,38 +8893,38 @@
       </c>
       <c r="M74" s="30"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="34" t="s">
+      <c r="O74" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P74" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Enriquez, Pablo</v>
       </c>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="3" t="s">
+      <c r="S74" s="9"/>
+      <c r="T74" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S74" s="3">
+      <c r="U74" s="3">
         <v>7</v>
       </c>
-      <c r="T74" t="s">
+      <c r="V74" t="s">
         <v>498</v>
       </c>
-      <c r="U74" t="s">
+      <c r="W74" t="s">
         <v>499</v>
       </c>
-      <c r="V74" t="s">
+      <c r="X74" t="s">
         <v>500</v>
       </c>
-      <c r="W74" t="s">
+      <c r="Y74" t="s">
         <v>501</v>
       </c>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="3">
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8878,38 +8965,38 @@
       </c>
       <c r="M75" s="30"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="34" t="s">
+      <c r="O75" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P75" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jaber, Adam</v>
       </c>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="3" t="s">
+      <c r="S75" s="9"/>
+      <c r="T75" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S75" s="3">
+      <c r="U75" s="3">
         <v>8</v>
       </c>
-      <c r="T75" t="s">
+      <c r="V75" t="s">
         <v>502</v>
       </c>
-      <c r="U75" t="s">
+      <c r="W75" t="s">
         <v>109</v>
       </c>
-      <c r="V75" t="s">
+      <c r="X75" t="s">
         <v>503</v>
       </c>
-      <c r="W75" t="s">
+      <c r="Y75" t="s">
         <v>504</v>
       </c>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="3">
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8947,38 +9034,38 @@
       </c>
       <c r="M76" s="30"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="34" t="s">
+      <c r="O76" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P76" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Joseph, Jubin</v>
       </c>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="3" t="s">
+      <c r="S76" s="9"/>
+      <c r="T76" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>9</v>
       </c>
-      <c r="T76" t="s">
+      <c r="V76" t="s">
         <v>495</v>
       </c>
-      <c r="U76" t="s">
+      <c r="W76" t="s">
         <v>505</v>
       </c>
-      <c r="V76" t="s">
+      <c r="X76" t="s">
         <v>506</v>
       </c>
-      <c r="W76" t="s">
+      <c r="Y76" t="s">
         <v>507</v>
       </c>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="3">
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9018,38 +9105,38 @@
       </c>
       <c r="M77" s="30"/>
       <c r="N77" s="9"/>
-      <c r="O77" s="34" t="s">
+      <c r="O77" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P77" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Jules, Christopher</v>
       </c>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="3" t="s">
+      <c r="S77" s="9"/>
+      <c r="T77" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S77" s="3">
+      <c r="U77" s="3">
         <v>10</v>
       </c>
-      <c r="T77" t="s">
+      <c r="V77" t="s">
         <v>508</v>
       </c>
-      <c r="U77" t="s">
+      <c r="W77" t="s">
         <v>509</v>
       </c>
-      <c r="V77" t="s">
+      <c r="X77" t="s">
         <v>510</v>
       </c>
-      <c r="W77" t="s">
+      <c r="Y77" t="s">
         <v>511</v>
       </c>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="3">
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9090,38 +9177,38 @@
       </c>
       <c r="M78" s="30"/>
       <c r="N78" s="9"/>
-      <c r="O78" s="34" t="s">
+      <c r="O78" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P78" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Kaminski, Alex</v>
       </c>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="3" t="s">
+      <c r="S78" s="9"/>
+      <c r="T78" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S78" s="3">
+      <c r="U78" s="3">
         <v>11</v>
       </c>
-      <c r="T78" t="s">
+      <c r="V78" t="s">
         <v>512</v>
       </c>
-      <c r="U78" t="s">
+      <c r="W78" t="s">
         <v>311</v>
       </c>
-      <c r="V78" t="s">
+      <c r="X78" t="s">
         <v>513</v>
       </c>
-      <c r="W78" t="s">
+      <c r="Y78" t="s">
         <v>514</v>
       </c>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="3">
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9165,38 +9252,38 @@
       </c>
       <c r="M79" s="30"/>
       <c r="N79" s="9"/>
-      <c r="O79" s="34" t="s">
+      <c r="O79" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P79" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Mackowiak, James</v>
       </c>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="3" t="s">
+      <c r="S79" s="9"/>
+      <c r="T79" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S79" s="3">
+      <c r="U79" s="3">
         <v>12</v>
       </c>
-      <c r="T79" t="s">
+      <c r="V79" t="s">
         <v>515</v>
       </c>
-      <c r="U79" t="s">
+      <c r="W79" t="s">
         <v>427</v>
       </c>
-      <c r="V79" t="s">
+      <c r="X79" t="s">
         <v>516</v>
       </c>
-      <c r="W79" t="s">
+      <c r="Y79" t="s">
         <v>517</v>
       </c>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="3">
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9233,38 +9320,38 @@
       </c>
       <c r="M80" s="30"/>
       <c r="N80" s="9"/>
-      <c r="O80" s="34" t="s">
+      <c r="O80" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P80" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Smith, Benjamin</v>
       </c>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="3" t="s">
+      <c r="S80" s="9"/>
+      <c r="T80" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S80" s="3">
+      <c r="U80" s="3">
         <v>13</v>
       </c>
-      <c r="T80" t="s">
+      <c r="V80" t="s">
         <v>10</v>
       </c>
-      <c r="U80" t="s">
+      <c r="W80" t="s">
         <v>518</v>
       </c>
-      <c r="V80" t="s">
+      <c r="X80" t="s">
         <v>519</v>
       </c>
-      <c r="W80" t="s">
+      <c r="Y80" t="s">
         <v>520</v>
       </c>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="3">
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9302,38 +9389,38 @@
       </c>
       <c r="M81" s="30"/>
       <c r="N81" s="9"/>
-      <c r="O81" s="34" t="s">
+      <c r="O81" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P81" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Soans, Grover</v>
       </c>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="3" t="s">
+      <c r="S81" s="9"/>
+      <c r="T81" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>14</v>
       </c>
-      <c r="T81" t="s">
+      <c r="V81" t="s">
         <v>521</v>
       </c>
-      <c r="U81" t="s">
+      <c r="W81" t="s">
         <v>522</v>
       </c>
-      <c r="V81" t="s">
+      <c r="X81" t="s">
         <v>523</v>
       </c>
-      <c r="W81" t="s">
+      <c r="Y81" t="s">
         <v>524</v>
       </c>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="3">
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9367,38 +9454,38 @@
         <v>460</v>
       </c>
       <c r="N82" s="9"/>
-      <c r="O82" s="34" t="s">
+      <c r="O82" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P82" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Brian</v>
       </c>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="3" t="s">
+      <c r="S82" s="9"/>
+      <c r="T82" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S82" s="3">
+      <c r="U82" s="3">
         <v>1</v>
       </c>
-      <c r="T82" t="s">
+      <c r="V82" t="s">
         <v>429</v>
       </c>
-      <c r="U82" t="s">
+      <c r="W82" t="s">
         <v>428</v>
       </c>
-      <c r="V82" t="s">
+      <c r="X82" t="s">
         <v>437</v>
       </c>
-      <c r="W82" t="s">
+      <c r="Y82" t="s">
         <v>438</v>
       </c>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="3">
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9431,38 +9518,38 @@
         <v>460</v>
       </c>
       <c r="N83" s="9"/>
-      <c r="O83" s="34" t="s">
+      <c r="O83" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P83" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Feddes, Stephen</v>
       </c>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="3" t="s">
+      <c r="S83" s="9"/>
+      <c r="T83" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2</v>
       </c>
-      <c r="T83" t="s">
+      <c r="V83" t="s">
         <v>429</v>
       </c>
-      <c r="U83" t="s">
+      <c r="W83" t="s">
         <v>430</v>
       </c>
-      <c r="V83" t="s">
+      <c r="X83" t="s">
         <v>431</v>
       </c>
-      <c r="W83" t="s">
+      <c r="Y83" t="s">
         <v>432</v>
       </c>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="3">
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9493,38 +9580,38 @@
         <v>461</v>
       </c>
       <c r="N84" s="9"/>
-      <c r="O84" s="34" t="s">
+      <c r="O84" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P84" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Groppe, Katherine</v>
       </c>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="3" t="s">
+      <c r="S84" s="9"/>
+      <c r="T84" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S84" s="3">
+      <c r="U84" s="3">
         <v>3</v>
       </c>
-      <c r="T84" t="s">
+      <c r="V84" t="s">
         <v>439</v>
       </c>
-      <c r="U84" t="s">
+      <c r="W84" t="s">
         <v>440</v>
       </c>
-      <c r="V84" t="s">
+      <c r="X84" t="s">
         <v>441</v>
       </c>
-      <c r="W84" t="s">
+      <c r="Y84" t="s">
         <v>442</v>
       </c>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="3">
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9555,38 +9642,38 @@
         <v>461</v>
       </c>
       <c r="N85" s="9"/>
-      <c r="O85" s="34" t="s">
+      <c r="O85" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P85" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Koldoff, Collin</v>
       </c>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="3" t="s">
+      <c r="S85" s="9"/>
+      <c r="T85" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S85" s="3">
+      <c r="U85" s="3">
         <v>4</v>
       </c>
-      <c r="T85" t="s">
+      <c r="V85" t="s">
         <v>443</v>
       </c>
-      <c r="U85" t="s">
+      <c r="W85" t="s">
         <v>352</v>
       </c>
-      <c r="V85" t="s">
+      <c r="X85" t="s">
         <v>444</v>
       </c>
-      <c r="W85" t="s">
+      <c r="Y85" t="s">
         <v>445</v>
       </c>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="3">
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9617,38 +9704,38 @@
         <v>461</v>
       </c>
       <c r="N86" s="9"/>
-      <c r="O86" s="34" t="s">
+      <c r="O86" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P86" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Leiteritz, Ryan</v>
       </c>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="3" t="s">
+      <c r="S86" s="9"/>
+      <c r="T86" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S86" s="3">
+      <c r="U86" s="3">
         <v>5</v>
       </c>
-      <c r="T86" t="s">
+      <c r="V86" t="s">
         <v>462</v>
       </c>
-      <c r="U86" t="s">
+      <c r="W86" t="s">
         <v>175</v>
       </c>
-      <c r="V86" t="s">
+      <c r="X86" t="s">
         <v>463</v>
       </c>
-      <c r="W86" t="s">
+      <c r="Y86" t="s">
         <v>464</v>
       </c>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="3">
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9679,38 +9766,38 @@
         <v>451</v>
       </c>
       <c r="N87" s="9"/>
-      <c r="O87" s="34" t="s">
+      <c r="O87" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P87" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="3" t="s">
+      <c r="S87" s="9"/>
+      <c r="T87" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S87" s="3">
+      <c r="U87" s="3">
         <v>6</v>
       </c>
-      <c r="T87" t="s">
+      <c r="V87" t="s">
         <v>453</v>
       </c>
-      <c r="U87" t="s">
+      <c r="W87" t="s">
         <v>450</v>
       </c>
-      <c r="V87" t="s">
+      <c r="X87" t="s">
         <v>454</v>
       </c>
-      <c r="W87" t="s">
+      <c r="Y87" t="s">
         <v>455</v>
       </c>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="3">
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9741,38 +9828,38 @@
         <v>461</v>
       </c>
       <c r="N88" s="9"/>
-      <c r="O88" s="34" t="s">
+      <c r="O88" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P88" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Piwoni, Justina</v>
       </c>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="3" t="s">
+      <c r="S88" s="9"/>
+      <c r="T88" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S88" s="3">
+      <c r="U88" s="3">
         <v>7</v>
       </c>
-      <c r="T88" t="s">
+      <c r="V88" t="s">
         <v>446</v>
       </c>
-      <c r="U88" t="s">
+      <c r="W88" t="s">
         <v>447</v>
       </c>
-      <c r="V88" t="s">
+      <c r="X88" t="s">
         <v>448</v>
       </c>
-      <c r="W88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
-      <c r="X88" s="9"/>
-      <c r="Y88" s="3">
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9806,38 +9893,38 @@
         <v>451</v>
       </c>
       <c r="N89" s="9"/>
-      <c r="O89" s="34" t="s">
+      <c r="O89" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P89" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Senese, Matthew</v>
       </c>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="3" t="s">
+      <c r="S89" s="9"/>
+      <c r="T89" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>8</v>
       </c>
-      <c r="T89" t="s">
+      <c r="V89" t="s">
         <v>456</v>
       </c>
-      <c r="U89" t="s">
+      <c r="W89" t="s">
         <v>152</v>
       </c>
-      <c r="V89" t="s">
+      <c r="X89" t="s">
         <v>457</v>
       </c>
-      <c r="W89" t="s">
+      <c r="Y89" t="s">
         <v>458</v>
       </c>
-      <c r="X89" s="9"/>
-      <c r="Y89" s="3">
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9868,55 +9955,55 @@
         <v>451</v>
       </c>
       <c r="N90" s="9"/>
-      <c r="O90" s="34" t="s">
+      <c r="O90" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P90" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Stewart, Jahi</v>
       </c>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="3" t="s">
+      <c r="S90" s="9"/>
+      <c r="T90" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S90" s="3">
+      <c r="U90" s="3">
         <v>9</v>
       </c>
-      <c r="T90" t="s">
+      <c r="V90" t="s">
         <v>465</v>
       </c>
-      <c r="U90" t="s">
+      <c r="W90" t="s">
         <v>466</v>
       </c>
-      <c r="V90" t="s">
+      <c r="X90" t="s">
         <v>467</v>
       </c>
-      <c r="W90" t="s">
+      <c r="Y90" t="s">
         <v>468</v>
       </c>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="3">
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f t="shared" ref="A91" si="18">RIGHT(R91,9)</f>
+        <f t="shared" ref="A91" si="18">RIGHT(T91,9)</f>
         <v>49200-001</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ref="D91" si="19">S91</f>
+        <f t="shared" ref="D91" si="19">U91</f>
         <v>0</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" ref="E91" si="20">CONCATENATE(F91," ",T91)</f>
+        <f t="shared" ref="E91" si="20">CONCATENATE(F91," ",V91)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" ref="F91" si="21">U91</f>
+        <f t="shared" ref="F91" si="21">W91</f>
         <v>Julie</v>
       </c>
       <c r="L91" s="4">
@@ -9926,32 +10013,32 @@
         <v>451</v>
       </c>
       <c r="N91" s="9"/>
-      <c r="O91" s="34" t="s">
+      <c r="O91" s="33" t="s">
         <v>800</v>
       </c>
       <c r="P91" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="3" t="s">
+      <c r="S91" s="9"/>
+      <c r="T91" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="T91" t="s">
+      <c r="V91" t="s">
         <v>433</v>
       </c>
-      <c r="U91" t="s">
+      <c r="W91" t="s">
         <v>434</v>
       </c>
-      <c r="V91" t="s">
+      <c r="X91" t="s">
         <v>435</v>
       </c>
-      <c r="W91" t="s">
+      <c r="Y91" t="s">
         <v>436</v>
       </c>
-      <c r="X91" s="9"/>
+      <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9982,38 +10069,38 @@
         <v>451</v>
       </c>
       <c r="N92" s="9"/>
-      <c r="O92" s="33" t="s">
+      <c r="O92" s="3" t="s">
         <v>805</v>
       </c>
       <c r="P92" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Zenisek, Tyler</v>
       </c>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="3" t="s">
+      <c r="S92" s="9"/>
+      <c r="T92" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S92" s="3">
+      <c r="U92" s="3">
         <v>10</v>
       </c>
-      <c r="T92" t="s">
+      <c r="V92" t="s">
         <v>469</v>
       </c>
-      <c r="U92" t="s">
+      <c r="W92" t="s">
         <v>470</v>
       </c>
-      <c r="V92" t="s">
+      <c r="X92" t="s">
         <v>471</v>
       </c>
-      <c r="W92" t="s">
+      <c r="Y92" t="s">
         <v>472</v>
       </c>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="3">
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10040,30 +10127,29 @@
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
-      <c r="R93" s="3" t="s">
+      <c r="T93" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S93" s="3">
+      <c r="U93" s="3">
         <v>11</v>
       </c>
-      <c r="T93" s="3" t="s">
+      <c r="V93" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="U93" s="3" t="s">
+      <c r="W93" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:25" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AF98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
+  <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
-        <filter val="49200-001"/>
+        <filter val="24700-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -10071,8 +10157,13 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="TaDa"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ99">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS99">
     <sortCondition ref="A2:A99"/>
     <sortCondition ref="P2:P99"/>
   </sortState>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179F136-0C65-B645-9902-54258DF00138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BDAF9-FE4B-554A-8285-5D890992053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50780" yWindow="1220" windowWidth="49740" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="816">
   <si>
     <t>Last Name</t>
   </si>
@@ -1592,9 +1593,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Aiden</t>
-  </si>
-  <si>
     <t>ECaMS Billboard</t>
   </si>
   <si>
@@ -2658,6 +2656,9 @@
   </si>
   <si>
     <t>10/10/10/4 (wow!)</t>
+  </si>
+  <si>
+    <t>Draft</t>
   </si>
 </sst>
 </file>
@@ -3706,7 +3707,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3725,7 +3726,7 @@
     <col min="12" max="12" width="7" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -3748,7 +3749,7 @@
         <v>425</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1" s="1" t="str">
         <f t="shared" ref="D1:D32" si="0">U1</f>
@@ -3761,7 +3762,7 @@
         <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>423</v>
@@ -3770,10 +3771,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>424</v>
@@ -3783,23 +3784,23 @@
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
@@ -3832,20 +3833,20 @@
         <v>Beth Adelman</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I2" s="30">
         <f t="shared" ref="I2:I33" si="3">G2</f>
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
@@ -3853,7 +3854,7 @@
       <c r="M2" s="30"/>
       <c r="N2" s="9"/>
       <c r="O2" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P2" s="3" t="str">
         <f t="shared" ref="P2:P33" si="4">CONCATENATE(V2,", ",W2)</f>
@@ -3861,22 +3862,22 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U2" s="3">
         <v>1</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="3">
@@ -3907,14 +3908,14 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I3" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L3" s="4">
         <v>2</v>
@@ -3922,7 +3923,7 @@
       <c r="M3" s="30"/>
       <c r="N3" s="9"/>
       <c r="O3" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P3" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3930,22 +3931,22 @@
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U3" s="3">
         <v>2</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="3">
@@ -3976,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I4" s="30">
         <f t="shared" si="3"/>
@@ -3991,33 +3992,33 @@
       <c r="M4" s="30"/>
       <c r="N4" s="9"/>
       <c r="O4" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Bresnahan, Amelia</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U4" s="3">
         <v>3</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="3">
@@ -4030,7 +4031,7 @@
         <v>20000-002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
@@ -4060,22 +4061,22 @@
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U5" s="3">
         <v>4</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>663</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="3">
@@ -4105,14 +4106,14 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I6" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L6" s="4">
         <v>5</v>
@@ -4120,7 +4121,7 @@
       <c r="M6" s="30"/>
       <c r="N6" s="9"/>
       <c r="O6" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4128,22 +4129,22 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U6" s="3">
         <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>187</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="3">
@@ -4174,14 +4175,14 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I7" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L7" s="4">
         <v>6</v>
@@ -4189,7 +4190,7 @@
       <c r="M7" s="30"/>
       <c r="N7" s="9"/>
       <c r="O7" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4197,22 +4198,22 @@
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U7" s="3">
         <v>6</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="3">
@@ -4243,14 +4244,14 @@
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I8" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
@@ -4258,33 +4259,33 @@
       <c r="M8" s="30"/>
       <c r="N8" s="9"/>
       <c r="O8" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Gonzalez, Johan</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U8" s="3">
         <v>7</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="3">
@@ -4297,7 +4298,7 @@
         <v>20000-002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
@@ -4327,22 +4328,22 @@
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U9" s="3">
         <v>8</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>125</v>
       </c>
       <c r="X9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="3">
@@ -4373,14 +4374,14 @@
         <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I10" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L10" s="4">
         <v>6</v>
@@ -4388,7 +4389,7 @@
       <c r="M10" s="30"/>
       <c r="N10" s="9"/>
       <c r="O10" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4397,22 +4398,22 @@
       <c r="R10" s="12"/>
       <c r="S10" s="9"/>
       <c r="T10" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U10" s="3">
         <v>9</v>
       </c>
       <c r="V10" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>681</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="3">
@@ -4443,14 +4444,14 @@
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I11" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L11" s="4">
         <v>4</v>
@@ -4458,7 +4459,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="9"/>
       <c r="O11" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P11" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4466,22 +4467,22 @@
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U11" s="3">
         <v>10</v>
       </c>
       <c r="V11" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>685</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="3">
@@ -4512,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I12" s="30">
         <f t="shared" si="3"/>
@@ -4530,7 +4531,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="9"/>
       <c r="O12" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4538,22 +4539,22 @@
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U12" s="3">
         <v>11</v>
       </c>
       <c r="V12" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="3">
@@ -4584,14 +4585,14 @@
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L13" s="4">
         <v>6</v>
@@ -4599,7 +4600,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="9"/>
       <c r="O13" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4607,22 +4608,22 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U13" s="3">
         <v>12</v>
       </c>
       <c r="V13" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>693</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="3">
@@ -4646,20 +4647,20 @@
         <v>Seb Jaculbe</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
@@ -4667,33 +4668,33 @@
       <c r="M14" s="30"/>
       <c r="N14" s="9"/>
       <c r="O14" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Jaculbe, Sebastian</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U14" s="3">
         <v>13</v>
       </c>
       <c r="V14" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="3">
@@ -4724,14 +4725,14 @@
         <v>5</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L15" s="4">
         <v>2</v>
@@ -4739,7 +4740,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="9"/>
       <c r="O15" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4747,22 +4748,22 @@
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U15" s="3">
         <v>14</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>175</v>
       </c>
       <c r="X15" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="3">
@@ -4792,14 +4793,14 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>93</v>
@@ -4810,7 +4811,7 @@
       <c r="M16" s="30"/>
       <c r="N16" s="9"/>
       <c r="O16" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4818,22 +4819,22 @@
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U16" s="3">
         <v>15</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>288</v>
       </c>
       <c r="X16" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>703</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="3">
@@ -4864,14 +4865,14 @@
         <v>5</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>93</v>
@@ -4882,33 +4883,33 @@
       <c r="M17" s="30"/>
       <c r="N17" s="9"/>
       <c r="O17" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Lewis, Roman</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U17" s="3">
         <v>16</v>
       </c>
       <c r="V17" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="W17" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="3">
@@ -4939,14 +4940,14 @@
         <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L18" s="4">
         <v>5</v>
@@ -4954,18 +4955,18 @@
       <c r="M18" s="30"/>
       <c r="N18" s="9"/>
       <c r="O18" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Meyer, Justin</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U18" s="3">
         <v>17</v>
@@ -4974,13 +4975,13 @@
         <v>139</v>
       </c>
       <c r="W18" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="3">
@@ -5011,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="3"/>
@@ -5026,7 +5027,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="9"/>
       <c r="O19" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P19" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5034,22 +5035,22 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U19" s="3">
         <v>18</v>
       </c>
       <c r="V19" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>714</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="3">
@@ -5080,14 +5081,14 @@
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>93</v>
@@ -5098,33 +5099,33 @@
       <c r="M20" s="30"/>
       <c r="N20" s="9"/>
       <c r="O20" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Mola, John</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U20" s="3">
         <v>19</v>
       </c>
       <c r="V20" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="3">
@@ -5154,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="3"/>
@@ -5169,7 +5170,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="9"/>
       <c r="O21" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P21" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5177,22 +5178,22 @@
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U21" s="3">
         <v>20</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>282</v>
       </c>
       <c r="X21" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="3">
@@ -5223,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="3"/>
@@ -5238,7 +5239,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
       <c r="O22" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P22" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5246,22 +5247,22 @@
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U22" s="3">
         <v>21</v>
       </c>
       <c r="V22" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="3">
@@ -5292,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I23" s="30">
         <f t="shared" si="3"/>
@@ -5307,7 +5308,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="9"/>
       <c r="O23" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P23" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5315,22 +5316,22 @@
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U23" s="3">
         <v>22</v>
       </c>
       <c r="V23" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="3">
@@ -5361,14 +5362,14 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L24" s="4">
         <v>6</v>
@@ -5376,7 +5377,7 @@
       <c r="M24" s="30"/>
       <c r="N24" s="9"/>
       <c r="O24" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P24" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5384,22 +5385,22 @@
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U24" s="3">
         <v>23</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>109</v>
       </c>
       <c r="X24" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="3">
@@ -5423,20 +5424,20 @@
         <v>Vinny Ringelsten</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L25" s="4">
         <v>4</v>
@@ -5444,7 +5445,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="9"/>
       <c r="O25" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P25" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5452,22 +5453,22 @@
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U25" s="3">
         <v>24</v>
       </c>
       <c r="V25" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="3">
@@ -5491,20 +5492,20 @@
         <v>Eddy Rodriguez</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G26" s="3">
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I26" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L26" s="4">
         <v>5</v>
@@ -5512,7 +5513,7 @@
       <c r="M26" s="30"/>
       <c r="N26" s="9"/>
       <c r="O26" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P26" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5520,22 +5521,22 @@
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U26" s="3">
         <v>25</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W26" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="X26" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="3">
@@ -5566,14 +5567,14 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L27" s="4">
         <v>2</v>
@@ -5581,33 +5582,33 @@
       <c r="M27" s="30"/>
       <c r="N27" s="9"/>
       <c r="O27" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Rodriguez, Juan</v>
       </c>
       <c r="R27" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U27" s="3">
         <v>26</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>224</v>
       </c>
       <c r="X27" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y27" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="3">
@@ -5631,20 +5632,20 @@
         <v>Alanna San Luis</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I28" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>93</v>
@@ -5655,33 +5656,33 @@
       <c r="M28" s="30"/>
       <c r="N28" s="9"/>
       <c r="O28" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>San Luis, Alanna Marie</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U28" s="3">
         <v>27</v>
       </c>
       <c r="V28" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="W28" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="3">
@@ -5712,14 +5713,14 @@
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L29" s="4">
         <v>4</v>
@@ -5727,33 +5728,33 @@
       <c r="M29" s="30"/>
       <c r="N29" s="9"/>
       <c r="O29" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Santiago, Matthew</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U29" s="3">
         <v>28</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>152</v>
       </c>
       <c r="X29" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y29" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="3">
@@ -5783,14 +5784,14 @@
         <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L30" s="4">
         <v>4</v>
@@ -5798,7 +5799,7 @@
       <c r="M30" s="30"/>
       <c r="N30" s="9"/>
       <c r="O30" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P30" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5806,22 +5807,22 @@
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U30" s="3">
         <v>29</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="W30" s="3" t="s">
         <v>152</v>
       </c>
       <c r="X30" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y30" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="3">
@@ -5852,14 +5853,14 @@
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I31" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L31" s="4">
         <v>6</v>
@@ -5867,7 +5868,7 @@
       <c r="M31" s="30"/>
       <c r="N31" s="9"/>
       <c r="O31" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P31" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5875,22 +5876,22 @@
       </c>
       <c r="S31" s="9"/>
       <c r="T31" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U31" s="3">
         <v>30</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>250</v>
       </c>
       <c r="X31" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y31" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="3">
@@ -5921,14 +5922,14 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I32" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>93</v>
@@ -5939,33 +5940,33 @@
       <c r="M32" s="30"/>
       <c r="N32" s="9"/>
       <c r="O32" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Abuisneineh, Sarah</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U32" s="3">
         <v>1</v>
       </c>
       <c r="V32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W32" t="s">
         <v>278</v>
       </c>
       <c r="X32" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y32" t="s">
         <v>554</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>555</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="3">
@@ -5989,13 +5990,13 @@
         <v>Ali Alimatov</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I33" s="30">
         <f t="shared" si="3"/>
@@ -6010,7 +6011,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="9"/>
       <c r="O33" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P33" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6018,22 +6019,22 @@
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U33" s="3">
         <v>2</v>
       </c>
       <c r="V33" t="s">
+        <v>555</v>
+      </c>
+      <c r="W33" t="s">
         <v>556</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>557</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>558</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>559</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="3">
@@ -6064,14 +6065,14 @@
         <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I34" s="30">
         <f t="shared" ref="I34:I65" si="10">G34</f>
         <v>4</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L34" s="4">
         <v>4</v>
@@ -6079,7 +6080,7 @@
       <c r="M34" s="30"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P34" s="3" t="str">
         <f t="shared" ref="P34:P65" si="11">CONCATENATE(V34,", ",W34)</f>
@@ -6087,22 +6088,22 @@
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U34" s="3">
         <v>3</v>
       </c>
       <c r="V34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W34" t="s">
+        <v>559</v>
+      </c>
+      <c r="X34" t="s">
         <v>560</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>561</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>562</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="3">
@@ -6132,14 +6133,14 @@
         <v>5</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I35" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L35" s="4">
         <v>4</v>
@@ -6147,7 +6148,7 @@
       <c r="M35" s="30"/>
       <c r="N35" s="9"/>
       <c r="O35" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P35" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6155,22 +6156,22 @@
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U35" s="3">
         <v>4</v>
       </c>
       <c r="V35" t="s">
+        <v>562</v>
+      </c>
+      <c r="W35" t="s">
         <v>563</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>564</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>565</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>566</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="3">
@@ -6194,13 +6195,13 @@
         <v>Joe Egan</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I36" s="30">
         <f t="shared" si="10"/>
@@ -6215,7 +6216,7 @@
       <c r="M36" s="30"/>
       <c r="N36" s="9"/>
       <c r="O36" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P36" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6223,22 +6224,22 @@
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U36" s="3">
         <v>5</v>
       </c>
       <c r="V36" t="s">
+        <v>566</v>
+      </c>
+      <c r="W36" t="s">
+        <v>494</v>
+      </c>
+      <c r="X36" t="s">
         <v>567</v>
       </c>
-      <c r="W36" t="s">
-        <v>495</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>568</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>569</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="3">
@@ -6263,13 +6264,13 @@
         <v>Chuckie Gentile</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I37" s="30">
         <f t="shared" si="10"/>
@@ -6287,33 +6288,33 @@
       <c r="M37" s="30"/>
       <c r="N37" s="9"/>
       <c r="O37" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P37" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gentile, Charles</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U37" s="3">
         <v>6</v>
       </c>
       <c r="V37" t="s">
+        <v>569</v>
+      </c>
+      <c r="W37" t="s">
         <v>570</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>571</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>572</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>573</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="3">
@@ -6344,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I38" s="30">
         <f t="shared" si="10"/>
@@ -6359,33 +6360,33 @@
       <c r="M38" s="30"/>
       <c r="N38" s="9"/>
       <c r="O38" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P38" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Gutierrez, Brandon</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U38" s="3">
         <v>7</v>
       </c>
       <c r="V38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W38" t="s">
         <v>129</v>
       </c>
       <c r="X38" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y38" t="s">
         <v>575</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>576</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="3">
@@ -6409,20 +6410,20 @@
         <v>Ahmed Ibrahim</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G39" s="3">
         <v>5</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I39" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L39" s="4">
         <v>2</v>
@@ -6430,7 +6431,7 @@
       <c r="M39" s="30"/>
       <c r="N39" s="9"/>
       <c r="O39" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P39" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6438,22 +6439,22 @@
       </c>
       <c r="S39" s="9"/>
       <c r="T39" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U39" s="3">
         <v>8</v>
       </c>
       <c r="V39" t="s">
+        <v>576</v>
+      </c>
+      <c r="W39" t="s">
         <v>577</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>578</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>579</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>580</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="3">
@@ -6478,20 +6479,20 @@
         <v>Joe Janda</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G40" s="3">
         <v>2</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I40" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L40" s="4">
         <v>4</v>
@@ -6499,33 +6500,33 @@
       <c r="M40" s="30"/>
       <c r="N40" s="9"/>
       <c r="O40" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P40" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Janda, Joseph</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S40" s="9"/>
       <c r="T40" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U40" s="3">
         <v>9</v>
       </c>
       <c r="V40" t="s">
+        <v>580</v>
+      </c>
+      <c r="W40" t="s">
+        <v>494</v>
+      </c>
+      <c r="X40" t="s">
         <v>581</v>
       </c>
-      <c r="W40" t="s">
-        <v>495</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>582</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>583</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="3">
@@ -6556,14 +6557,14 @@
         <v>4</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I41" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L41" s="4">
         <v>4</v>
@@ -6571,33 +6572,33 @@
       <c r="M41" s="30"/>
       <c r="N41" s="9"/>
       <c r="O41" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P41" s="3" t="str">
         <f t="shared" si="11"/>
         <v>LaFontaine-Larson, Alexa Grace</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U41" s="3">
         <v>10</v>
       </c>
       <c r="V41" t="s">
+        <v>583</v>
+      </c>
+      <c r="W41" t="s">
         <v>584</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>585</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>586</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>587</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="3">
@@ -6621,13 +6622,13 @@
         <v>Zach Mucha</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G42" s="3">
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I42" s="30">
         <f t="shared" si="10"/>
@@ -6642,7 +6643,7 @@
       <c r="M42" s="30"/>
       <c r="N42" s="9"/>
       <c r="O42" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P42" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6650,22 +6651,22 @@
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U42" s="3">
         <v>11</v>
       </c>
       <c r="V42" t="s">
+        <v>587</v>
+      </c>
+      <c r="W42" t="s">
         <v>588</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>589</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>590</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>591</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="3">
@@ -6696,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I43" s="30">
         <f t="shared" si="10"/>
@@ -6711,7 +6712,7 @@
       <c r="M43" s="30"/>
       <c r="N43" s="9"/>
       <c r="O43" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P43" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6719,22 +6720,22 @@
       </c>
       <c r="S43" s="9"/>
       <c r="T43" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U43" s="3">
         <v>12</v>
       </c>
       <c r="V43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W43" t="s">
         <v>125</v>
       </c>
       <c r="X43" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y43" t="s">
         <v>593</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>594</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="3">
@@ -6758,13 +6759,13 @@
         <v>Rashid Nazmiddinov</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G44" s="3">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I44" s="30">
         <f t="shared" si="10"/>
@@ -6779,7 +6780,7 @@
       <c r="M44" s="30"/>
       <c r="N44" s="9"/>
       <c r="O44" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P44" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6787,22 +6788,22 @@
       </c>
       <c r="S44" s="9"/>
       <c r="T44" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U44" s="3">
         <v>13</v>
       </c>
       <c r="V44" t="s">
+        <v>594</v>
+      </c>
+      <c r="W44" t="s">
         <v>595</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>596</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>597</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>598</v>
       </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="3">
@@ -6833,14 +6834,14 @@
         <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I45" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L45" s="4">
         <v>2</v>
@@ -6848,7 +6849,7 @@
       <c r="M45" s="30"/>
       <c r="N45" s="9"/>
       <c r="O45" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P45" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6856,22 +6857,22 @@
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U45" s="3">
         <v>14</v>
       </c>
       <c r="V45" t="s">
+        <v>598</v>
+      </c>
+      <c r="W45" t="s">
         <v>599</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>600</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>601</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>602</v>
       </c>
       <c r="Z45" s="9"/>
       <c r="AA45" s="3">
@@ -6902,14 +6903,14 @@
         <v>4</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I46" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L46" s="4">
         <v>3</v>
@@ -6917,7 +6918,7 @@
       <c r="M46" s="30"/>
       <c r="N46" s="9"/>
       <c r="O46" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P46" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6925,22 +6926,22 @@
       </c>
       <c r="S46" s="9"/>
       <c r="T46" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U46" s="3">
         <v>15</v>
       </c>
       <c r="V46" t="s">
+        <v>602</v>
+      </c>
+      <c r="W46" t="s">
         <v>603</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>604</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>605</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>606</v>
       </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="3">
@@ -6971,14 +6972,14 @@
         <v>4</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I47" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L47" s="4">
         <v>4</v>
@@ -6986,7 +6987,7 @@
       <c r="M47" s="30"/>
       <c r="N47" s="9"/>
       <c r="O47" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P47" s="3" t="str">
         <f t="shared" si="11"/>
@@ -6994,22 +6995,22 @@
       </c>
       <c r="S47" s="9"/>
       <c r="T47" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U47" s="3">
         <v>16</v>
       </c>
       <c r="V47" t="s">
+        <v>606</v>
+      </c>
+      <c r="W47" t="s">
         <v>607</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>608</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>609</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>610</v>
       </c>
       <c r="Z47" s="9"/>
       <c r="AA47" s="3">
@@ -7040,14 +7041,14 @@
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I48" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L48" s="4">
         <v>5</v>
@@ -7055,33 +7056,33 @@
       <c r="M48" s="30"/>
       <c r="N48" s="9"/>
       <c r="O48" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P48" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Paugys, Nicholas</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U48" s="3">
         <v>17</v>
       </c>
       <c r="V48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W48" t="s">
         <v>288</v>
       </c>
       <c r="X48" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y48" t="s">
         <v>612</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>613</v>
       </c>
       <c r="Z48" s="9"/>
       <c r="AA48" s="3">
@@ -7112,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" si="10"/>
@@ -7130,7 +7131,7 @@
       <c r="M49" s="30"/>
       <c r="N49" s="9"/>
       <c r="O49" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P49" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7138,22 +7139,22 @@
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U49" s="3">
         <v>18</v>
       </c>
       <c r="V49" t="s">
+        <v>613</v>
+      </c>
+      <c r="W49" t="s">
         <v>614</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>615</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>616</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>617</v>
       </c>
       <c r="Z49" s="9"/>
       <c r="AA49" s="3">
@@ -7184,14 +7185,14 @@
         <v>4</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I50" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L50" s="4">
         <v>5</v>
@@ -7199,7 +7200,7 @@
       <c r="M50" s="30"/>
       <c r="N50" s="9"/>
       <c r="O50" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P50" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7207,22 +7208,22 @@
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U50" s="3">
         <v>19</v>
       </c>
       <c r="V50" t="s">
+        <v>617</v>
+      </c>
+      <c r="W50" t="s">
         <v>618</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>619</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>620</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>621</v>
       </c>
       <c r="Z50" s="9"/>
       <c r="AA50" s="3">
@@ -7253,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I51" s="30">
         <f t="shared" si="10"/>
@@ -7268,7 +7269,7 @@
       <c r="M51" s="30"/>
       <c r="N51" s="9"/>
       <c r="O51" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P51" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7276,22 +7277,22 @@
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U51" s="3">
         <v>20</v>
       </c>
       <c r="V51" t="s">
+        <v>621</v>
+      </c>
+      <c r="W51" t="s">
         <v>622</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>623</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>624</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>625</v>
       </c>
       <c r="Z51" s="9"/>
       <c r="AA51" s="3">
@@ -7323,14 +7324,14 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I52" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>93</v>
@@ -7341,7 +7342,7 @@
       <c r="M52" s="30"/>
       <c r="N52" s="9"/>
       <c r="O52" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P52" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7349,22 +7350,22 @@
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U52" s="3">
         <v>21</v>
       </c>
       <c r="V52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W52" t="s">
         <v>125</v>
       </c>
       <c r="X52" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y52" t="s">
         <v>627</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>628</v>
       </c>
       <c r="Z52" s="9"/>
       <c r="AA52" s="3">
@@ -7396,14 +7397,14 @@
         <v>5</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I53" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>93</v>
@@ -7414,33 +7415,33 @@
       <c r="M53" s="30"/>
       <c r="N53" s="9"/>
       <c r="O53" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P53" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Schnowske, Gavin</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U53" s="3">
         <v>22</v>
       </c>
       <c r="V53" t="s">
+        <v>628</v>
+      </c>
+      <c r="W53" t="s">
         <v>629</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>630</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>631</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>632</v>
       </c>
       <c r="Z53" s="9"/>
       <c r="AA53" s="3">
@@ -7471,14 +7472,14 @@
         <v>5</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I54" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L54" s="4">
         <v>5</v>
@@ -7486,7 +7487,7 @@
       <c r="M54" s="30"/>
       <c r="N54" s="9"/>
       <c r="O54" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P54" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7494,22 +7495,22 @@
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U54" s="3">
         <v>23</v>
       </c>
       <c r="V54" t="s">
+        <v>632</v>
+      </c>
+      <c r="W54" t="s">
         <v>633</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>634</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>635</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>636</v>
       </c>
       <c r="Z54" s="9"/>
       <c r="AA54" s="3">
@@ -7540,14 +7541,14 @@
         <v>4</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I55" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L55" s="4">
         <v>6</v>
@@ -7555,7 +7556,7 @@
       <c r="M55" s="30"/>
       <c r="N55" s="9"/>
       <c r="O55" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P55" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7563,22 +7564,22 @@
       </c>
       <c r="S55" s="9"/>
       <c r="T55" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U55" s="3">
         <v>24</v>
       </c>
       <c r="V55" t="s">
+        <v>636</v>
+      </c>
+      <c r="W55" t="s">
         <v>637</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>638</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>639</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>640</v>
       </c>
       <c r="Z55" s="9"/>
       <c r="AA55" s="3">
@@ -7609,14 +7610,14 @@
         <v>5</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I56" s="30">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L56" s="4">
         <v>4</v>
@@ -7624,7 +7625,7 @@
       <c r="M56" s="30"/>
       <c r="N56" s="9"/>
       <c r="O56" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P56" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7632,22 +7633,22 @@
       </c>
       <c r="S56" s="9"/>
       <c r="T56" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U56" s="3">
         <v>25</v>
       </c>
       <c r="V56" t="s">
+        <v>640</v>
+      </c>
+      <c r="W56" t="s">
+        <v>475</v>
+      </c>
+      <c r="X56" t="s">
         <v>641</v>
       </c>
-      <c r="W56" t="s">
-        <v>476</v>
-      </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>642</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>643</v>
       </c>
       <c r="Z56" s="9"/>
       <c r="AA56" s="3">
@@ -7678,14 +7679,14 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I57" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L57" s="4">
         <v>4</v>
@@ -7693,7 +7694,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="9"/>
       <c r="O57" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P57" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7701,22 +7702,22 @@
       </c>
       <c r="S57" s="9"/>
       <c r="T57" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U57" s="3">
         <v>26</v>
       </c>
       <c r="V57" t="s">
+        <v>643</v>
+      </c>
+      <c r="W57" t="s">
         <v>644</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>645</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>646</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>647</v>
       </c>
       <c r="Z57" s="9"/>
       <c r="AA57" s="3">
@@ -7747,14 +7748,14 @@
         <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I58" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L58" s="4">
         <v>4</v>
@@ -7762,7 +7763,7 @@
       <c r="M58" s="30"/>
       <c r="N58" s="9"/>
       <c r="O58" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P58" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7770,22 +7771,22 @@
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U58" s="3">
         <v>1</v>
       </c>
       <c r="V58" t="s">
+        <v>474</v>
+      </c>
+      <c r="W58" t="s">
         <v>475</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>476</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>477</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>478</v>
       </c>
       <c r="Z58" s="9"/>
       <c r="AA58" s="3">
@@ -7816,7 +7817,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I59" s="30">
         <f t="shared" si="10"/>
@@ -7826,7 +7827,7 @@
         <v>314</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L59" s="4">
         <v>6</v>
@@ -7834,7 +7835,7 @@
       <c r="M59" s="30"/>
       <c r="N59" s="9"/>
       <c r="O59" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P59" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7842,22 +7843,22 @@
       </c>
       <c r="S59" s="9"/>
       <c r="T59" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U59" s="3">
         <v>2</v>
       </c>
       <c r="V59" t="s">
+        <v>525</v>
+      </c>
+      <c r="W59" t="s">
         <v>526</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>527</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>528</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>529</v>
       </c>
       <c r="Z59" s="9"/>
       <c r="AA59" s="3">
@@ -7888,7 +7889,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I60" s="30">
         <f t="shared" si="10"/>
@@ -7906,7 +7907,7 @@
       <c r="M60" s="30"/>
       <c r="N60" s="9"/>
       <c r="O60" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P60" s="3" t="str">
         <f t="shared" si="11"/>
@@ -7914,7 +7915,7 @@
       </c>
       <c r="S60" s="9"/>
       <c r="T60" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U60" s="3">
         <v>3</v>
@@ -7936,7 +7937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -7960,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I61" s="30">
         <f t="shared" si="10"/>
@@ -7975,30 +7976,33 @@
       <c r="M61" s="30"/>
       <c r="N61" s="9"/>
       <c r="O61" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P61" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Frantz, Shane</v>
       </c>
+      <c r="R61" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S61" s="9"/>
       <c r="T61" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U61" s="3">
         <v>4</v>
       </c>
       <c r="V61" t="s">
+        <v>529</v>
+      </c>
+      <c r="W61" t="s">
         <v>530</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>531</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>532</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>533</v>
       </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="3">
@@ -8029,14 +8033,14 @@
         <v>2</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I62" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L62" s="4">
         <v>1</v>
@@ -8044,7 +8048,7 @@
       <c r="M62" s="30"/>
       <c r="N62" s="9"/>
       <c r="O62" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P62" s="3" t="str">
         <f t="shared" si="11"/>
@@ -8052,22 +8056,22 @@
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U62" s="3">
         <v>5</v>
       </c>
       <c r="V62" t="s">
+        <v>533</v>
+      </c>
+      <c r="W62" t="s">
         <v>534</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>535</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>536</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>537</v>
       </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="3">
@@ -8098,14 +8102,14 @@
         <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I63" s="30">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L63" s="4">
         <v>2</v>
@@ -8113,7 +8117,7 @@
       <c r="M63" s="30"/>
       <c r="N63" s="9"/>
       <c r="O63" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P63" s="3" t="str">
         <f t="shared" si="11"/>
@@ -8121,22 +8125,22 @@
       </c>
       <c r="S63" s="9"/>
       <c r="T63" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U63" s="3">
         <v>6</v>
       </c>
       <c r="V63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W63" t="s">
         <v>4</v>
       </c>
       <c r="X63" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y63" t="s">
         <v>539</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>540</v>
       </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="3">
@@ -8167,14 +8171,14 @@
         <v>2</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I64" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L64" s="4">
         <v>3</v>
@@ -8182,7 +8186,7 @@
       <c r="M64" s="30"/>
       <c r="N64" s="9"/>
       <c r="O64" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P64" s="3" t="str">
         <f t="shared" si="11"/>
@@ -8190,7 +8194,7 @@
       </c>
       <c r="S64" s="9"/>
       <c r="T64" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U64" s="3">
         <v>7</v>
@@ -8236,14 +8240,14 @@
         <v>2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I65" s="30">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L65" s="4">
         <v>6</v>
@@ -8251,7 +8255,7 @@
       <c r="M65" s="30"/>
       <c r="N65" s="9"/>
       <c r="O65" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P65" s="3" t="str">
         <f t="shared" si="11"/>
@@ -8259,7 +8263,7 @@
       </c>
       <c r="S65" s="9"/>
       <c r="T65" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U65" s="3">
         <v>8</v>
@@ -8268,13 +8272,13 @@
         <v>158</v>
       </c>
       <c r="W65" t="s">
+        <v>540</v>
+      </c>
+      <c r="X65" t="s">
         <v>541</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>542</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>543</v>
       </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="3">
@@ -8305,14 +8309,14 @@
         <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I66" s="30">
         <f t="shared" ref="I66:I92" si="16">G66</f>
         <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>93</v>
@@ -8323,7 +8327,7 @@
       <c r="M66" s="30"/>
       <c r="N66" s="9"/>
       <c r="O66" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P66" s="3" t="str">
         <f t="shared" ref="P66:P93" si="17">CONCATENATE(V66,", ",W66)</f>
@@ -8331,22 +8335,22 @@
       </c>
       <c r="S66" s="9"/>
       <c r="T66" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U66" s="3">
         <v>9</v>
       </c>
       <c r="V66" t="s">
+        <v>543</v>
+      </c>
+      <c r="W66" t="s">
         <v>544</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>545</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>546</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>547</v>
       </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="3">
@@ -8377,14 +8381,14 @@
         <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I67" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>93</v>
@@ -8395,7 +8399,7 @@
       <c r="M67" s="30"/>
       <c r="N67" s="9"/>
       <c r="O67" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P67" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8403,29 +8407,29 @@
       </c>
       <c r="S67" s="9"/>
       <c r="T67" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U67" s="3">
         <v>10</v>
       </c>
       <c r="V67" t="s">
+        <v>547</v>
+      </c>
+      <c r="W67" t="s">
         <v>548</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>549</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>550</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>551</v>
       </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8434,7 +8438,7 @@
         <v>426</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" si="12"/>
@@ -8452,22 +8456,24 @@
         <v>3</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I68" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L68" s="4">
         <v>1</v>
       </c>
-      <c r="M68" s="30"/>
+      <c r="M68" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="N68" s="9"/>
       <c r="O68" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P68" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8475,29 +8481,29 @@
       </c>
       <c r="S68" s="9"/>
       <c r="T68" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U68" s="3">
         <v>1</v>
       </c>
       <c r="V68" t="s">
+        <v>474</v>
+      </c>
+      <c r="W68" t="s">
         <v>475</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>476</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>477</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>478</v>
       </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8506,7 +8512,7 @@
         <v>426</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" si="12"/>
@@ -8517,28 +8523,30 @@
         <v>Z Albaz</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G69" s="3">
         <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I69" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L69" s="4">
         <v>3</v>
       </c>
-      <c r="M69" s="30"/>
+      <c r="M69" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="N69" s="9"/>
       <c r="O69" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P69" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8546,29 +8554,29 @@
       </c>
       <c r="S69" s="9"/>
       <c r="T69" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U69" s="3">
         <v>2</v>
       </c>
       <c r="V69" t="s">
+        <v>478</v>
+      </c>
+      <c r="W69" t="s">
         <v>479</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>480</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>481</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>482</v>
       </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8592,14 +8600,14 @@
         <v>3</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I70" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>397</v>
@@ -8607,10 +8615,12 @@
       <c r="L70" s="4">
         <v>3</v>
       </c>
-      <c r="M70" s="30"/>
+      <c r="M70" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="N70" s="9"/>
       <c r="O70" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P70" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8618,29 +8628,29 @@
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U70" s="3">
         <v>3</v>
       </c>
       <c r="V70" t="s">
+        <v>482</v>
+      </c>
+      <c r="W70" t="s">
         <v>483</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>484</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>485</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>486</v>
       </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8664,22 +8674,24 @@
         <v>3</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I71" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L71" s="4">
         <v>3</v>
       </c>
-      <c r="M71" s="30"/>
+      <c r="M71" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="N71" s="9"/>
       <c r="O71" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P71" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8687,29 +8699,29 @@
       </c>
       <c r="S71" s="9"/>
       <c r="T71" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U71" s="3">
         <v>4</v>
       </c>
       <c r="V71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W71" t="s">
         <v>175</v>
       </c>
       <c r="X71" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y71" t="s">
         <v>488</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>489</v>
       </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8733,22 +8745,24 @@
         <v>2</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I72" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L72" s="4">
         <v>4</v>
       </c>
-      <c r="M72" s="30"/>
+      <c r="M72" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="N72" s="9"/>
       <c r="O72" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P72" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8756,29 +8770,29 @@
       </c>
       <c r="S72" s="9"/>
       <c r="T72" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U72" s="3">
         <v>5</v>
       </c>
       <c r="V72" t="s">
+        <v>489</v>
+      </c>
+      <c r="W72" t="s">
         <v>490</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>491</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>492</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>493</v>
       </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8795,20 +8809,20 @@
         <v>Joey Devito</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I73" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>93</v>
@@ -8816,10 +8830,12 @@
       <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="M73" s="30"/>
+      <c r="M73" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="N73" s="9"/>
       <c r="O73" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P73" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8827,29 +8843,29 @@
       </c>
       <c r="S73" s="9"/>
       <c r="T73" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U73" s="3">
         <v>6</v>
       </c>
       <c r="V73" t="s">
+        <v>493</v>
+      </c>
+      <c r="W73" t="s">
         <v>494</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>495</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>496</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>497</v>
       </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8858,7 +8874,7 @@
         <v>426</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" si="12"/>
@@ -8876,14 +8892,14 @@
         <v>3</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I74" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>93</v>
@@ -8891,10 +8907,12 @@
       <c r="L74" s="4">
         <v>1</v>
       </c>
-      <c r="M74" s="30"/>
+      <c r="M74" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="N74" s="9"/>
       <c r="O74" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P74" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8902,29 +8920,29 @@
       </c>
       <c r="S74" s="9"/>
       <c r="T74" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U74" s="3">
         <v>7</v>
       </c>
       <c r="V74" t="s">
+        <v>497</v>
+      </c>
+      <c r="W74" t="s">
         <v>498</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>499</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>500</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>501</v>
       </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8948,14 +8966,14 @@
         <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I75" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>397</v>
@@ -8966,7 +8984,7 @@
       <c r="M75" s="30"/>
       <c r="N75" s="9"/>
       <c r="O75" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P75" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8974,29 +8992,29 @@
       </c>
       <c r="S75" s="9"/>
       <c r="T75" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U75" s="3">
         <v>8</v>
       </c>
       <c r="V75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W75" t="s">
         <v>109</v>
       </c>
       <c r="X75" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y75" t="s">
         <v>503</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>504</v>
       </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9020,14 +9038,14 @@
         <v>1</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I76" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L76" s="4">
         <v>3</v>
@@ -9035,7 +9053,7 @@
       <c r="M76" s="30"/>
       <c r="N76" s="9"/>
       <c r="O76" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P76" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9043,29 +9061,29 @@
       </c>
       <c r="S76" s="9"/>
       <c r="T76" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U76" s="3">
         <v>9</v>
       </c>
       <c r="V76" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W76" t="s">
+        <v>504</v>
+      </c>
+      <c r="X76" t="s">
         <v>505</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>506</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>507</v>
       </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9082,20 +9100,20 @@
         <v>Chris Jules</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I77" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>93</v>
@@ -9106,7 +9124,7 @@
       <c r="M77" s="30"/>
       <c r="N77" s="9"/>
       <c r="O77" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P77" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9114,29 +9132,29 @@
       </c>
       <c r="S77" s="9"/>
       <c r="T77" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U77" s="3">
         <v>10</v>
       </c>
       <c r="V77" t="s">
+        <v>507</v>
+      </c>
+      <c r="W77" t="s">
         <v>508</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>509</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>510</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>511</v>
       </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9145,7 +9163,7 @@
         <v>426</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" si="12"/>
@@ -9163,22 +9181,24 @@
         <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I78" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L78" s="4">
         <v>4</v>
       </c>
-      <c r="M78" s="30"/>
+      <c r="M78" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="N78" s="9"/>
       <c r="O78" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P78" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9186,29 +9206,29 @@
       </c>
       <c r="S78" s="9"/>
       <c r="T78" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U78" s="3">
         <v>11</v>
       </c>
       <c r="V78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W78" t="s">
         <v>311</v>
       </c>
       <c r="X78" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y78" t="s">
         <v>513</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>514</v>
       </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9217,7 +9237,7 @@
         <v>426</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" si="12"/>
@@ -9235,14 +9255,14 @@
         <v>2</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I79" s="30">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>397</v>
@@ -9250,10 +9270,12 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="30"/>
+      <c r="M79" s="30" t="s">
+        <v>451</v>
+      </c>
       <c r="N79" s="9"/>
       <c r="O79" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P79" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9261,29 +9283,29 @@
       </c>
       <c r="S79" s="9"/>
       <c r="T79" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U79" s="3">
         <v>12</v>
       </c>
       <c r="V79" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W79" t="s">
         <v>427</v>
       </c>
       <c r="X79" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y79" t="s">
         <v>516</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>517</v>
       </c>
       <c r="Z79" s="9"/>
       <c r="AA79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9300,28 +9322,30 @@
         <v>Ben Smith</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G80" s="3">
         <v>3</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I80" s="30">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="30"/>
+      <c r="M80" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="N80" s="9"/>
       <c r="O80" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P80" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9329,7 +9353,7 @@
       </c>
       <c r="S80" s="9"/>
       <c r="T80" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U80" s="3">
         <v>13</v>
@@ -9338,20 +9362,20 @@
         <v>10</v>
       </c>
       <c r="W80" t="s">
+        <v>517</v>
+      </c>
+      <c r="X80" t="s">
         <v>518</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>519</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>520</v>
       </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9375,14 +9399,14 @@
         <v>1</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I81" s="30">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L81" s="4">
         <v>2</v>
@@ -9390,7 +9414,7 @@
       <c r="M81" s="30"/>
       <c r="N81" s="9"/>
       <c r="O81" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P81" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9398,29 +9422,29 @@
       </c>
       <c r="S81" s="9"/>
       <c r="T81" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U81" s="3">
         <v>14</v>
       </c>
       <c r="V81" t="s">
+        <v>520</v>
+      </c>
+      <c r="W81" t="s">
         <v>521</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>522</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>523</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>524</v>
       </c>
       <c r="Z81" s="9"/>
       <c r="AA81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9444,6 +9468,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J82" s="3" t="str">
+        <f>M82</f>
+        <v>Draft</v>
+      </c>
       <c r="K82" s="3" t="s">
         <v>93</v>
       </c>
@@ -9451,11 +9479,11 @@
         <v>3</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>460</v>
+        <v>815</v>
       </c>
       <c r="N82" s="9"/>
       <c r="O82" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P82" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9485,7 +9513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9502,12 +9530,16 @@
         <v>Steve Feddes</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I83" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J83" s="3" t="str">
+        <f t="shared" ref="J83:J92" si="18">M83</f>
+        <v>Draft</v>
+      </c>
       <c r="K83" s="3" t="s">
         <v>397</v>
       </c>
@@ -9515,11 +9547,11 @@
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>460</v>
+        <v>815</v>
       </c>
       <c r="N83" s="9"/>
       <c r="O83" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P83" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9549,7 +9581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9573,15 +9605,19 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J84" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>ECaMS Billboard</v>
+      </c>
       <c r="L84" s="4">
         <v>5</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N84" s="9"/>
       <c r="O84" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P84" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9611,7 +9647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9635,15 +9671,19 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J85" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>ECaMS Billboard</v>
+      </c>
       <c r="L85" s="4">
         <v>6</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N85" s="9"/>
       <c r="O85" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P85" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9673,7 +9713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9697,15 +9737,19 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J86" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>ECaMS Billboard</v>
+      </c>
       <c r="L86" s="4">
         <v>1</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N86" s="9"/>
       <c r="O86" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P86" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9719,23 +9763,23 @@
         <v>5</v>
       </c>
       <c r="V86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W86" t="s">
         <v>175</v>
       </c>
       <c r="X86" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y86" t="s">
         <v>463</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>464</v>
       </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9759,6 +9803,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J87" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>QuizMaster</v>
+      </c>
       <c r="L87" s="4">
         <v>2</v>
       </c>
@@ -9767,7 +9815,7 @@
       </c>
       <c r="N87" s="9"/>
       <c r="O87" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P87" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9797,7 +9845,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9821,15 +9869,19 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J88" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>ECaMS Billboard</v>
+      </c>
       <c r="L88" s="4">
         <v>3</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N88" s="9"/>
       <c r="O88" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P88" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9859,7 +9911,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9883,6 +9935,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J89" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>QuizMaster</v>
+      </c>
       <c r="K89" s="3" t="s">
         <v>93</v>
       </c>
@@ -9894,7 +9950,7 @@
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P89" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9924,7 +9980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9948,6 +10004,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J90" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>QuizMaster</v>
+      </c>
       <c r="L90" s="4">
         <v>5</v>
       </c>
@@ -9956,7 +10016,7 @@
       </c>
       <c r="N90" s="9"/>
       <c r="O90" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P90" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9970,41 +10030,45 @@
         <v>9</v>
       </c>
       <c r="V90" t="s">
+        <v>464</v>
+      </c>
+      <c r="W90" t="s">
         <v>465</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>466</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>467</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>468</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f t="shared" ref="A91" si="18">RIGHT(T91,9)</f>
+        <f t="shared" ref="A91" si="19">RIGHT(T91,9)</f>
         <v>49200-001</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ref="D91" si="19">U91</f>
+        <f t="shared" ref="D91" si="20">U91</f>
         <v>0</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" ref="E91" si="20">CONCATENATE(F91," ",V91)</f>
+        <f t="shared" ref="E91" si="21">CONCATENATE(F91," ",V91)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" ref="F91" si="21">W91</f>
+        <f t="shared" ref="F91" si="22">W91</f>
         <v>Julie</v>
+      </c>
+      <c r="J91" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>QuizMaster</v>
       </c>
       <c r="L91" s="4">
         <v>3</v>
@@ -10014,7 +10078,7 @@
       </c>
       <c r="N91" s="9"/>
       <c r="O91" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P91" s="3" t="str">
         <f t="shared" si="17"/>
@@ -10038,7 +10102,7 @@
       </c>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10062,6 +10126,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="J92" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>QuizMaster</v>
+      </c>
       <c r="L92" s="4">
         <v>6</v>
       </c>
@@ -10070,7 +10138,7 @@
       </c>
       <c r="N92" s="9"/>
       <c r="O92" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P92" s="3" t="str">
         <f t="shared" si="17"/>
@@ -10084,16 +10152,16 @@
         <v>10</v>
       </c>
       <c r="V92" t="s">
+        <v>468</v>
+      </c>
+      <c r="W92" t="s">
         <v>469</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>470</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>471</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>472</v>
       </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="3">
@@ -10149,17 +10217,13 @@
   <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="24700-001"/>
+        <filter val="44000-001"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="TaDa"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BDAF9-FE4B-554A-8285-5D890992053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9AA1A8-EBA1-924A-BF8D-1E87D437BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50780" yWindow="1220" windowWidth="49740" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="340" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -211,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="817">
   <si>
     <t>Last Name</t>
   </si>
@@ -2659,6 +2658,9 @@
   </si>
   <si>
     <t>Draft</t>
+  </si>
+  <si>
+    <t>CodingKickstart</t>
   </si>
 </sst>
 </file>
@@ -3707,7 +3709,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5898,7 +5900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5973,7 +5975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -6041,7 +6043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(T34,9)</f>
         <v>20000-003</v>
@@ -6110,7 +6112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6178,7 +6180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6246,7 +6248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6321,7 +6323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6393,7 +6395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6461,7 +6463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6533,7 +6535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6605,7 +6607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6673,7 +6675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6742,7 +6744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6810,7 +6812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6879,7 +6881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6948,7 +6950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7017,7 +7019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7089,7 +7091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7161,7 +7163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7230,7 +7232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7299,7 +7301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7372,7 +7374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7448,7 +7450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7517,7 +7519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7586,7 +7588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7655,7 +7657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8429,7 +8431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8503,7 +8505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8576,7 +8578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8650,7 +8652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8721,7 +8723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8792,7 +8794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8865,7 +8867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8942,7 +8944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8981,7 +8983,9 @@
       <c r="L75" s="4">
         <v>2</v>
       </c>
-      <c r="M75" s="30"/>
+      <c r="M75" s="30" t="s">
+        <v>816</v>
+      </c>
       <c r="N75" s="9"/>
       <c r="O75" s="33" t="s">
         <v>799</v>
@@ -9014,7 +9018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9050,7 +9054,9 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="30"/>
+      <c r="M76" s="30" t="s">
+        <v>816</v>
+      </c>
       <c r="N76" s="9"/>
       <c r="O76" s="33" t="s">
         <v>799</v>
@@ -9083,7 +9089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9121,7 +9127,9 @@
       <c r="L77" s="4">
         <v>4</v>
       </c>
-      <c r="M77" s="30"/>
+      <c r="M77" s="30" t="s">
+        <v>816</v>
+      </c>
       <c r="N77" s="9"/>
       <c r="O77" s="33" t="s">
         <v>799</v>
@@ -9154,7 +9162,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9228,7 +9236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9305,7 +9313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9375,7 +9383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9411,7 +9419,9 @@
       <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="M81" s="30"/>
+      <c r="M81" s="30" t="s">
+        <v>816</v>
+      </c>
       <c r="N81" s="9"/>
       <c r="O81" s="33" t="s">
         <v>799</v>
@@ -9444,7 +9454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9513,7 +9523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9581,7 +9591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9647,7 +9657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9713,7 +9723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9779,7 +9789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9845,7 +9855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9911,7 +9921,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9980,7 +9990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10046,7 +10056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="19">RIGHT(T91,9)</f>
         <v>49200-001</v>
@@ -10102,7 +10112,7 @@
       </c>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10217,8 +10227,7 @@
   <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
-        <filter val="49200-001"/>
+        <filter val="20000-003"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9AA1A8-EBA1-924A-BF8D-1E87D437BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC9749-84CE-0E4C-8B32-5505CE28D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="340" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46280" yWindow="1500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="827">
   <si>
     <t>Last Name</t>
   </si>
@@ -2657,10 +2657,40 @@
     <t>10/10/10/4 (wow!)</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
     <t>CodingKickstart</t>
+  </si>
+  <si>
+    <t>Timer -&gt; Bio</t>
+  </si>
+  <si>
+    <t>10/10/8-10/4</t>
+  </si>
+  <si>
+    <t>Not in-person</t>
+  </si>
+  <si>
+    <t>Hangman</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Matchmaker Python</t>
+  </si>
+  <si>
+    <t>10/10/8/4</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony </t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>MocDraft</t>
   </si>
 </sst>
 </file>
@@ -3708,8 +3738,8 @@
   </sheetPr>
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3862,6 +3892,12 @@
         <f t="shared" ref="P2:P33" si="4">CONCATENATE(V2,", ",W2)</f>
         <v>Adelman, Elizabeth</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S2" s="9"/>
       <c r="T2" s="3" t="s">
         <v>755</v>
@@ -3931,6 +3967,12 @@
         <f t="shared" si="4"/>
         <v>Bota, Alan</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S3" s="9"/>
       <c r="T3" s="3" t="s">
         <v>755</v>
@@ -3993,7 +4035,7 @@
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="25" t="s">
         <v>802</v>
       </c>
       <c r="P4" s="3" t="str">
@@ -4129,6 +4171,9 @@
         <f t="shared" si="4"/>
         <v>Faulstroh, Joshua</v>
       </c>
+      <c r="R6" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="S6" s="9"/>
       <c r="T6" s="3" t="s">
         <v>755</v>
@@ -4197,6 +4242,12 @@
       <c r="P7" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Fornero, Angelo</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>807</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="3" t="s">
@@ -4397,6 +4448,7 @@
         <f t="shared" si="4"/>
         <v>Hammonds, Cherokee</v>
       </c>
+      <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="9"/>
       <c r="T10" s="3" t="s">
@@ -4467,6 +4519,12 @@
         <f t="shared" si="4"/>
         <v>Hernandez, Erick</v>
       </c>
+      <c r="Q11" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="3" t="s">
         <v>755</v>
@@ -4539,6 +4597,12 @@
         <f t="shared" si="4"/>
         <v>Hiser, Cael</v>
       </c>
+      <c r="Q12" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S12" s="9"/>
       <c r="T12" s="3" t="s">
         <v>755</v>
@@ -4608,6 +4672,12 @@
         <f t="shared" si="4"/>
         <v>Hoying, Cameron</v>
       </c>
+      <c r="Q13" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S13" s="9"/>
       <c r="T13" s="3" t="s">
         <v>755</v>
@@ -4748,6 +4818,12 @@
         <f t="shared" si="4"/>
         <v>Kelty, Ryan</v>
       </c>
+      <c r="Q15" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="3" t="s">
         <v>755</v>
@@ -4819,6 +4895,12 @@
         <f t="shared" si="4"/>
         <v>Krzysiak, Nicholas</v>
       </c>
+      <c r="Q16" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S16" s="9"/>
       <c r="T16" s="3" t="s">
         <v>755</v>
@@ -5035,6 +5117,7 @@
         <f t="shared" si="4"/>
         <v>Mian, Hassaan</v>
       </c>
+      <c r="Q19" s="12"/>
       <c r="S19" s="9"/>
       <c r="T19" s="3" t="s">
         <v>755</v>
@@ -5178,6 +5261,12 @@
         <f t="shared" si="4"/>
         <v>Morelli, Anthony</v>
       </c>
+      <c r="Q21" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="S21" s="9"/>
       <c r="T21" s="3" t="s">
         <v>755</v>
@@ -5316,6 +5405,7 @@
         <f t="shared" si="4"/>
         <v>Pohancek, Jordan</v>
       </c>
+      <c r="Q23" s="12"/>
       <c r="S23" s="9"/>
       <c r="T23" s="3" t="s">
         <v>755</v>
@@ -5385,6 +5475,7 @@
         <f t="shared" si="4"/>
         <v>Rehus, Adam</v>
       </c>
+      <c r="Q24" s="12"/>
       <c r="S24" s="9"/>
       <c r="T24" s="3" t="s">
         <v>755</v>
@@ -5453,6 +5544,12 @@
         <f t="shared" si="4"/>
         <v>Ringelsten, Vincent</v>
       </c>
+      <c r="Q25" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S25" s="9"/>
       <c r="T25" s="3" t="s">
         <v>755</v>
@@ -5521,6 +5618,12 @@
         <f t="shared" si="4"/>
         <v>Rodriguez, Edward</v>
       </c>
+      <c r="Q26" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S26" s="9"/>
       <c r="T26" s="3" t="s">
         <v>755</v>
@@ -5807,6 +5910,9 @@
         <f t="shared" si="4"/>
         <v>Sittler, Matthew</v>
       </c>
+      <c r="R30" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="S30" s="9"/>
       <c r="T30" s="3" t="s">
         <v>755</v>
@@ -5876,6 +5982,9 @@
         <f t="shared" si="4"/>
         <v>Varchetto, Dominic</v>
       </c>
+      <c r="R31" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S31" s="9"/>
       <c r="T31" s="3" t="s">
         <v>755</v>
@@ -5900,7 +6009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -5975,7 +6084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -6043,7 +6152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(T34,9)</f>
         <v>20000-003</v>
@@ -6112,7 +6221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6180,7 +6289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6248,7 +6357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6323,7 +6432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6395,7 +6504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6463,7 +6572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6535,7 +6644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6607,7 +6716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6675,7 +6784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6744,7 +6853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6812,7 +6921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6881,7 +6990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6950,7 +7059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7019,7 +7128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7091,7 +7200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7163,7 +7272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7232,7 +7341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7301,7 +7410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7374,7 +7483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7450,7 +7559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7519,7 +7628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7588,7 +7697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7657,7 +7766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -8431,7 +8540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8505,7 +8614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8578,7 +8687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8652,7 +8761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8723,7 +8832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8794,7 +8903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8867,7 +8976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8944,7 +9053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8984,7 +9093,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N75" s="9"/>
       <c r="O75" s="33" t="s">
@@ -9018,7 +9127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9055,7 +9164,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N76" s="9"/>
       <c r="O76" s="33" t="s">
@@ -9089,7 +9198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9128,7 +9237,7 @@
         <v>4</v>
       </c>
       <c r="M77" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N77" s="9"/>
       <c r="O77" s="33" t="s">
@@ -9162,7 +9271,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9236,7 +9345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9313,7 +9422,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9383,7 +9492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9420,7 +9529,7 @@
         <v>2</v>
       </c>
       <c r="M81" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N81" s="9"/>
       <c r="O81" s="33" t="s">
@@ -9454,7 +9563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9480,7 +9589,7 @@
       </c>
       <c r="J82" s="3" t="str">
         <f>M82</f>
-        <v>Draft</v>
+        <v>MocDraft</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>93</v>
@@ -9489,7 +9598,7 @@
         <v>3</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="N82" s="9"/>
       <c r="O82" s="33" t="s">
@@ -9523,7 +9632,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9548,7 +9657,7 @@
       </c>
       <c r="J83" s="3" t="str">
         <f t="shared" ref="J83:J92" si="18">M83</f>
-        <v>Draft</v>
+        <v>MocDraft</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>397</v>
@@ -9557,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="N83" s="9"/>
       <c r="O83" s="33" t="s">
@@ -9591,7 +9700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9657,7 +9766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9723,7 +9832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9789,7 +9898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9855,7 +9964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9921,7 +10030,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9990,7 +10099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10056,7 +10165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="19">RIGHT(T91,9)</f>
         <v>49200-001</v>
@@ -10112,7 +10221,7 @@
       </c>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10227,7 +10336,8 @@
   <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-003"/>
+        <filter val="44000-001"/>
+        <filter val="49200-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC9749-84CE-0E4C-8B32-5505CE28D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807FEB7-0960-BA44-8045-E21E12983E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46280" yWindow="1500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="834">
   <si>
     <t>Last Name</t>
   </si>
@@ -2691,6 +2691,27 @@
   </si>
   <si>
     <t>MocDraft</t>
+  </si>
+  <si>
+    <t>10/10/7-10/4</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>10/10/8-10/4 (feature list)</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>8-10 (no DB)</t>
   </si>
 </sst>
 </file>
@@ -2896,7 +2917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3160,6 +3181,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3321,7 +3354,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3373,6 +3406,13 @@
     <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3738,8 +3778,8 @@
   </sheetPr>
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3758,7 +3798,7 @@
     <col min="12" max="12" width="7" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -8540,7 +8580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8559,22 +8599,25 @@
         <f t="shared" si="14"/>
         <v>David Abrutis</v>
       </c>
-      <c r="F68" s="3" t="str">
+      <c r="F68" s="25" t="str">
         <f t="shared" si="15"/>
         <v>David</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="25">
         <v>3</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="35">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="25" t="s">
         <v>792</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="L68" s="4">
         <v>1</v>
@@ -8590,6 +8633,9 @@
         <f t="shared" si="17"/>
         <v>Abrutis, David</v>
       </c>
+      <c r="R68" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S68" s="9"/>
       <c r="T68" s="3" t="s">
         <v>524</v>
@@ -8614,7 +8660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8633,22 +8679,23 @@
         <f t="shared" si="14"/>
         <v>Z Albaz</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="25">
         <v>2</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="I69" s="30">
+      <c r="I69" s="35">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="25" t="s">
         <v>777</v>
       </c>
+      <c r="K69" s="37"/>
       <c r="L69" s="4">
         <v>3</v>
       </c>
@@ -8687,7 +8734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8720,9 +8767,6 @@
       <c r="J70" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="L70" s="4">
         <v>3</v>
       </c>
@@ -8737,6 +8781,9 @@
         <f t="shared" si="17"/>
         <v>Alfaro, Fernando</v>
       </c>
+      <c r="R70" s="3" t="s">
+        <v>829</v>
+      </c>
       <c r="S70" s="9"/>
       <c r="T70" s="3" t="s">
         <v>524</v>
@@ -8761,7 +8808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8808,6 +8855,9 @@
         <f t="shared" si="17"/>
         <v>Anderson, Ryan</v>
       </c>
+      <c r="R71" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S71" s="9"/>
       <c r="T71" s="3" t="s">
         <v>524</v>
@@ -8832,7 +8882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8879,6 +8929,9 @@
         <f t="shared" si="17"/>
         <v>Cherrington, Jefferson</v>
       </c>
+      <c r="R72" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S72" s="9"/>
       <c r="T72" s="3" t="s">
         <v>524</v>
@@ -8903,7 +8956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8935,9 +8988,6 @@
       <c r="J73" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="L73" s="4">
         <v>4</v>
       </c>
@@ -8952,6 +9002,9 @@
         <f t="shared" si="17"/>
         <v>Devito, Joseph</v>
       </c>
+      <c r="R73" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S73" s="9"/>
       <c r="T73" s="3" t="s">
         <v>524</v>
@@ -8976,7 +9029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8995,21 +9048,21 @@
         <f t="shared" si="14"/>
         <v>Pablo Enriquez</v>
       </c>
-      <c r="F74" s="3" t="str">
+      <c r="F74" s="25" t="str">
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="25">
         <v>3</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I74" s="35">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="25" t="s">
         <v>792</v>
       </c>
       <c r="K74" s="3" t="s">
@@ -9028,6 +9081,9 @@
       <c r="P74" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Enriquez, Pablo</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="S74" s="9"/>
       <c r="T74" s="3" t="s">
@@ -9103,6 +9159,9 @@
         <f t="shared" si="17"/>
         <v>Jaber, Adam</v>
       </c>
+      <c r="R75" s="39" t="s">
+        <v>833</v>
+      </c>
       <c r="S75" s="9"/>
       <c r="T75" s="3" t="s">
         <v>524</v>
@@ -9174,6 +9233,9 @@
         <f t="shared" si="17"/>
         <v>Joseph, Jubin</v>
       </c>
+      <c r="R76" s="39" t="s">
+        <v>832</v>
+      </c>
       <c r="S76" s="9"/>
       <c r="T76" s="3" t="s">
         <v>524</v>
@@ -9247,6 +9309,9 @@
         <f t="shared" si="17"/>
         <v>Jules, Christopher</v>
       </c>
+      <c r="R77" s="38" t="s">
+        <v>830</v>
+      </c>
       <c r="S77" s="9"/>
       <c r="T77" s="3" t="s">
         <v>524</v>
@@ -9271,7 +9336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9290,22 +9355,25 @@
         <f t="shared" si="14"/>
         <v>Alex Kaminski</v>
       </c>
-      <c r="F78" s="3" t="str">
+      <c r="F78" s="25" t="str">
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="25">
         <v>2</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="I78" s="30">
+      <c r="I78" s="35">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="25" t="s">
         <v>777</v>
+      </c>
+      <c r="K78" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="L78" s="4">
         <v>4</v>
@@ -9345,7 +9413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9364,24 +9432,24 @@
         <f t="shared" si="14"/>
         <v>James Mackowiak</v>
       </c>
-      <c r="F79" s="3" t="str">
+      <c r="F79" s="25" t="str">
         <f t="shared" si="15"/>
         <v>James</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="25">
         <v>2</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="I79" s="30">
+      <c r="I79" s="35">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="37" t="s">
         <v>397</v>
       </c>
       <c r="L79" s="4">
@@ -9422,7 +9490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9467,6 +9535,9 @@
       <c r="P80" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Smith, Benjamin</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="S80" s="9"/>
       <c r="T80" s="3" t="s">
@@ -9539,6 +9610,9 @@
         <f t="shared" si="17"/>
         <v>Soans, Grover</v>
       </c>
+      <c r="R81" s="39" t="s">
+        <v>831</v>
+      </c>
       <c r="S81" s="9"/>
       <c r="T81" s="3" t="s">
         <v>524</v>
@@ -9563,7 +9637,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9632,7 +9706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9700,7 +9774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9742,6 +9816,9 @@
         <f t="shared" si="17"/>
         <v>Groppe, Katherine</v>
       </c>
+      <c r="R84" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S84" s="9"/>
       <c r="T84" s="3" t="s">
         <v>452</v>
@@ -9766,7 +9843,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9808,6 +9885,9 @@
         <f t="shared" si="17"/>
         <v>Koldoff, Collin</v>
       </c>
+      <c r="R85" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="S85" s="9"/>
       <c r="T85" s="3" t="s">
         <v>452</v>
@@ -9832,7 +9912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9874,6 +9954,9 @@
         <f t="shared" si="17"/>
         <v>Leiteritz, Ryan</v>
       </c>
+      <c r="R86" s="3" t="s">
+        <v>827</v>
+      </c>
       <c r="S86" s="9"/>
       <c r="T86" s="3" t="s">
         <v>452</v>
@@ -9898,7 +9981,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9940,6 +10023,9 @@
         <f t="shared" si="17"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
+      <c r="R87" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S87" s="9"/>
       <c r="T87" s="3" t="s">
         <v>452</v>
@@ -9964,7 +10050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10006,6 +10092,9 @@
         <f t="shared" si="17"/>
         <v>Piwoni, Justina</v>
       </c>
+      <c r="R88" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S88" s="9"/>
       <c r="T88" s="3" t="s">
         <v>452</v>
@@ -10030,7 +10119,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10058,9 +10147,6 @@
         <f t="shared" si="18"/>
         <v>QuizMaster</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="L89" s="4">
         <v>4</v>
       </c>
@@ -10075,6 +10161,9 @@
         <f t="shared" si="17"/>
         <v>Senese, Matthew</v>
       </c>
+      <c r="R89" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S89" s="9"/>
       <c r="T89" s="3" t="s">
         <v>452</v>
@@ -10099,7 +10188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10141,6 +10230,9 @@
         <f t="shared" si="17"/>
         <v>Stewart, Jahi</v>
       </c>
+      <c r="R90" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S90" s="9"/>
       <c r="T90" s="3" t="s">
         <v>452</v>
@@ -10165,7 +10257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="19">RIGHT(T91,9)</f>
         <v>49200-001</v>
@@ -10203,6 +10295,9 @@
         <f t="shared" si="17"/>
         <v>Dosher, Julie</v>
       </c>
+      <c r="R91" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S91" s="9"/>
       <c r="T91" s="3" t="s">
         <v>452</v>
@@ -10221,7 +10316,7 @@
       </c>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10343,6 +10438,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="CodingKickstart"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807FEB7-0960-BA44-8045-E21E12983E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE6D5D2-381C-204C-B50B-A18C7310147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="841">
   <si>
     <t>Last Name</t>
   </si>
@@ -2712,6 +2712,27 @@
   </si>
   <si>
     <t>8-10 (no DB)</t>
+  </si>
+  <si>
+    <t>10/8/8/4</t>
+  </si>
+  <si>
+    <t>10/7/7/4</t>
+  </si>
+  <si>
+    <t>Clyx/\10/10/10/4</t>
+  </si>
+  <si>
+    <t>CatDraw:10/10/10/4</t>
+  </si>
+  <si>
+    <t>10/10/10/4 (plus tutorial_)</t>
+  </si>
+  <si>
+    <t>10/10/10/4 (great game)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake: </t>
   </si>
 </sst>
 </file>
@@ -3778,8 +3799,8 @@
   </sheetPr>
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3798,7 +3819,7 @@
     <col min="12" max="12" width="7" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" style="3" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -6341,7 +6362,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E36" s="3" t="str">
+      <c r="E36" s="33" t="str">
         <f t="shared" si="8"/>
         <v>Joe Egan</v>
       </c>
@@ -6372,6 +6393,9 @@
       <c r="P36" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Egan, Joseph</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>807</v>
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="3" t="s">
@@ -6800,6 +6824,9 @@
         <f t="shared" si="11"/>
         <v>Mucha, Zachary</v>
       </c>
+      <c r="R42" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S42" s="9"/>
       <c r="T42" s="3" t="s">
         <v>754</v>
@@ -6869,6 +6896,9 @@
         <f t="shared" si="11"/>
         <v>Murgas, Eric</v>
       </c>
+      <c r="R43" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S43" s="9"/>
       <c r="T43" s="3" t="s">
         <v>754</v>
@@ -7006,6 +7036,9 @@
         <f t="shared" si="11"/>
         <v>Nguyen, Long</v>
       </c>
+      <c r="R45" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="S45" s="9"/>
       <c r="T45" s="3" t="s">
         <v>754</v>
@@ -7075,6 +7108,9 @@
         <f t="shared" si="11"/>
         <v>Nykaza, Natalia</v>
       </c>
+      <c r="R46" s="3" t="s">
+        <v>838</v>
+      </c>
       <c r="S46" s="9"/>
       <c r="T46" s="3" t="s">
         <v>754</v>
@@ -7144,6 +7180,9 @@
         <f t="shared" si="11"/>
         <v>Ojeda, Karen</v>
       </c>
+      <c r="R47" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S47" s="9"/>
       <c r="T47" s="3" t="s">
         <v>754</v>
@@ -7357,6 +7396,9 @@
         <f t="shared" si="11"/>
         <v>Prieto, Mario</v>
       </c>
+      <c r="R50" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="S50" s="9"/>
       <c r="T50" s="3" t="s">
         <v>754</v>
@@ -7426,6 +7468,9 @@
         <f t="shared" si="11"/>
         <v>Richardson, Kaleb</v>
       </c>
+      <c r="R51" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S51" s="9"/>
       <c r="T51" s="3" t="s">
         <v>754</v>
@@ -7644,6 +7689,9 @@
         <f t="shared" si="11"/>
         <v>Siedlarczyk, Caroline</v>
       </c>
+      <c r="R54" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S54" s="9"/>
       <c r="T54" s="3" t="s">
         <v>754</v>
@@ -7713,6 +7761,9 @@
         <f t="shared" si="11"/>
         <v>Tolentino, Andrew</v>
       </c>
+      <c r="R55" s="3" t="s">
+        <v>840</v>
+      </c>
       <c r="S55" s="9"/>
       <c r="T55" s="3" t="s">
         <v>754</v>
@@ -7782,6 +7833,9 @@
         <f t="shared" si="11"/>
         <v>Woloszczuk-Mrugala, David</v>
       </c>
+      <c r="R56" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="S56" s="9"/>
       <c r="T56" s="3" t="s">
         <v>754</v>
@@ -7920,6 +7974,9 @@
         <f t="shared" si="11"/>
         <v>Abrutis, David</v>
       </c>
+      <c r="R58" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="S58" s="9"/>
       <c r="T58" s="3" t="s">
         <v>551</v>
@@ -7992,6 +8049,7 @@
         <f t="shared" si="11"/>
         <v>Contreras, Mia</v>
       </c>
+      <c r="R59" s="12"/>
       <c r="S59" s="9"/>
       <c r="T59" s="3" t="s">
         <v>551</v>
@@ -8064,6 +8122,9 @@
         <f t="shared" si="11"/>
         <v>Dosher, Julie</v>
       </c>
+      <c r="R60" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S60" s="9"/>
       <c r="T60" s="3" t="s">
         <v>551</v>
@@ -8274,6 +8335,9 @@
         <f t="shared" si="11"/>
         <v>Jaime, Michael</v>
       </c>
+      <c r="R63" s="3" t="s">
+        <v>834</v>
+      </c>
       <c r="S63" s="9"/>
       <c r="T63" s="3" t="s">
         <v>551</v>
@@ -8343,6 +8407,9 @@
         <f t="shared" si="11"/>
         <v>Montes De Oca Morfin, Jose</v>
       </c>
+      <c r="R64" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S64" s="9"/>
       <c r="T64" s="3" t="s">
         <v>551</v>
@@ -8412,6 +8479,9 @@
         <f t="shared" si="11"/>
         <v>Patel, Rahul</v>
       </c>
+      <c r="R65" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="S65" s="9"/>
       <c r="T65" s="3" t="s">
         <v>551</v>
@@ -8484,6 +8554,9 @@
         <f t="shared" ref="P66:P93" si="17">CONCATENATE(V66,", ",W66)</f>
         <v>Razzak, Huzaifa</v>
       </c>
+      <c r="R66" s="3" t="s">
+        <v>835</v>
+      </c>
       <c r="S66" s="9"/>
       <c r="T66" s="3" t="s">
         <v>551</v>
@@ -8556,6 +8629,7 @@
         <f t="shared" si="17"/>
         <v>Woods, Parker</v>
       </c>
+      <c r="R67" s="12"/>
       <c r="S67" s="9"/>
       <c r="T67" s="3" t="s">
         <v>551</v>
@@ -9109,7 +9183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9186,7 +9260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9260,7 +9334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9563,7 +9637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9730,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3" t="str">
-        <f t="shared" ref="J83:J92" si="18">M83</f>
+        <f t="shared" ref="J83:J93" si="18">M83</f>
         <v>MocDraft</v>
       </c>
       <c r="K83" s="3" t="s">
@@ -9981,7 +10055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10119,7 +10193,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10188,7 +10262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10257,7 +10331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" ref="A91" si="19">RIGHT(T91,9)</f>
         <v>49200-001</v>
@@ -10316,7 +10390,7 @@
       </c>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10382,11 +10456,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
       </c>
+      <c r="B93" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="D93" s="3">
         <f t="shared" si="12"/>
         <v>11</v>
@@ -10398,6 +10475,10 @@
       <c r="F93" s="3" t="str">
         <f t="shared" si="15"/>
         <v>Julie</v>
+      </c>
+      <c r="J93" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>QuizMaster</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>397</v>
@@ -10431,18 +10512,12 @@
   <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
         <filter val="49200-001"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Active"/>
       </filters>
     </filterColumn>
     <filterColumn colId="12">
       <filters>
-        <filter val="CodingKickstart"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2023-fall.xlsx
+++ b/students/all-students-2023-fall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE6D5D2-381C-204C-B50B-A18C7310147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D455AE0F-5C4C-3248-9423-3FB678D7964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45780" yWindow="-4240" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa-21" sheetId="4" r:id="rId1"/>
@@ -3794,13 +3794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="1">RIGHT(T2,9)</f>
         <v>20000-002</v>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4130,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4188,7 +4188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4259,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4334,7 +4334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4406,7 +4406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4464,7 +4464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4535,7 +4535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4610,7 +4610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4688,7 +4688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4763,7 +4763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4834,7 +4834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4909,7 +4909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -4986,7 +4986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5061,7 +5061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5133,7 +5133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5203,7 +5203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5278,7 +5278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5352,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5421,7 +5421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5491,7 +5491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5561,7 +5561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5635,7 +5635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5709,7 +5709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5781,7 +5781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5855,7 +5855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5927,7 +5927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -5998,7 +5998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-002</v>
@@ -6070,7 +6070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -6145,7 +6145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>20000-003</v>
@@ -6213,7 +6213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A65" si="7">RIGHT(T34,9)</f>
         <v>20000-003</v>
@@ -6282,7 +6282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6350,7 +6350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6421,7 +6421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6496,7 +6496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6568,7 +6568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6636,7 +6636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6708,7 +6708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6780,7 +6780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6851,7 +6851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6923,7 +6923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -6991,7 +6991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7063,7 +7063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7135,7 +7135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7207,7 +7207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7279,7 +7279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7351,7 +7351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7423,7 +7423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7495,7 +7495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7568,7 +7568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7644,7 +7644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7716,7 +7716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7788,7 +7788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7860,7 +7860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-003</v>
@@ -7929,7 +7929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8001,7 +8001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8074,7 +8074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8149,7 +8149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8221,7 +8221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8290,7 +8290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8362,7 +8362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8434,7 +8434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="7"/>
         <v>24700-001</v>
@@ -8506,7 +8506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" ref="A66:A93" si="13">RIGHT(T66,9)</f>
         <v>24700-001</v>
@@ -8581,7 +8581,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="13"/>
         <v>24700-001</v>
@@ -8654,7 +8654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8734,7 +8734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8808,7 +8808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8882,7 +8882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -8956,7 +8956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9030,7 +9030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9103,7 +9103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9183,7 +9183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9260,7 +9260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9334,7 +9334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9410,7 +9410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9487,7 +9487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9564,7 +9564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9637,7 +9637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="13"/>
         <v>44000-001</v>
@@ -9711,7 +9711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9780,7 +9780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9848,7 +9848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9917,7 +9917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -9986,7 +9986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10124,7 +10124,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="13"/>
         <v>49200-001</v>
@@ -10503,24 +10503,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:27" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="49200-001"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="QuizMaster"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AH98" xr:uid="{CE28DC9C-F631-D34D-9B23-3E25E0C6FE7B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS99">
     <sortCondition ref="A2:A99"/>
     <sortCondition ref="P2:P99"/>
